--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -3732,7 +3732,7 @@
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>73</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7140" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7138" uniqueCount="841">
   <si>
     <t>Property</t>
   </si>
@@ -1610,9 +1610,6 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
   </si>
   <si>
@@ -1689,8 +1686,8 @@
     <t>MedicationDispense.dosageInstruction.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Range
-Quantity {SimpleQuantity}</t>
+    <t>Quantity {SimpleQuantity}
+Range</t>
   </si>
   <si>
     <t>Amount of medication per dose</t>
@@ -2402,10 +2399,6 @@
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]</t>
-  </si>
-  <si>
-    <t>Quantity {SimpleQuantity}
-Range</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]</t>
@@ -3095,7 +3088,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="43">
@@ -3103,7 +3096,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44">
@@ -3119,7 +3112,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="46">
@@ -3127,7 +3120,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="47">
@@ -3172,10 +3165,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>609</v>
       </c>
     </row>
     <row r="53">
@@ -3183,7 +3176,7 @@
         <v>22</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="54">
@@ -3219,7 +3212,7 @@
         <v>30</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="59">
@@ -3227,7 +3220,7 @@
         <v>32</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="60">
@@ -14670,7 +14663,7 @@
         <v>81</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>73</v>
@@ -14714,31 +14707,29 @@
         <v>73</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Z110" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Z110" s="2"/>
+      <c r="AA110" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AA110" t="s" s="2">
+      <c r="AB110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG110" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>74</v>
@@ -14758,10 +14749,10 @@
         <v>337</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14787,16 +14778,16 @@
         <v>147</v>
       </c>
       <c r="M111" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="O111" t="s" s="2">
+      <c r="P111" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="Q111" t="s" s="2">
         <v>73</v>
@@ -14824,28 +14815,28 @@
         <v>151</v>
       </c>
       <c r="Z111" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AA111" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AA111" t="s" s="2">
+      <c r="AB111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG111" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>74</v>
@@ -14865,10 +14856,10 @@
         <v>337</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14882,7 +14873,7 @@
         <v>75</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>73</v>
@@ -14891,13 +14882,13 @@
         <v>82</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -14948,7 +14939,7 @@
         <v>73</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>74</v>
@@ -14968,10 +14959,10 @@
         <v>337</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15071,10 +15062,10 @@
         <v>337</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15176,10 +15167,10 @@
         <v>337</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15205,14 +15196,14 @@
         <v>147</v>
       </c>
       <c r="M115" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q115" t="s" s="2">
         <v>73</v>
@@ -15240,28 +15231,28 @@
         <v>151</v>
       </c>
       <c r="Z115" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AA115" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AA115" t="s" s="2">
+      <c r="AB115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG115" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>74</v>
@@ -15281,10 +15272,10 @@
         <v>337</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -15298,7 +15289,7 @@
         <v>81</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J116" t="s" s="2">
         <v>73</v>
@@ -15307,19 +15298,19 @@
         <v>82</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="O116" t="s" s="2">
+      <c r="P116" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="P116" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="Q116" t="s" s="2">
         <v>73</v>
@@ -15344,13 +15335,11 @@
         <v>73</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Z116" s="2"/>
       <c r="AA116" t="s" s="2">
-        <v>73</v>
+        <v>432</v>
       </c>
       <c r="AB116" t="s" s="2">
         <v>73</v>
@@ -15368,7 +15357,7 @@
         <v>73</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>74</v>
@@ -15388,10 +15377,10 @@
         <v>337</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15414,19 +15403,19 @@
         <v>82</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="O117" t="s" s="2">
+      <c r="P117" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="P117" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="Q117" t="s" s="2">
         <v>73</v>
@@ -15475,7 +15464,7 @@
         <v>73</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>74</v>
@@ -15495,10 +15484,10 @@
         <v>337</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15521,19 +15510,19 @@
         <v>82</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="N118" t="s" s="2">
+      <c r="O118" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="O118" t="s" s="2">
+      <c r="P118" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="P118" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="Q118" t="s" s="2">
         <v>73</v>
@@ -15582,7 +15571,7 @@
         <v>73</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>74</v>
@@ -15602,10 +15591,10 @@
         <v>337</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15631,16 +15620,16 @@
         <v>215</v>
       </c>
       <c r="M119" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N119" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="N119" t="s" s="2">
+      <c r="O119" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="O119" t="s" s="2">
+      <c r="P119" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="Q119" t="s" s="2">
         <v>73</v>
@@ -15689,7 +15678,7 @@
         <v>73</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>74</v>
@@ -15709,10 +15698,10 @@
         <v>337</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -15738,14 +15727,14 @@
         <v>215</v>
       </c>
       <c r="M120" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Q120" t="s" s="2">
         <v>73</v>
@@ -15794,7 +15783,7 @@
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>74</v>
@@ -15814,10 +15803,10 @@
         <v>337</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -15843,10 +15832,10 @@
         <v>219</v>
       </c>
       <c r="M121" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
@@ -15897,7 +15886,7 @@
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>74</v>
@@ -15917,10 +15906,10 @@
         <v>337</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16020,10 +16009,10 @@
         <v>337</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16125,10 +16114,10 @@
         <v>337</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16232,10 +16221,10 @@
         <v>337</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16261,10 +16250,10 @@
         <v>178</v>
       </c>
       <c r="M125" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N125" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -16315,7 +16304,7 @@
         <v>73</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>81</v>
@@ -16335,10 +16324,10 @@
         <v>337</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -16364,10 +16353,10 @@
         <v>147</v>
       </c>
       <c r="M126" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N126" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
@@ -16397,11 +16386,11 @@
         <v>151</v>
       </c>
       <c r="Z126" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AA126" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="AA126" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AB126" t="s" s="2">
         <v>73</v>
       </c>
@@ -16418,7 +16407,7 @@
         <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>74</v>
@@ -16438,10 +16427,10 @@
         <v>337</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -16467,10 +16456,10 @@
         <v>147</v>
       </c>
       <c r="M127" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N127" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -16500,11 +16489,11 @@
         <v>151</v>
       </c>
       <c r="Z127" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AA127" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="AA127" t="s" s="2">
-        <v>588</v>
-      </c>
       <c r="AB127" t="s" s="2">
         <v>73</v>
       </c>
@@ -16521,7 +16510,7 @@
         <v>73</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>74</v>
@@ -16541,10 +16530,10 @@
         <v>337</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -16567,13 +16556,13 @@
         <v>73</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
@@ -16624,7 +16613,7 @@
         <v>73</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>74</v>
@@ -16644,14 +16633,14 @@
         <v>337</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" t="s" s="2">
@@ -16670,16 +16659,16 @@
         <v>73</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="N129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
@@ -16729,7 +16718,7 @@
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>74</v>
@@ -16749,10 +16738,10 @@
         <v>337</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -16775,16 +16764,16 @@
         <v>73</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
@@ -16834,7 +16823,7 @@
         <v>73</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>74</v>
@@ -16851,17 +16840,17 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" t="s" s="2">
@@ -16883,10 +16872,10 @@
         <v>76</v>
       </c>
       <c r="M131" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N131" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
@@ -16937,7 +16926,7 @@
         <v>73</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>74</v>
@@ -16949,18 +16938,18 @@
         <v>73</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17059,13 +17048,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17162,13 +17151,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17267,13 +17256,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17372,13 +17361,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17477,13 +17466,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -17582,13 +17571,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17614,10 +17603,10 @@
         <v>125</v>
       </c>
       <c r="M138" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
@@ -17683,16 +17672,16 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B139" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="D139" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="D139" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="E139" t="s" s="2">
         <v>73</v>
@@ -17714,13 +17703,13 @@
         <v>73</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
@@ -17780,7 +17769,7 @@
         <v>75</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>130</v>
@@ -17788,13 +17777,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17895,13 +17884,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17927,10 +17916,10 @@
         <v>137</v>
       </c>
       <c r="M141" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>358</v>
@@ -17983,7 +17972,7 @@
         <v>73</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>74</v>
@@ -18000,13 +17989,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18032,10 +18021,10 @@
         <v>101</v>
       </c>
       <c r="M142" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N142" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>366</v>
@@ -18067,11 +18056,11 @@
         <v>144</v>
       </c>
       <c r="Z142" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AA142" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="AA142" t="s" s="2">
-        <v>640</v>
-      </c>
       <c r="AB142" t="s" s="2">
         <v>73</v>
       </c>
@@ -18088,7 +18077,7 @@
         <v>73</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>81</v>
@@ -18105,13 +18094,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18137,13 +18126,13 @@
         <v>147</v>
       </c>
       <c r="M143" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="N143" t="s" s="2">
+      <c r="O143" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
@@ -18172,11 +18161,11 @@
         <v>151</v>
       </c>
       <c r="Z143" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AA143" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="AA143" t="s" s="2">
-        <v>646</v>
-      </c>
       <c r="AB143" t="s" s="2">
         <v>73</v>
       </c>
@@ -18193,7 +18182,7 @@
         <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>74</v>
@@ -18210,13 +18199,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18242,13 +18231,13 @@
         <v>101</v>
       </c>
       <c r="M144" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="N144" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="N144" t="s" s="2">
+      <c r="O144" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -18277,37 +18266,37 @@
         <v>144</v>
       </c>
       <c r="Z144" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AA144" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="AA144" t="s" s="2">
+      <c r="AB144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>93</v>
@@ -18315,13 +18304,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18347,13 +18336,13 @@
         <v>147</v>
       </c>
       <c r="M145" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N145" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="N145" t="s" s="2">
+      <c r="O145" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
@@ -18382,16 +18371,16 @@
         <v>151</v>
       </c>
       <c r="Z145" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AA145" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="AA145" t="s" s="2">
+      <c r="AB145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC145" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="AD145" s="2"/>
       <c r="AE145" t="s" s="2">
@@ -18401,7 +18390,7 @@
         <v>461</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>74</v>
@@ -18418,16 +18407,16 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B146" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="D146" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="C146" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="D146" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="E146" t="s" s="2">
         <v>73</v>
@@ -18452,13 +18441,13 @@
         <v>147</v>
       </c>
       <c r="M146" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N146" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="N146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
@@ -18487,10 +18476,10 @@
         <v>144</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AA146" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AB146" t="s" s="2">
         <v>73</v>
@@ -18508,7 +18497,7 @@
         <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>74</v>
@@ -18525,13 +18514,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18557,10 +18546,10 @@
         <v>101</v>
       </c>
       <c r="M147" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
@@ -18590,11 +18579,11 @@
         <v>144</v>
       </c>
       <c r="Z147" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AA147" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="AA147" t="s" s="2">
-        <v>668</v>
-      </c>
       <c r="AB147" t="s" s="2">
         <v>73</v>
       </c>
@@ -18611,7 +18600,7 @@
         <v>73</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>74</v>
@@ -18628,13 +18617,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18660,13 +18649,13 @@
         <v>178</v>
       </c>
       <c r="M148" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="N148" t="s" s="2">
+      <c r="O148" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
@@ -18716,7 +18705,7 @@
         <v>73</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>74</v>
@@ -18733,13 +18722,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -18762,13 +18751,13 @@
         <v>82</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
@@ -18819,7 +18808,7 @@
         <v>73</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>74</v>
@@ -18836,13 +18825,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18868,13 +18857,13 @@
         <v>383</v>
       </c>
       <c r="M150" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="N150" t="s" s="2">
+      <c r="O150" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
@@ -18922,7 +18911,7 @@
         <v>73</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>81</v>
@@ -18939,13 +18928,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -18971,13 +18960,13 @@
         <v>389</v>
       </c>
       <c r="M151" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="N151" t="s" s="2">
+      <c r="O151" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
@@ -19027,7 +19016,7 @@
         <v>73</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>81</v>
@@ -19044,13 +19033,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19076,13 +19065,13 @@
         <v>165</v>
       </c>
       <c r="M152" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="N152" t="s" s="2">
+      <c r="O152" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
@@ -19132,7 +19121,7 @@
         <v>73</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>74</v>
@@ -19149,13 +19138,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19181,10 +19170,10 @@
         <v>398</v>
       </c>
       <c r="M153" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -19235,7 +19224,7 @@
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>74</v>
@@ -19252,13 +19241,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -19284,10 +19273,10 @@
         <v>174</v>
       </c>
       <c r="M154" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="N154" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -19338,7 +19327,7 @@
         <v>73</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>74</v>
@@ -19355,13 +19344,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19387,10 +19376,10 @@
         <v>413</v>
       </c>
       <c r="M155" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -19441,7 +19430,7 @@
         <v>73</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>74</v>
@@ -19450,7 +19439,7 @@
         <v>81</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>93</v>
@@ -19458,13 +19447,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -19487,13 +19476,13 @@
         <v>73</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -19544,7 +19533,7 @@
         <v>73</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>74</v>
@@ -19561,13 +19550,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19593,13 +19582,13 @@
         <v>147</v>
       </c>
       <c r="M157" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="N157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
@@ -19628,11 +19617,11 @@
         <v>151</v>
       </c>
       <c r="Z157" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AA157" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="AA157" t="s" s="2">
-        <v>707</v>
-      </c>
       <c r="AB157" t="s" s="2">
         <v>73</v>
       </c>
@@ -19649,7 +19638,7 @@
         <v>73</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>74</v>
@@ -19666,13 +19655,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -19695,13 +19684,13 @@
         <v>73</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M158" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
@@ -19752,7 +19741,7 @@
         <v>73</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>74</v>
@@ -19769,13 +19758,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -19801,13 +19790,13 @@
         <v>147</v>
       </c>
       <c r="M159" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="N159" t="s" s="2">
+      <c r="O159" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
@@ -19837,7 +19826,7 @@
       </c>
       <c r="Z159" s="2"/>
       <c r="AA159" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AB159" t="s" s="2">
         <v>73</v>
@@ -19855,7 +19844,7 @@
         <v>73</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>74</v>
@@ -19872,13 +19861,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -19901,16 +19890,16 @@
         <v>73</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="N160" t="s" s="2">
+      <c r="O160" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="O160" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" t="s" s="2">
@@ -19960,7 +19949,7 @@
         <v>73</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>74</v>
@@ -19977,13 +19966,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20006,13 +19995,13 @@
         <v>82</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>722</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -20063,7 +20052,7 @@
         <v>73</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>74</v>
@@ -20080,13 +20069,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20112,10 +20101,10 @@
         <v>95</v>
       </c>
       <c r="M162" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="N162" t="s" s="2">
         <v>726</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -20166,7 +20155,7 @@
         <v>73</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>74</v>
@@ -20183,13 +20172,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20212,13 +20201,13 @@
         <v>82</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -20269,7 +20258,7 @@
         <v>73</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>74</v>
@@ -20286,13 +20275,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20318,14 +20307,14 @@
         <v>137</v>
       </c>
       <c r="M164" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Q164" t="s" s="2">
         <v>73</v>
@@ -20374,7 +20363,7 @@
         <v>73</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>74</v>
@@ -20391,13 +20380,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20423,13 +20412,13 @@
         <v>147</v>
       </c>
       <c r="M165" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>737</v>
       </c>
-      <c r="N165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
@@ -20458,11 +20447,11 @@
         <v>151</v>
       </c>
       <c r="Z165" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="AA165" t="s" s="2">
         <v>740</v>
       </c>
-      <c r="AA165" t="s" s="2">
-        <v>741</v>
-      </c>
       <c r="AB165" t="s" s="2">
         <v>73</v>
       </c>
@@ -20479,7 +20468,7 @@
         <v>73</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>74</v>
@@ -20496,13 +20485,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -20525,13 +20514,13 @@
         <v>73</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
@@ -20582,7 +20571,7 @@
         <v>73</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>74</v>
@@ -20599,13 +20588,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -20631,10 +20620,10 @@
         <v>245</v>
       </c>
       <c r="M167" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="N167" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
@@ -20685,7 +20674,7 @@
         <v>73</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>74</v>
@@ -20702,13 +20691,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -20734,13 +20723,13 @@
         <v>453</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>455</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P168" s="2"/>
       <c r="Q168" t="s" s="2">
@@ -20790,7 +20779,7 @@
         <v>73</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>74</v>
@@ -20807,13 +20796,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -20910,13 +20899,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -21015,13 +21004,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -21122,13 +21111,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -21227,13 +21216,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -21332,13 +21321,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -21439,13 +21428,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -21542,13 +21531,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -21649,13 +21638,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -21754,13 +21743,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -21861,13 +21850,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -21929,25 +21918,25 @@
       </c>
       <c r="Z179" s="2"/>
       <c r="AA179" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG179" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>74</v>
@@ -21964,13 +21953,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -21996,16 +21985,16 @@
         <v>147</v>
       </c>
       <c r="M180" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N180" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="N180" t="s" s="2">
+      <c r="O180" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="O180" t="s" s="2">
+      <c r="P180" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="P180" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="Q180" t="s" s="2">
         <v>73</v>
@@ -22033,28 +22022,28 @@
         <v>151</v>
       </c>
       <c r="Z180" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AA180" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AA180" t="s" s="2">
+      <c r="AB180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG180" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG180" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>74</v>
@@ -22071,13 +22060,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -22100,13 +22089,13 @@
         <v>82</v>
       </c>
       <c r="L181" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M181" t="s" s="2">
+      <c r="N181" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
@@ -22157,7 +22146,7 @@
         <v>73</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>74</v>
@@ -22174,13 +22163,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -22277,13 +22266,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -22382,13 +22371,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -22414,14 +22403,14 @@
         <v>147</v>
       </c>
       <c r="M184" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N184" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q184" t="s" s="2">
         <v>73</v>
@@ -22449,28 +22438,28 @@
         <v>151</v>
       </c>
       <c r="Z184" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AA184" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AA184" t="s" s="2">
+      <c r="AB184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG184" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>74</v>
@@ -22487,13 +22476,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -22516,19 +22505,19 @@
         <v>82</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>769</v>
+        <v>538</v>
       </c>
       <c r="M185" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N185" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="N185" t="s" s="2">
+      <c r="O185" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="O185" t="s" s="2">
+      <c r="P185" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="P185" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="Q185" t="s" s="2">
         <v>73</v>
@@ -22575,7 +22564,7 @@
         <v>73</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>74</v>
@@ -22592,13 +22581,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -22621,19 +22610,19 @@
         <v>82</v>
       </c>
       <c r="L186" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="N186" t="s" s="2">
+      <c r="O186" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="O186" t="s" s="2">
+      <c r="P186" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="P186" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="Q186" t="s" s="2">
         <v>73</v>
@@ -22682,7 +22671,7 @@
         <v>73</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>74</v>
@@ -22699,13 +22688,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -22728,19 +22717,19 @@
         <v>82</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="N187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="O187" t="s" s="2">
+      <c r="P187" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="P187" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="Q187" t="s" s="2">
         <v>73</v>
@@ -22789,7 +22778,7 @@
         <v>73</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>74</v>
@@ -22806,13 +22795,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -22838,16 +22827,16 @@
         <v>215</v>
       </c>
       <c r="M188" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N188" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="N188" t="s" s="2">
+      <c r="O188" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="O188" t="s" s="2">
+      <c r="P188" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="P188" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="Q188" t="s" s="2">
         <v>73</v>
@@ -22896,7 +22885,7 @@
         <v>73</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>74</v>
@@ -22913,13 +22902,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -22945,14 +22934,14 @@
         <v>215</v>
       </c>
       <c r="M189" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N189" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Q189" t="s" s="2">
         <v>73</v>
@@ -23001,7 +22990,7 @@
         <v>73</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>74</v>
@@ -23018,13 +23007,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -23050,10 +23039,10 @@
         <v>219</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
@@ -23104,7 +23093,7 @@
         <v>73</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>74</v>
@@ -23121,13 +23110,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23224,13 +23213,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -23329,13 +23318,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -23436,13 +23425,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -23468,13 +23457,13 @@
         <v>219</v>
       </c>
       <c r="M194" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="N194" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="O194" t="s" s="2">
         <v>781</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="P194" s="2"/>
       <c r="Q194" t="s" s="2">
@@ -23524,7 +23513,7 @@
         <v>73</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>74</v>
@@ -23541,13 +23530,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -23644,13 +23633,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -23749,13 +23738,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -23856,13 +23845,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -23888,10 +23877,10 @@
         <v>215</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
@@ -23942,7 +23931,7 @@
         <v>73</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>74</v>
@@ -23959,13 +23948,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -23988,13 +23977,13 @@
         <v>73</v>
       </c>
       <c r="L199" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="N199" t="s" s="2">
         <v>791</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>793</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
@@ -24045,7 +24034,7 @@
         <v>73</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>74</v>
@@ -24062,13 +24051,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -24091,13 +24080,13 @@
         <v>73</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
@@ -24148,7 +24137,7 @@
         <v>73</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>74</v>
@@ -24165,13 +24154,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -24194,19 +24183,19 @@
         <v>73</v>
       </c>
       <c r="L201" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="N201" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="M201" t="s" s="2">
+      <c r="O201" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="N201" t="s" s="2">
+      <c r="P201" t="s" s="2">
         <v>800</v>
-      </c>
-      <c r="O201" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="P201" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="Q201" t="s" s="2">
         <v>73</v>
@@ -24255,7 +24244,7 @@
         <v>73</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>74</v>
@@ -24272,13 +24261,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -24301,16 +24290,16 @@
         <v>73</v>
       </c>
       <c r="L202" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="N202" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="M202" t="s" s="2">
+      <c r="O202" t="s" s="2">
         <v>805</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="O202" t="s" s="2">
-        <v>807</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
@@ -24360,7 +24349,7 @@
         <v>73</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>74</v>
@@ -24377,13 +24366,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -24409,10 +24398,10 @@
         <v>215</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
@@ -24463,7 +24452,7 @@
         <v>73</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>74</v>
@@ -24480,13 +24469,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -24509,16 +24498,16 @@
         <v>73</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="M204" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="O204" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="O204" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
@@ -24568,7 +24557,7 @@
         <v>73</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>74</v>
@@ -24585,13 +24574,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -24617,10 +24606,10 @@
         <v>193</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
@@ -24671,7 +24660,7 @@
         <v>73</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>74</v>
@@ -24688,13 +24677,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -24720,10 +24709,10 @@
         <v>219</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
@@ -24774,7 +24763,7 @@
         <v>73</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>74</v>
@@ -24791,13 +24780,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -24894,13 +24883,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -24999,13 +24988,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -25106,13 +25095,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -25138,13 +25127,13 @@
         <v>494</v>
       </c>
       <c r="M210" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="N210" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="O210" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="O210" t="s" s="2">
-        <v>827</v>
       </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
@@ -25173,10 +25162,10 @@
         <v>151</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AA210" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AB210" t="s" s="2">
         <v>73</v>
@@ -25194,7 +25183,7 @@
         <v>73</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>81</v>
@@ -25211,13 +25200,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -25243,10 +25232,10 @@
         <v>147</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
@@ -25276,11 +25265,11 @@
         <v>151</v>
       </c>
       <c r="Z211" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AA211" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="AA211" t="s" s="2">
-        <v>588</v>
-      </c>
       <c r="AB211" t="s" s="2">
         <v>73</v>
       </c>
@@ -25297,7 +25286,7 @@
         <v>73</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>74</v>
@@ -25314,13 +25303,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -25343,13 +25332,13 @@
         <v>73</v>
       </c>
       <c r="L212" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="N212" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>834</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>835</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
@@ -25400,7 +25389,7 @@
         <v>73</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>74</v>
@@ -25417,17 +25406,17 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" t="s" s="2">
@@ -25446,16 +25435,16 @@
         <v>73</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P213" s="2"/>
       <c r="Q213" t="s" s="2">
@@ -25505,7 +25494,7 @@
         <v>73</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>74</v>
@@ -25522,13 +25511,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -25551,16 +25540,16 @@
         <v>73</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M214" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="N214" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="O214" t="s" s="2">
         <v>840</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>841</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>842</v>
       </c>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
@@ -25610,7 +25599,7 @@
         <v>73</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>74</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10087" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10154" uniqueCount="1243">
   <si>
     <t>Property</t>
   </si>
@@ -2786,6 +2786,9 @@
 </t>
   </si>
   <si>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Sex Parameters for Clinical Use Extension</t>
+  </si>
+  <si>
     <t>A parameter that provides guidance on how a recipient should apply settings or reference ranges that are derived from observable information such as an organ inventory, recent hormone lab tests, genetic testing, menstrual status, obstetric history, etc..</t>
   </si>
   <si>
@@ -2806,6 +2809,41 @@
   </si>
   <si>
     <t>This represents an individual's identity, ascertained by asking them what that identity is.</t>
+  </si>
+  <si>
+    <t>Patient.extension:personalPronouns</t>
+  </si>
+  <si>
+    <t>personalPronouns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {individual-pronouns}
+</t>
+  </si>
+  <si>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Individual's Pronouns Extension</t>
+  </si>
+  <si>
+    <t>The pronouns to use when referring to an individual in verbal or written communication.</t>
+  </si>
+  <si>
+    <t>Patient.extension:interpreterRequired</t>
+  </si>
+  <si>
+    <t>interpreterRequired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-interpreterRequired}
+</t>
+  </si>
+  <si>
+    <t>Whether the patient needs an interpreter</t>
+  </si>
+  <si>
+    <t>This Patient requires an interpreter to communicate healthcare information to the practitioner.</t>
+  </si>
+  <si>
+    <t>The Patient does not speak the default language of the organization, and hence requires an interpreter. If the patient has other languages in the Communications list, then that would be the type of interpreter required.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -4622,7 +4660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK302"/>
+  <dimension ref="A1:AK304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -28385,10 +28423,10 @@
         <v>889</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
@@ -28459,13 +28497,13 @@
         <v>841</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C229" t="s" s="2">
         <v>858</v>
       </c>
       <c r="D229" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E229" t="s" s="2">
         <v>73</v>
@@ -28487,16 +28525,16 @@
         <v>73</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="O229" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="P229" s="2"/>
       <c r="Q229" t="s" s="2">
@@ -28566,14 +28604,16 @@
         <v>841</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>897</v>
-      </c>
-      <c r="D230" s="2"/>
+        <v>858</v>
+      </c>
+      <c r="D230" t="s" s="2">
+        <v>899</v>
+      </c>
       <c r="E230" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s" s="2">
@@ -28586,26 +28626,22 @@
         <v>73</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K230" t="s" s="2">
         <v>73</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>125</v>
+        <v>900</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>132</v>
+        <v>901</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O230" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P230" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="O230" s="2"/>
+      <c r="P230" s="2"/>
       <c r="Q230" t="s" s="2">
         <v>73</v>
       </c>
@@ -28653,7 +28689,7 @@
         <v>73</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>74</v>
@@ -28673,44 +28709,46 @@
         <v>841</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>898</v>
-      </c>
-      <c r="D231" s="2"/>
+        <v>858</v>
+      </c>
+      <c r="D231" t="s" s="2">
+        <v>904</v>
+      </c>
       <c r="E231" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I231" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J231" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>137</v>
+        <v>905</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="O231" s="2"/>
-      <c r="P231" t="s" s="2">
-        <v>901</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="O231" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
         <v>73</v>
       </c>
@@ -28758,7 +28796,7 @@
         <v>73</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>898</v>
+        <v>129</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>74</v>
@@ -28770,7 +28808,7 @@
         <v>73</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="232">
@@ -28778,42 +28816,46 @@
         <v>841</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H232" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I232" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K232" t="s" s="2">
         <v>73</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="O232" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P232" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="Q232" t="s" s="2">
         <v>73</v>
       </c>
@@ -28861,19 +28903,19 @@
         <v>73</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ232" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="233">
@@ -28881,44 +28923,44 @@
         <v>841</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F233" s="2"/>
       <c r="G233" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H233" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I233" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J233" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>126</v>
+        <v>911</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O233" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P233" s="2"/>
+        <v>912</v>
+      </c>
+      <c r="O233" s="2"/>
+      <c r="P233" t="s" s="2">
+        <v>913</v>
+      </c>
       <c r="Q233" t="s" s="2">
         <v>73</v>
       </c>
@@ -28954,19 +28996,19 @@
         <v>73</v>
       </c>
       <c r="AC233" t="s" s="2">
-        <v>459</v>
+        <v>73</v>
       </c>
       <c r="AD233" t="s" s="2">
-        <v>460</v>
+        <v>73</v>
       </c>
       <c r="AE233" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>461</v>
+        <v>73</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>228</v>
+        <v>910</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>74</v>
@@ -28978,7 +29020,7 @@
         <v>73</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="234">
@@ -28986,10 +29028,10 @@
         <v>841</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -29006,26 +29048,22 @@
         <v>73</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>905</v>
+        <v>223</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>906</v>
-      </c>
-      <c r="O234" t="s" s="2">
-        <v>907</v>
-      </c>
-      <c r="P234" t="s" s="2">
-        <v>908</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
       <c r="Q234" t="s" s="2">
         <v>73</v>
       </c>
@@ -29049,13 +29087,13 @@
         <v>73</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="Z234" t="s" s="2">
-        <v>909</v>
+        <v>73</v>
       </c>
       <c r="AA234" t="s" s="2">
-        <v>910</v>
+        <v>73</v>
       </c>
       <c r="AB234" t="s" s="2">
         <v>73</v>
@@ -29073,7 +29111,7 @@
         <v>73</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>911</v>
+        <v>225</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>74</v>
@@ -29085,7 +29123,7 @@
         <v>73</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235">
@@ -29093,21 +29131,21 @@
         <v>841</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H235" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I235" t="s" s="2">
         <v>73</v>
@@ -29116,23 +29154,21 @@
         <v>73</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>913</v>
+        <v>126</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>914</v>
+        <v>227</v>
       </c>
       <c r="O235" t="s" s="2">
-        <v>915</v>
-      </c>
-      <c r="P235" t="s" s="2">
-        <v>916</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
         <v>73</v>
       </c>
@@ -29156,43 +29192,43 @@
         <v>73</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="Z235" t="s" s="2">
-        <v>917</v>
+        <v>73</v>
       </c>
       <c r="AA235" t="s" s="2">
-        <v>918</v>
+        <v>73</v>
       </c>
       <c r="AB235" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AC235" t="s" s="2">
-        <v>73</v>
+        <v>459</v>
       </c>
       <c r="AD235" t="s" s="2">
-        <v>73</v>
+        <v>460</v>
       </c>
       <c r="AE235" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>73</v>
+        <v>461</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>919</v>
+        <v>228</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ235" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="236">
@@ -29200,10 +29236,10 @@
         <v>841</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -29211,34 +29247,34 @@
       </c>
       <c r="F236" s="2"/>
       <c r="G236" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H236" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I236" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J236" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="J236" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="K236" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="P236" t="s" s="2">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="Q236" t="s" s="2">
         <v>73</v>
@@ -29251,7 +29287,7 @@
         <v>73</v>
       </c>
       <c r="U236" t="s" s="2">
-        <v>925</v>
+        <v>73</v>
       </c>
       <c r="V236" t="s" s="2">
         <v>73</v>
@@ -29263,13 +29299,13 @@
         <v>73</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="Z236" t="s" s="2">
-        <v>73</v>
+        <v>921</v>
       </c>
       <c r="AA236" t="s" s="2">
-        <v>73</v>
+        <v>922</v>
       </c>
       <c r="AB236" t="s" s="2">
         <v>73</v>
@@ -29287,7 +29323,7 @@
         <v>73</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>74</v>
@@ -29307,10 +29343,10 @@
         <v>841</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -29318,13 +29354,13 @@
       </c>
       <c r="F237" s="2"/>
       <c r="G237" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I237" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J237" t="s" s="2">
         <v>73</v>
@@ -29333,18 +29369,20 @@
         <v>82</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="M237" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="N237" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="O237" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="P237" t="s" s="2">
         <v>928</v>
       </c>
-      <c r="N237" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>930</v>
-      </c>
-      <c r="P237" s="2"/>
       <c r="Q237" t="s" s="2">
         <v>73</v>
       </c>
@@ -29356,43 +29394,43 @@
         <v>73</v>
       </c>
       <c r="U237" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V237" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W237" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X237" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>929</v>
+      </c>
+      <c r="AA237" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="AB237" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC237" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD237" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE237" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF237" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG237" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="V237" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W237" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X237" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y237" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z237" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA237" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB237" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC237" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD237" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE237" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF237" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG237" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>74</v>
@@ -29412,10 +29450,10 @@
         <v>841</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -29423,13 +29461,13 @@
       </c>
       <c r="F238" s="2"/>
       <c r="G238" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H238" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I238" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J238" t="s" s="2">
         <v>73</v>
@@ -29438,16 +29476,20 @@
         <v>82</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>796</v>
+        <v>95</v>
       </c>
       <c r="M238" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="N238" t="s" s="2">
         <v>934</v>
       </c>
-      <c r="N238" t="s" s="2">
+      <c r="O238" t="s" s="2">
         <v>935</v>
       </c>
-      <c r="O238" s="2"/>
-      <c r="P238" s="2"/>
+      <c r="P238" t="s" s="2">
+        <v>936</v>
+      </c>
       <c r="Q238" t="s" s="2">
         <v>73</v>
       </c>
@@ -29459,7 +29501,7 @@
         <v>73</v>
       </c>
       <c r="U238" t="s" s="2">
-        <v>73</v>
+        <v>937</v>
       </c>
       <c r="V238" t="s" s="2">
         <v>73</v>
@@ -29495,7 +29537,7 @@
         <v>73</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>74</v>
@@ -29515,10 +29557,10 @@
         <v>841</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -29526,13 +29568,13 @@
       </c>
       <c r="F239" s="2"/>
       <c r="G239" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H239" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I239" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J239" t="s" s="2">
         <v>73</v>
@@ -29541,16 +29583,16 @@
         <v>82</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O239" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="P239" s="2"/>
       <c r="Q239" t="s" s="2">
@@ -29564,7 +29606,7 @@
         <v>73</v>
       </c>
       <c r="U239" t="s" s="2">
-        <v>73</v>
+        <v>943</v>
       </c>
       <c r="V239" t="s" s="2">
         <v>73</v>
@@ -29600,7 +29642,7 @@
         <v>73</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>74</v>
@@ -29620,10 +29662,10 @@
         <v>841</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -29640,32 +29682,26 @@
         <v>73</v>
       </c>
       <c r="J240" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K240" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>178</v>
+        <v>796</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>944</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="P240" t="s" s="2">
-        <v>946</v>
-      </c>
+        <v>947</v>
+      </c>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
       <c r="Q240" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="R240" t="s" s="2">
-        <v>947</v>
-      </c>
+      <c r="R240" s="2"/>
       <c r="S240" t="s" s="2">
         <v>73</v>
       </c>
@@ -29709,7 +29745,7 @@
         <v>73</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>74</v>
@@ -29729,10 +29765,10 @@
         <v>841</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -29740,13 +29776,13 @@
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H241" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I241" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J241" t="s" s="2">
         <v>73</v>
@@ -29755,7 +29791,7 @@
         <v>82</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>949</v>
+        <v>193</v>
       </c>
       <c r="M241" t="s" s="2">
         <v>950</v>
@@ -29766,9 +29802,7 @@
       <c r="O241" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="P241" t="s" s="2">
-        <v>953</v>
-      </c>
+      <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
         <v>73</v>
       </c>
@@ -29816,19 +29850,19 @@
         <v>73</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI241" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ241" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>954</v>
+        <v>93</v>
       </c>
     </row>
     <row r="242">
@@ -29836,10 +29870,10 @@
         <v>841</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -29856,26 +29890,32 @@
         <v>73</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>223</v>
+        <v>955</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O242" s="2"/>
-      <c r="P242" s="2"/>
+        <v>956</v>
+      </c>
+      <c r="O242" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="P242" t="s" s="2">
+        <v>958</v>
+      </c>
       <c r="Q242" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="R242" s="2"/>
+      <c r="R242" t="s" s="2">
+        <v>959</v>
+      </c>
       <c r="S242" t="s" s="2">
         <v>73</v>
       </c>
@@ -29919,7 +29959,7 @@
         <v>73</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>225</v>
+        <v>954</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>74</v>
@@ -29931,7 +29971,7 @@
         <v>73</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="243">
@@ -29939,44 +29979,46 @@
         <v>841</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H243" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I243" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J243" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>125</v>
+        <v>961</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>126</v>
+        <v>962</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>227</v>
+        <v>963</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P243" s="2"/>
+        <v>964</v>
+      </c>
+      <c r="P243" t="s" s="2">
+        <v>965</v>
+      </c>
       <c r="Q243" t="s" s="2">
         <v>73</v>
       </c>
@@ -30012,19 +30054,19 @@
         <v>73</v>
       </c>
       <c r="AC243" t="s" s="2">
-        <v>459</v>
+        <v>73</v>
       </c>
       <c r="AD243" t="s" s="2">
-        <v>460</v>
+        <v>73</v>
       </c>
       <c r="AE243" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>461</v>
+        <v>73</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>228</v>
+        <v>960</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>74</v>
@@ -30036,7 +30078,7 @@
         <v>73</v>
       </c>
       <c r="AK243" t="s" s="2">
-        <v>130</v>
+        <v>966</v>
       </c>
     </row>
     <row r="244">
@@ -30044,10 +30086,10 @@
         <v>841</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -30064,26 +30106,22 @@
         <v>73</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>958</v>
+        <v>223</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>959</v>
-      </c>
-      <c r="O244" t="s" s="2">
-        <v>960</v>
-      </c>
-      <c r="P244" t="s" s="2">
-        <v>961</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O244" s="2"/>
+      <c r="P244" s="2"/>
       <c r="Q244" t="s" s="2">
         <v>73</v>
       </c>
@@ -30107,13 +30145,13 @@
         <v>73</v>
       </c>
       <c r="Y244" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="Z244" t="s" s="2">
-        <v>962</v>
+        <v>73</v>
       </c>
       <c r="AA244" t="s" s="2">
-        <v>963</v>
+        <v>73</v>
       </c>
       <c r="AB244" t="s" s="2">
         <v>73</v>
@@ -30131,7 +30169,7 @@
         <v>73</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>964</v>
+        <v>225</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>74</v>
@@ -30143,7 +30181,7 @@
         <v>73</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245">
@@ -30151,21 +30189,21 @@
         <v>841</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>73</v>
@@ -30174,23 +30212,21 @@
         <v>73</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>966</v>
+        <v>126</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>967</v>
+        <v>227</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>968</v>
-      </c>
-      <c r="P245" t="s" s="2">
-        <v>969</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P245" s="2"/>
       <c r="Q245" t="s" s="2">
         <v>73</v>
       </c>
@@ -30226,31 +30262,31 @@
         <v>73</v>
       </c>
       <c r="AC245" t="s" s="2">
-        <v>73</v>
+        <v>459</v>
       </c>
       <c r="AD245" t="s" s="2">
-        <v>73</v>
+        <v>460</v>
       </c>
       <c r="AE245" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>73</v>
+        <v>461</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>970</v>
+        <v>228</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK245" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="246">
@@ -30258,14 +30294,14 @@
         <v>841</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
-        <v>972</v>
+        <v>73</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" t="s" s="2">
@@ -30275,27 +30311,29 @@
         <v>81</v>
       </c>
       <c r="I246" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J246" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="J246" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="K246" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="M246" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="N246" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="O246" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="P246" t="s" s="2">
         <v>973</v>
       </c>
-      <c r="N246" t="s" s="2">
-        <v>974</v>
-      </c>
-      <c r="O246" t="s" s="2">
-        <v>975</v>
-      </c>
-      <c r="P246" s="2"/>
       <c r="Q246" t="s" s="2">
         <v>73</v>
       </c>
@@ -30319,13 +30357,13 @@
         <v>73</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>73</v>
+        <v>974</v>
       </c>
       <c r="AA246" t="s" s="2">
-        <v>73</v>
+        <v>975</v>
       </c>
       <c r="AB246" t="s" s="2">
         <v>73</v>
@@ -30352,7 +30390,7 @@
         <v>81</v>
       </c>
       <c r="AJ246" t="s" s="2">
-        <v>977</v>
+        <v>73</v>
       </c>
       <c r="AK246" t="s" s="2">
         <v>93</v>
@@ -30363,24 +30401,24 @@
         <v>841</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
-        <v>979</v>
+        <v>73</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H247" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J247" t="s" s="2">
         <v>73</v>
@@ -30392,15 +30430,17 @@
         <v>197</v>
       </c>
       <c r="M247" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="N247" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="O247" t="s" s="2">
         <v>980</v>
       </c>
-      <c r="N247" t="s" s="2">
+      <c r="P247" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="O247" t="s" s="2">
-        <v>982</v>
-      </c>
-      <c r="P247" s="2"/>
       <c r="Q247" t="s" s="2">
         <v>73</v>
       </c>
@@ -30448,16 +30488,16 @@
         <v>73</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ247" t="s" s="2">
-        <v>977</v>
+        <v>73</v>
       </c>
       <c r="AK247" t="s" s="2">
         <v>93</v>
@@ -30468,24 +30508,24 @@
         <v>841</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
-        <v>73</v>
+        <v>984</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J248" t="s" s="2">
         <v>73</v>
@@ -30502,7 +30542,9 @@
       <c r="N248" t="s" s="2">
         <v>986</v>
       </c>
-      <c r="O248" s="2"/>
+      <c r="O248" t="s" s="2">
+        <v>987</v>
+      </c>
       <c r="P248" s="2"/>
       <c r="Q248" t="s" s="2">
         <v>73</v>
@@ -30551,16 +30593,16 @@
         <v>73</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI248" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ248" t="s" s="2">
-        <v>73</v>
+        <v>989</v>
       </c>
       <c r="AK248" t="s" s="2">
         <v>93</v>
@@ -30571,14 +30613,14 @@
         <v>841</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
-        <v>73</v>
+        <v>991</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" t="s" s="2">
@@ -30588,7 +30630,7 @@
         <v>75</v>
       </c>
       <c r="I249" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J249" t="s" s="2">
         <v>73</v>
@@ -30600,12 +30642,14 @@
         <v>197</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>990</v>
-      </c>
-      <c r="O249" s="2"/>
+        <v>993</v>
+      </c>
+      <c r="O249" t="s" s="2">
+        <v>994</v>
+      </c>
       <c r="P249" s="2"/>
       <c r="Q249" t="s" s="2">
         <v>73</v>
@@ -30654,7 +30698,7 @@
         <v>73</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>74</v>
@@ -30663,7 +30707,7 @@
         <v>75</v>
       </c>
       <c r="AJ249" t="s" s="2">
-        <v>73</v>
+        <v>989</v>
       </c>
       <c r="AK249" t="s" s="2">
         <v>93</v>
@@ -30674,10 +30718,10 @@
         <v>841</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -30688,7 +30732,7 @@
         <v>74</v>
       </c>
       <c r="H250" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I250" t="s" s="2">
         <v>73</v>
@@ -30700,18 +30744,16 @@
         <v>82</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>796</v>
+        <v>197</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="O250" s="2"/>
-      <c r="P250" t="s" s="2">
-        <v>995</v>
-      </c>
+      <c r="P250" s="2"/>
       <c r="Q250" t="s" s="2">
         <v>73</v>
       </c>
@@ -30759,13 +30801,13 @@
         <v>73</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>73</v>
@@ -30779,10 +30821,10 @@
         <v>841</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -30805,20 +30847,16 @@
         <v>82</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>998</v>
+        <v>197</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>1000</v>
-      </c>
-      <c r="O251" t="s" s="2">
-        <v>1001</v>
-      </c>
-      <c r="P251" t="s" s="2">
         <v>1002</v>
       </c>
+      <c r="O251" s="2"/>
+      <c r="P251" s="2"/>
       <c r="Q251" t="s" s="2">
         <v>73</v>
       </c>
@@ -30866,7 +30904,7 @@
         <v>73</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>74</v>
@@ -30886,10 +30924,10 @@
         <v>841</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -30909,19 +30947,21 @@
         <v>73</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>197</v>
+        <v>796</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>223</v>
+        <v>1005</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>224</v>
+        <v>1006</v>
       </c>
       <c r="O252" s="2"/>
-      <c r="P252" s="2"/>
+      <c r="P252" t="s" s="2">
+        <v>1007</v>
+      </c>
       <c r="Q252" t="s" s="2">
         <v>73</v>
       </c>
@@ -30969,7 +31009,7 @@
         <v>73</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>225</v>
+        <v>1008</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>74</v>
@@ -30981,7 +31021,7 @@
         <v>73</v>
       </c>
       <c r="AK252" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="253">
@@ -30989,14 +31029,14 @@
         <v>841</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" t="s" s="2">
@@ -31012,21 +31052,23 @@
         <v>73</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>125</v>
+        <v>1010</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>126</v>
+        <v>1011</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>227</v>
+        <v>1012</v>
       </c>
       <c r="O253" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P253" s="2"/>
+        <v>1013</v>
+      </c>
+      <c r="P253" t="s" s="2">
+        <v>1014</v>
+      </c>
       <c r="Q253" t="s" s="2">
         <v>73</v>
       </c>
@@ -31062,19 +31104,19 @@
         <v>73</v>
       </c>
       <c r="AC253" t="s" s="2">
-        <v>459</v>
+        <v>73</v>
       </c>
       <c r="AD253" t="s" s="2">
-        <v>460</v>
+        <v>73</v>
       </c>
       <c r="AE253" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF253" t="s" s="2">
-        <v>461</v>
+        <v>73</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>228</v>
+        <v>1009</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>74</v>
@@ -31086,7 +31128,7 @@
         <v>73</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="254">
@@ -31094,10 +31136,10 @@
         <v>841</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -31105,28 +31147,28 @@
       </c>
       <c r="F254" s="2"/>
       <c r="G254" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H254" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I254" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J254" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>1006</v>
+        <v>223</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>1007</v>
+        <v>224</v>
       </c>
       <c r="O254" s="2"/>
       <c r="P254" s="2"/>
@@ -31153,13 +31195,13 @@
         <v>73</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="Z254" t="s" s="2">
-        <v>1008</v>
+        <v>73</v>
       </c>
       <c r="AA254" t="s" s="2">
-        <v>1009</v>
+        <v>73</v>
       </c>
       <c r="AB254" t="s" s="2">
         <v>73</v>
@@ -31177,7 +31219,7 @@
         <v>73</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>1010</v>
+        <v>225</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>74</v>
@@ -31186,10 +31228,10 @@
         <v>81</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>1011</v>
+        <v>73</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255">
@@ -31197,46 +31239,44 @@
         <v>841</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F255" s="2"/>
       <c r="G255" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H255" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I255" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J255" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>1013</v>
+        <v>126</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>1014</v>
+        <v>227</v>
       </c>
       <c r="O255" t="s" s="2">
-        <v>1015</v>
-      </c>
-      <c r="P255" t="s" s="2">
-        <v>1016</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P255" s="2"/>
       <c r="Q255" t="s" s="2">
         <v>73</v>
       </c>
@@ -31272,31 +31312,31 @@
         <v>73</v>
       </c>
       <c r="AC255" t="s" s="2">
-        <v>73</v>
+        <v>459</v>
       </c>
       <c r="AD255" t="s" s="2">
-        <v>73</v>
+        <v>460</v>
       </c>
       <c r="AE255" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>73</v>
+        <v>461</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>1017</v>
+        <v>228</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI255" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ255" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK255" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="256">
@@ -31304,10 +31344,10 @@
         <v>841</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -31315,7 +31355,7 @@
       </c>
       <c r="F256" s="2"/>
       <c r="G256" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H256" t="s" s="2">
         <v>81</v>
@@ -31324,7 +31364,7 @@
         <v>82</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K256" t="s" s="2">
         <v>82</v>
@@ -31333,17 +31373,13 @@
         <v>101</v>
       </c>
       <c r="M256" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N256" t="s" s="2">
         <v>1019</v>
       </c>
-      <c r="N256" t="s" s="2">
-        <v>1020</v>
-      </c>
-      <c r="O256" t="s" s="2">
-        <v>1021</v>
-      </c>
-      <c r="P256" t="s" s="2">
-        <v>1022</v>
-      </c>
+      <c r="O256" s="2"/>
+      <c r="P256" s="2"/>
       <c r="Q256" t="s" s="2">
         <v>73</v>
       </c>
@@ -31369,36 +31405,38 @@
       <c r="Y256" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Z256" s="2"/>
+      <c r="Z256" t="s" s="2">
+        <v>1020</v>
+      </c>
       <c r="AA256" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="AB256" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC256" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD256" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE256" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF256" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG256" t="s" s="2">
+        <v>1022</v>
+      </c>
+      <c r="AH256" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI256" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ256" t="s" s="2">
         <v>1023</v>
-      </c>
-      <c r="AB256" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC256" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD256" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE256" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF256" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG256" t="s" s="2">
-        <v>1024</v>
-      </c>
-      <c r="AH256" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI256" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ256" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AK256" t="s" s="2">
         <v>93</v>
@@ -31409,10 +31447,10 @@
         <v>841</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
@@ -31420,13 +31458,13 @@
       </c>
       <c r="F257" s="2"/>
       <c r="G257" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H257" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I257" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J257" t="s" s="2">
         <v>73</v>
@@ -31435,18 +31473,20 @@
         <v>82</v>
       </c>
       <c r="L257" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M257" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="N257" t="s" s="2">
         <v>1026</v>
       </c>
-      <c r="M257" t="s" s="2">
+      <c r="O257" t="s" s="2">
         <v>1027</v>
       </c>
-      <c r="N257" t="s" s="2">
+      <c r="P257" t="s" s="2">
         <v>1028</v>
       </c>
-      <c r="O257" t="s" s="2">
-        <v>1029</v>
-      </c>
-      <c r="P257" s="2"/>
       <c r="Q257" t="s" s="2">
         <v>73</v>
       </c>
@@ -31494,7 +31534,7 @@
         <v>73</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>74</v>
@@ -31514,10 +31554,10 @@
         <v>841</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -31531,25 +31571,29 @@
         <v>81</v>
       </c>
       <c r="I258" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K258" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>796</v>
+        <v>101</v>
       </c>
       <c r="M258" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="N258" t="s" s="2">
         <v>1032</v>
       </c>
-      <c r="N258" t="s" s="2">
+      <c r="O258" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="O258" s="2"/>
-      <c r="P258" s="2"/>
+      <c r="P258" t="s" s="2">
+        <v>1034</v>
+      </c>
       <c r="Q258" t="s" s="2">
         <v>73</v>
       </c>
@@ -31573,13 +31617,11 @@
         <v>73</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z258" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Z258" s="2"/>
       <c r="AA258" t="s" s="2">
-        <v>73</v>
+        <v>1035</v>
       </c>
       <c r="AB258" t="s" s="2">
         <v>73</v>
@@ -31597,7 +31639,7 @@
         <v>73</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>74</v>
@@ -31617,10 +31659,10 @@
         <v>841</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -31628,13 +31670,13 @@
       </c>
       <c r="F259" s="2"/>
       <c r="G259" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H259" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I259" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J259" t="s" s="2">
         <v>73</v>
@@ -31643,20 +31685,18 @@
         <v>82</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>101</v>
+        <v>1038</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="O259" t="s" s="2">
-        <v>1038</v>
-      </c>
-      <c r="P259" t="s" s="2">
-        <v>1039</v>
-      </c>
+        <v>1041</v>
+      </c>
+      <c r="P259" s="2"/>
       <c r="Q259" t="s" s="2">
         <v>73</v>
       </c>
@@ -31680,11 +31720,13 @@
         <v>73</v>
       </c>
       <c r="Y259" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Z259" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z259" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA259" t="s" s="2">
-        <v>1040</v>
+        <v>73</v>
       </c>
       <c r="AB259" t="s" s="2">
         <v>73</v>
@@ -31702,7 +31744,7 @@
         <v>73</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>74</v>
@@ -31722,10 +31764,10 @@
         <v>841</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -31739,7 +31781,7 @@
         <v>81</v>
       </c>
       <c r="I260" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J260" t="s" s="2">
         <v>73</v>
@@ -31748,20 +31790,16 @@
         <v>82</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>201</v>
+        <v>796</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>1043</v>
-      </c>
-      <c r="O260" t="s" s="2">
-        <v>1044</v>
-      </c>
-      <c r="P260" t="s" s="2">
         <v>1045</v>
       </c>
+      <c r="O260" s="2"/>
+      <c r="P260" s="2"/>
       <c r="Q260" t="s" s="2">
         <v>73</v>
       </c>
@@ -31809,7 +31847,7 @@
         <v>73</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>74</v>
@@ -31829,10 +31867,10 @@
         <v>841</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -31840,22 +31878,22 @@
       </c>
       <c r="F261" s="2"/>
       <c r="G261" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H261" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I261" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K261" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>1047</v>
+        <v>101</v>
       </c>
       <c r="M261" t="s" s="2">
         <v>1048</v>
@@ -31892,13 +31930,11 @@
         <v>73</v>
       </c>
       <c r="Y261" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z261" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Z261" s="2"/>
       <c r="AA261" t="s" s="2">
-        <v>73</v>
+        <v>1052</v>
       </c>
       <c r="AB261" t="s" s="2">
         <v>73</v>
@@ -31916,7 +31952,7 @@
         <v>73</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>74</v>
@@ -31936,10 +31972,10 @@
         <v>841</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -31950,7 +31986,7 @@
         <v>74</v>
       </c>
       <c r="H262" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I262" t="s" s="2">
         <v>82</v>
@@ -31962,7 +31998,7 @@
         <v>82</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>1053</v>
+        <v>201</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>1054</v>
@@ -32023,13 +32059,13 @@
         <v>73</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI262" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ262" t="s" s="2">
         <v>73</v>
@@ -32063,22 +32099,26 @@
         <v>73</v>
       </c>
       <c r="J263" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>197</v>
+        <v>1059</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>223</v>
+        <v>1060</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O263" s="2"/>
-      <c r="P263" s="2"/>
+        <v>1061</v>
+      </c>
+      <c r="O263" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="P263" t="s" s="2">
+        <v>1063</v>
+      </c>
       <c r="Q263" t="s" s="2">
         <v>73</v>
       </c>
@@ -32126,7 +32166,7 @@
         <v>73</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>225</v>
+        <v>1058</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>74</v>
@@ -32138,7 +32178,7 @@
         <v>73</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="264">
@@ -32146,14 +32186,14 @@
         <v>841</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" t="s" s="2">
@@ -32163,27 +32203,29 @@
         <v>75</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J264" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>125</v>
+        <v>1065</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>126</v>
+        <v>1066</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>227</v>
+        <v>1067</v>
       </c>
       <c r="O264" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P264" s="2"/>
+        <v>1068</v>
+      </c>
+      <c r="P264" t="s" s="2">
+        <v>1069</v>
+      </c>
       <c r="Q264" t="s" s="2">
         <v>73</v>
       </c>
@@ -32219,19 +32261,19 @@
         <v>73</v>
       </c>
       <c r="AC264" t="s" s="2">
-        <v>459</v>
+        <v>73</v>
       </c>
       <c r="AD264" t="s" s="2">
-        <v>460</v>
+        <v>73</v>
       </c>
       <c r="AE264" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF264" t="s" s="2">
-        <v>461</v>
+        <v>73</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>228</v>
+        <v>1064</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>74</v>
@@ -32243,7 +32285,7 @@
         <v>73</v>
       </c>
       <c r="AK264" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="265">
@@ -32251,10 +32293,10 @@
         <v>841</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32271,26 +32313,22 @@
         <v>73</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>1061</v>
+        <v>223</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>1062</v>
-      </c>
-      <c r="O265" t="s" s="2">
-        <v>1063</v>
-      </c>
-      <c r="P265" t="s" s="2">
-        <v>1064</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O265" s="2"/>
+      <c r="P265" s="2"/>
       <c r="Q265" t="s" s="2">
         <v>73</v>
       </c>
@@ -32302,7 +32340,7 @@
         <v>73</v>
       </c>
       <c r="U265" t="s" s="2">
-        <v>1065</v>
+        <v>73</v>
       </c>
       <c r="V265" t="s" s="2">
         <v>73</v>
@@ -32314,13 +32352,13 @@
         <v>73</v>
       </c>
       <c r="Y265" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="Z265" t="s" s="2">
-        <v>1066</v>
+        <v>73</v>
       </c>
       <c r="AA265" t="s" s="2">
-        <v>1067</v>
+        <v>73</v>
       </c>
       <c r="AB265" t="s" s="2">
         <v>73</v>
@@ -32338,7 +32376,7 @@
         <v>73</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>1068</v>
+        <v>225</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>74</v>
@@ -32350,7 +32388,7 @@
         <v>73</v>
       </c>
       <c r="AK265" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="266">
@@ -32358,21 +32396,21 @@
         <v>841</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I266" t="s" s="2">
         <v>73</v>
@@ -32381,19 +32419,19 @@
         <v>73</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>1070</v>
+        <v>126</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>1071</v>
+        <v>227</v>
       </c>
       <c r="O266" t="s" s="2">
-        <v>1072</v>
+        <v>128</v>
       </c>
       <c r="P266" s="2"/>
       <c r="Q266" t="s" s="2">
@@ -32407,7 +32445,7 @@
         <v>73</v>
       </c>
       <c r="U266" t="s" s="2">
-        <v>1073</v>
+        <v>73</v>
       </c>
       <c r="V266" t="s" s="2">
         <v>73</v>
@@ -32419,43 +32457,43 @@
         <v>73</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="Z266" t="s" s="2">
-        <v>1074</v>
+        <v>73</v>
       </c>
       <c r="AA266" t="s" s="2">
-        <v>1075</v>
+        <v>73</v>
       </c>
       <c r="AB266" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AC266" t="s" s="2">
-        <v>73</v>
+        <v>459</v>
       </c>
       <c r="AD266" t="s" s="2">
-        <v>73</v>
+        <v>460</v>
       </c>
       <c r="AE266" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>73</v>
+        <v>461</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>1076</v>
+        <v>228</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ266" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="267">
@@ -32463,10 +32501,10 @@
         <v>841</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -32483,25 +32521,25 @@
         <v>73</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K267" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="O267" t="s" s="2">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="P267" t="s" s="2">
-        <v>969</v>
+        <v>1076</v>
       </c>
       <c r="Q267" t="s" s="2">
         <v>73</v>
@@ -32514,7 +32552,7 @@
         <v>73</v>
       </c>
       <c r="U267" t="s" s="2">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="V267" t="s" s="2">
         <v>73</v>
@@ -32526,13 +32564,13 @@
         <v>73</v>
       </c>
       <c r="Y267" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="Z267" t="s" s="2">
-        <v>73</v>
+        <v>1078</v>
       </c>
       <c r="AA267" t="s" s="2">
-        <v>73</v>
+        <v>1079</v>
       </c>
       <c r="AB267" t="s" s="2">
         <v>73</v>
@@ -32550,7 +32588,7 @@
         <v>73</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>74</v>
@@ -32570,10 +32608,10 @@
         <v>841</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -32584,10 +32622,10 @@
         <v>74</v>
       </c>
       <c r="H268" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I268" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J268" t="s" s="2">
         <v>73</v>
@@ -32596,15 +32634,17 @@
         <v>82</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="M268" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="N268" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="O268" t="s" s="2">
         <v>1084</v>
       </c>
-      <c r="N268" t="s" s="2">
-        <v>1085</v>
-      </c>
-      <c r="O268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" t="s" s="2">
         <v>73</v>
@@ -32617,25 +32657,25 @@
         <v>73</v>
       </c>
       <c r="U268" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="V268" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W268" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X268" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y268" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z268" t="s" s="2">
         <v>1086</v>
       </c>
-      <c r="V268" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W268" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X268" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y268" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z268" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AA268" t="s" s="2">
-        <v>73</v>
+        <v>1087</v>
       </c>
       <c r="AB268" t="s" s="2">
         <v>73</v>
@@ -32653,13 +32693,13 @@
         <v>73</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI268" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ268" t="s" s="2">
         <v>73</v>
@@ -32673,14 +32713,14 @@
         <v>841</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
-        <v>1089</v>
+        <v>73</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" t="s" s="2">
@@ -32690,7 +32730,7 @@
         <v>81</v>
       </c>
       <c r="I269" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J269" t="s" s="2">
         <v>73</v>
@@ -32707,8 +32747,12 @@
       <c r="N269" t="s" s="2">
         <v>1091</v>
       </c>
-      <c r="O269" s="2"/>
-      <c r="P269" s="2"/>
+      <c r="O269" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="P269" t="s" s="2">
+        <v>981</v>
+      </c>
       <c r="Q269" t="s" s="2">
         <v>73</v>
       </c>
@@ -32720,7 +32764,7 @@
         <v>73</v>
       </c>
       <c r="U269" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="V269" t="s" s="2">
         <v>73</v>
@@ -32756,7 +32800,7 @@
         <v>73</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>74</v>
@@ -32776,24 +32820,24 @@
         <v>841</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
-        <v>1095</v>
+        <v>73</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H270" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I270" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J270" t="s" s="2">
         <v>73</v>
@@ -32810,9 +32854,7 @@
       <c r="N270" t="s" s="2">
         <v>1097</v>
       </c>
-      <c r="O270" t="s" s="2">
-        <v>1098</v>
-      </c>
+      <c r="O270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" t="s" s="2">
         <v>73</v>
@@ -32825,49 +32867,49 @@
         <v>73</v>
       </c>
       <c r="U270" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="V270" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W270" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X270" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y270" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z270" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA270" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB270" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC270" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD270" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE270" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF270" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG270" t="s" s="2">
         <v>1099</v>
       </c>
-      <c r="V270" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W270" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X270" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y270" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z270" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA270" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB270" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC270" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD270" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE270" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF270" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG270" t="s" s="2">
-        <v>1100</v>
-      </c>
       <c r="AH270" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI270" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ270" t="s" s="2">
         <v>73</v>
@@ -32881,14 +32923,14 @@
         <v>841</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" t="s" s="2">
@@ -32910,10 +32952,10 @@
         <v>197</v>
       </c>
       <c r="M271" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="N271" t="s" s="2">
         <v>1103</v>
-      </c>
-      <c r="N271" t="s" s="2">
-        <v>1104</v>
       </c>
       <c r="O271" s="2"/>
       <c r="P271" s="2"/>
@@ -32928,43 +32970,43 @@
         <v>73</v>
       </c>
       <c r="U271" t="s" s="2">
+        <v>1104</v>
+      </c>
+      <c r="V271" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W271" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X271" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y271" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z271" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA271" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB271" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC271" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD271" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE271" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF271" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG271" t="s" s="2">
         <v>1105</v>
-      </c>
-      <c r="V271" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W271" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X271" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y271" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Z271" t="s" s="2">
-        <v>1106</v>
-      </c>
-      <c r="AA271" t="s" s="2">
-        <v>1107</v>
-      </c>
-      <c r="AB271" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC271" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD271" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE271" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF271" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG271" t="s" s="2">
-        <v>1108</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>74</v>
@@ -32984,14 +33026,14 @@
         <v>841</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" t="s" s="2">
@@ -33001,7 +33043,7 @@
         <v>81</v>
       </c>
       <c r="I272" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J272" t="s" s="2">
         <v>73</v>
@@ -33013,12 +33055,14 @@
         <v>197</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>1112</v>
-      </c>
-      <c r="O272" s="2"/>
+        <v>1109</v>
+      </c>
+      <c r="O272" t="s" s="2">
+        <v>1110</v>
+      </c>
       <c r="P272" s="2"/>
       <c r="Q272" t="s" s="2">
         <v>73</v>
@@ -33031,7 +33075,7 @@
         <v>73</v>
       </c>
       <c r="U272" t="s" s="2">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="V272" t="s" s="2">
         <v>73</v>
@@ -33067,7 +33111,7 @@
         <v>73</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>74</v>
@@ -33087,14 +33131,14 @@
         <v>841</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
-        <v>73</v>
+        <v>1114</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" t="s" s="2">
@@ -33104,7 +33148,7 @@
         <v>81</v>
       </c>
       <c r="I273" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J273" t="s" s="2">
         <v>73</v>
@@ -33116,14 +33160,12 @@
         <v>197</v>
       </c>
       <c r="M273" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="N273" t="s" s="2">
         <v>1116</v>
       </c>
-      <c r="N273" t="s" s="2">
-        <v>1117</v>
-      </c>
-      <c r="O273" t="s" s="2">
-        <v>1118</v>
-      </c>
+      <c r="O273" s="2"/>
       <c r="P273" s="2"/>
       <c r="Q273" t="s" s="2">
         <v>73</v>
@@ -33136,7 +33178,7 @@
         <v>73</v>
       </c>
       <c r="U273" t="s" s="2">
-        <v>73</v>
+        <v>1117</v>
       </c>
       <c r="V273" t="s" s="2">
         <v>73</v>
@@ -33148,13 +33190,13 @@
         <v>73</v>
       </c>
       <c r="Y273" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="Z273" t="s" s="2">
-        <v>73</v>
+        <v>1118</v>
       </c>
       <c r="AA273" t="s" s="2">
-        <v>73</v>
+        <v>1119</v>
       </c>
       <c r="AB273" t="s" s="2">
         <v>73</v>
@@ -33172,7 +33214,7 @@
         <v>73</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>74</v>
@@ -33192,14 +33234,14 @@
         <v>841</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
-        <v>73</v>
+        <v>1122</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" t="s" s="2">
@@ -33209,7 +33251,7 @@
         <v>81</v>
       </c>
       <c r="I274" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J274" t="s" s="2">
         <v>73</v>
@@ -33218,18 +33260,16 @@
         <v>82</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>796</v>
+        <v>197</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="O274" s="2"/>
-      <c r="P274" t="s" s="2">
-        <v>1123</v>
-      </c>
+      <c r="P274" s="2"/>
       <c r="Q274" t="s" s="2">
         <v>73</v>
       </c>
@@ -33241,7 +33281,7 @@
         <v>73</v>
       </c>
       <c r="U274" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="V274" t="s" s="2">
         <v>73</v>
@@ -33277,7 +33317,7 @@
         <v>73</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>74</v>
@@ -33297,10 +33337,10 @@
         <v>841</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
@@ -33320,21 +33360,21 @@
         <v>73</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>1128</v>
-      </c>
-      <c r="O275" s="2"/>
-      <c r="P275" t="s" s="2">
         <v>1129</v>
       </c>
+      <c r="O275" t="s" s="2">
+        <v>1130</v>
+      </c>
+      <c r="P275" s="2"/>
       <c r="Q275" t="s" s="2">
         <v>73</v>
       </c>
@@ -33358,31 +33398,31 @@
         <v>73</v>
       </c>
       <c r="Y275" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="Z275" t="s" s="2">
-        <v>1130</v>
+        <v>73</v>
       </c>
       <c r="AA275" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB275" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC275" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD275" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE275" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF275" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG275" t="s" s="2">
         <v>1131</v>
-      </c>
-      <c r="AB275" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC275" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD275" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE275" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF275" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG275" t="s" s="2">
-        <v>1126</v>
       </c>
       <c r="AH275" t="s" s="2">
         <v>74</v>
@@ -33425,22 +33465,20 @@
         <v>73</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L276" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M276" t="s" s="2">
         <v>1133</v>
       </c>
-      <c r="M276" t="s" s="2">
+      <c r="N276" t="s" s="2">
         <v>1134</v>
       </c>
-      <c r="N276" t="s" s="2">
+      <c r="O276" s="2"/>
+      <c r="P276" t="s" s="2">
         <v>1135</v>
-      </c>
-      <c r="O276" t="s" s="2">
-        <v>1136</v>
-      </c>
-      <c r="P276" t="s" s="2">
-        <v>1137</v>
       </c>
       <c r="Q276" t="s" s="2">
         <v>73</v>
@@ -33453,7 +33491,7 @@
         <v>73</v>
       </c>
       <c r="U276" t="s" s="2">
-        <v>73</v>
+        <v>1136</v>
       </c>
       <c r="V276" t="s" s="2">
         <v>73</v>
@@ -33489,7 +33527,7 @@
         <v>73</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>1132</v>
+        <v>1137</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>74</v>
@@ -33523,7 +33561,7 @@
         <v>74</v>
       </c>
       <c r="H277" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I277" t="s" s="2">
         <v>73</v>
@@ -33535,19 +33573,17 @@
         <v>73</v>
       </c>
       <c r="L277" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M277" t="s" s="2">
         <v>1139</v>
       </c>
-      <c r="M277" t="s" s="2">
+      <c r="N277" t="s" s="2">
         <v>1140</v>
       </c>
-      <c r="N277" t="s" s="2">
+      <c r="O277" s="2"/>
+      <c r="P277" t="s" s="2">
         <v>1141</v>
-      </c>
-      <c r="O277" t="s" s="2">
-        <v>1142</v>
-      </c>
-      <c r="P277" t="s" s="2">
-        <v>1143</v>
       </c>
       <c r="Q277" t="s" s="2">
         <v>73</v>
@@ -33572,13 +33608,13 @@
         <v>73</v>
       </c>
       <c r="Y277" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="Z277" t="s" s="2">
-        <v>73</v>
+        <v>1142</v>
       </c>
       <c r="AA277" t="s" s="2">
-        <v>73</v>
+        <v>1143</v>
       </c>
       <c r="AB277" t="s" s="2">
         <v>73</v>
@@ -33602,7 +33638,7 @@
         <v>74</v>
       </c>
       <c r="AI277" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ277" t="s" s="2">
         <v>73</v>
@@ -33630,7 +33666,7 @@
         <v>74</v>
       </c>
       <c r="H278" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I278" t="s" s="2">
         <v>73</v>
@@ -33642,19 +33678,19 @@
         <v>73</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>219</v>
+        <v>1145</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="O278" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="P278" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="Q278" t="s" s="2">
         <v>73</v>
@@ -33709,13 +33745,13 @@
         <v>74</v>
       </c>
       <c r="AI278" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ278" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>1149</v>
+        <v>93</v>
       </c>
     </row>
     <row r="279">
@@ -33737,7 +33773,7 @@
         <v>74</v>
       </c>
       <c r="H279" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I279" t="s" s="2">
         <v>73</v>
@@ -33749,16 +33785,20 @@
         <v>73</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>197</v>
+        <v>1151</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>223</v>
+        <v>1152</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O279" s="2"/>
-      <c r="P279" s="2"/>
+        <v>1153</v>
+      </c>
+      <c r="O279" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="P279" t="s" s="2">
+        <v>1155</v>
+      </c>
       <c r="Q279" t="s" s="2">
         <v>73</v>
       </c>
@@ -33806,19 +33846,19 @@
         <v>73</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>225</v>
+        <v>1150</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI279" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ279" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="280">
@@ -33826,14 +33866,14 @@
         <v>841</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>1151</v>
+        <v>1156</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>1151</v>
+        <v>1156</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" t="s" s="2">
@@ -33852,18 +33892,20 @@
         <v>73</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>126</v>
+        <v>1157</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>227</v>
+        <v>1158</v>
       </c>
       <c r="O280" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P280" s="2"/>
+        <v>1159</v>
+      </c>
+      <c r="P280" t="s" s="2">
+        <v>1160</v>
+      </c>
       <c r="Q280" t="s" s="2">
         <v>73</v>
       </c>
@@ -33911,7 +33953,7 @@
         <v>73</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>228</v>
+        <v>1156</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>74</v>
@@ -33923,7 +33965,7 @@
         <v>73</v>
       </c>
       <c r="AK280" t="s" s="2">
-        <v>130</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="281">
@@ -33931,46 +33973,42 @@
         <v>841</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H281" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I281" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O281" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P281" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O281" s="2"/>
+      <c r="P281" s="2"/>
       <c r="Q281" t="s" s="2">
         <v>73</v>
       </c>
@@ -34018,19 +34056,19 @@
         <v>73</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI281" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ281" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK281" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="282">
@@ -34038,14 +34076,14 @@
         <v>841</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>1153</v>
+        <v>1163</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>1153</v>
+        <v>1163</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" t="s" s="2">
@@ -34064,18 +34102,18 @@
         <v>73</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>1154</v>
+        <v>126</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>1155</v>
-      </c>
-      <c r="O282" s="2"/>
-      <c r="P282" t="s" s="2">
-        <v>1156</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O282" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P282" s="2"/>
       <c r="Q282" t="s" s="2">
         <v>73</v>
       </c>
@@ -34099,13 +34137,13 @@
         <v>73</v>
       </c>
       <c r="Y282" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="Z282" t="s" s="2">
-        <v>1157</v>
+        <v>73</v>
       </c>
       <c r="AA282" t="s" s="2">
-        <v>1158</v>
+        <v>73</v>
       </c>
       <c r="AB282" t="s" s="2">
         <v>73</v>
@@ -34123,7 +34161,7 @@
         <v>73</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>1153</v>
+        <v>228</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>74</v>
@@ -34135,7 +34173,7 @@
         <v>73</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="283">
@@ -34143,43 +34181,45 @@
         <v>841</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>1159</v>
+        <v>1164</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>1159</v>
+        <v>1164</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H283" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I283" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J283" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>949</v>
+        <v>125</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>1160</v>
+        <v>231</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>1161</v>
-      </c>
-      <c r="O283" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="O283" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="P283" t="s" s="2">
-        <v>1162</v>
+        <v>134</v>
       </c>
       <c r="Q283" t="s" s="2">
         <v>73</v>
@@ -34228,19 +34268,19 @@
         <v>73</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>1159</v>
+        <v>233</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI283" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ283" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="284">
@@ -34248,10 +34288,10 @@
         <v>841</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -34274,19 +34314,17 @@
         <v>73</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>998</v>
+        <v>147</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>1165</v>
-      </c>
-      <c r="O284" t="s" s="2">
-        <v>1166</v>
-      </c>
+        <v>1167</v>
+      </c>
+      <c r="O284" s="2"/>
       <c r="P284" t="s" s="2">
-        <v>1002</v>
+        <v>1168</v>
       </c>
       <c r="Q284" t="s" s="2">
         <v>73</v>
@@ -34311,13 +34349,13 @@
         <v>73</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="Z284" t="s" s="2">
-        <v>73</v>
+        <v>1169</v>
       </c>
       <c r="AA284" t="s" s="2">
-        <v>73</v>
+        <v>1170</v>
       </c>
       <c r="AB284" t="s" s="2">
         <v>73</v>
@@ -34335,7 +34373,7 @@
         <v>73</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>74</v>
@@ -34355,10 +34393,10 @@
         <v>841</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
@@ -34381,17 +34419,17 @@
         <v>73</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>1053</v>
+        <v>961</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="O285" s="2"/>
       <c r="P285" t="s" s="2">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="Q285" t="s" s="2">
         <v>73</v>
@@ -34440,7 +34478,7 @@
         <v>73</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>74</v>
@@ -34460,10 +34498,10 @@
         <v>841</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -34474,7 +34512,7 @@
         <v>74</v>
       </c>
       <c r="H286" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I286" t="s" s="2">
         <v>73</v>
@@ -34486,17 +34524,19 @@
         <v>73</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>101</v>
+        <v>1010</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>1036</v>
+        <v>1176</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>1172</v>
-      </c>
-      <c r="O286" s="2"/>
+        <v>1177</v>
+      </c>
+      <c r="O286" t="s" s="2">
+        <v>1178</v>
+      </c>
       <c r="P286" t="s" s="2">
-        <v>1173</v>
+        <v>1014</v>
       </c>
       <c r="Q286" t="s" s="2">
         <v>73</v>
@@ -34521,37 +34561,37 @@
         <v>73</v>
       </c>
       <c r="Y286" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="Z286" t="s" s="2">
-        <v>1174</v>
+        <v>73</v>
       </c>
       <c r="AA286" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB286" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC286" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD286" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE286" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF286" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG286" t="s" s="2">
         <v>1175</v>
       </c>
-      <c r="AB286" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC286" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD286" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE286" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF286" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG286" t="s" s="2">
-        <v>1171</v>
-      </c>
       <c r="AH286" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI286" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ286" t="s" s="2">
         <v>73</v>
@@ -34565,10 +34605,10 @@
         <v>841</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -34591,17 +34631,17 @@
         <v>73</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>193</v>
+        <v>1065</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="O287" s="2"/>
       <c r="P287" t="s" s="2">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="Q287" t="s" s="2">
         <v>73</v>
@@ -34650,7 +34690,7 @@
         <v>73</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>74</v>
@@ -34659,7 +34699,7 @@
         <v>81</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>1180</v>
+        <v>73</v>
       </c>
       <c r="AK287" t="s" s="2">
         <v>93</v>
@@ -34670,10 +34710,10 @@
         <v>841</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -34696,16 +34736,18 @@
         <v>73</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>796</v>
+        <v>101</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>1182</v>
+        <v>1048</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="O288" s="2"/>
-      <c r="P288" s="2"/>
+      <c r="P288" t="s" s="2">
+        <v>1185</v>
+      </c>
       <c r="Q288" t="s" s="2">
         <v>73</v>
       </c>
@@ -34729,13 +34771,13 @@
         <v>73</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="Z288" t="s" s="2">
-        <v>73</v>
+        <v>1186</v>
       </c>
       <c r="AA288" t="s" s="2">
-        <v>73</v>
+        <v>1187</v>
       </c>
       <c r="AB288" t="s" s="2">
         <v>73</v>
@@ -34753,7 +34795,7 @@
         <v>73</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>74</v>
@@ -34773,10 +34815,10 @@
         <v>841</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -34787,7 +34829,7 @@
         <v>74</v>
       </c>
       <c r="H289" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I289" t="s" s="2">
         <v>73</v>
@@ -34799,19 +34841,17 @@
         <v>73</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>1186</v>
-      </c>
-      <c r="O289" t="s" s="2">
-        <v>1187</v>
-      </c>
+        <v>1190</v>
+      </c>
+      <c r="O289" s="2"/>
       <c r="P289" t="s" s="2">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="Q289" t="s" s="2">
         <v>73</v>
@@ -34860,16 +34900,16 @@
         <v>73</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI289" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ289" t="s" s="2">
-        <v>73</v>
+        <v>1192</v>
       </c>
       <c r="AK289" t="s" s="2">
         <v>93</v>
@@ -34880,10 +34920,10 @@
         <v>841</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -34906,13 +34946,13 @@
         <v>73</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>197</v>
+        <v>796</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>223</v>
+        <v>1194</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>224</v>
+        <v>1195</v>
       </c>
       <c r="O290" s="2"/>
       <c r="P290" s="2"/>
@@ -34963,7 +35003,7 @@
         <v>73</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>225</v>
+        <v>1193</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>74</v>
@@ -34975,7 +35015,7 @@
         <v>73</v>
       </c>
       <c r="AK290" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="291">
@@ -34983,14 +35023,14 @@
         <v>841</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F291" s="2"/>
       <c r="G291" t="s" s="2">
@@ -35009,18 +35049,20 @@
         <v>73</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>126</v>
+        <v>1197</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>227</v>
+        <v>1198</v>
       </c>
       <c r="O291" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P291" s="2"/>
+        <v>1199</v>
+      </c>
+      <c r="P291" t="s" s="2">
+        <v>1200</v>
+      </c>
       <c r="Q291" t="s" s="2">
         <v>73</v>
       </c>
@@ -35068,7 +35110,7 @@
         <v>73</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>228</v>
+        <v>1196</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>74</v>
@@ -35080,7 +35122,7 @@
         <v>73</v>
       </c>
       <c r="AK291" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="292">
@@ -35088,46 +35130,42 @@
         <v>841</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>1191</v>
+        <v>1201</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>1191</v>
+        <v>1201</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H292" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I292" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O292" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P292" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O292" s="2"/>
+      <c r="P292" s="2"/>
       <c r="Q292" t="s" s="2">
         <v>73</v>
       </c>
@@ -35175,19 +35213,19 @@
         <v>73</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ292" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="293">
@@ -35195,24 +35233,24 @@
         <v>841</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>1192</v>
+        <v>1202</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>1192</v>
+        <v>1202</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H293" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I293" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J293" t="s" s="2">
         <v>73</v>
@@ -35221,20 +35259,18 @@
         <v>73</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>1193</v>
+        <v>126</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>1194</v>
+        <v>227</v>
       </c>
       <c r="O293" t="s" s="2">
-        <v>1195</v>
-      </c>
-      <c r="P293" t="s" s="2">
-        <v>1196</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P293" s="2"/>
       <c r="Q293" t="s" s="2">
         <v>73</v>
       </c>
@@ -35258,11 +35294,13 @@
         <v>73</v>
       </c>
       <c r="Y293" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Z293" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z293" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA293" t="s" s="2">
-        <v>1197</v>
+        <v>73</v>
       </c>
       <c r="AB293" t="s" s="2">
         <v>73</v>
@@ -35280,19 +35318,19 @@
         <v>73</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>1192</v>
+        <v>228</v>
       </c>
       <c r="AH293" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ293" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK293" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="294">
@@ -35300,45 +35338,45 @@
         <v>841</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="F294" s="2"/>
       <c r="G294" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H294" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I294" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J294" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>1199</v>
+        <v>231</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>1200</v>
+        <v>232</v>
       </c>
       <c r="O294" t="s" s="2">
-        <v>1201</v>
+        <v>128</v>
       </c>
       <c r="P294" t="s" s="2">
-        <v>1202</v>
+        <v>134</v>
       </c>
       <c r="Q294" t="s" s="2">
         <v>73</v>
@@ -35387,19 +35425,19 @@
         <v>73</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>1198</v>
+        <v>233</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI294" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ294" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK294" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="295">
@@ -35407,24 +35445,24 @@
         <v>841</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
-        <v>1204</v>
+        <v>73</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H295" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I295" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J295" t="s" s="2">
         <v>73</v>
@@ -35433,18 +35471,20 @@
         <v>73</v>
       </c>
       <c r="L295" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M295" t="s" s="2">
         <v>1205</v>
       </c>
-      <c r="M295" t="s" s="2">
+      <c r="N295" t="s" s="2">
         <v>1206</v>
       </c>
-      <c r="N295" t="s" s="2">
+      <c r="O295" t="s" s="2">
         <v>1207</v>
       </c>
-      <c r="O295" t="s" s="2">
+      <c r="P295" t="s" s="2">
         <v>1208</v>
       </c>
-      <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
         <v>73</v>
       </c>
@@ -35468,13 +35508,11 @@
         <v>73</v>
       </c>
       <c r="Y295" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z295" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Z295" s="2"/>
       <c r="AA295" t="s" s="2">
-        <v>73</v>
+        <v>1209</v>
       </c>
       <c r="AB295" t="s" s="2">
         <v>73</v>
@@ -35492,13 +35530,13 @@
         <v>73</v>
       </c>
       <c r="AG295" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="AH295" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI295" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ295" t="s" s="2">
         <v>73</v>
@@ -35512,10 +35550,10 @@
         <v>841</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -35535,22 +35573,22 @@
         <v>73</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="O296" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="P296" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="Q296" t="s" s="2">
         <v>73</v>
@@ -35599,7 +35637,7 @@
         <v>73</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>74</v>
@@ -35619,14 +35657,14 @@
         <v>841</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
-        <v>73</v>
+        <v>1216</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" t="s" s="2">
@@ -35639,26 +35677,24 @@
         <v>73</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>219</v>
+        <v>1217</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="O297" t="s" s="2">
-        <v>1217</v>
-      </c>
-      <c r="P297" t="s" s="2">
-        <v>1218</v>
-      </c>
+        <v>1220</v>
+      </c>
+      <c r="P297" s="2"/>
       <c r="Q297" t="s" s="2">
         <v>73</v>
       </c>
@@ -35706,7 +35742,7 @@
         <v>73</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>74</v>
@@ -35726,10 +35762,10 @@
         <v>841</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -35749,19 +35785,23 @@
         <v>73</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>223</v>
+        <v>1222</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O298" s="2"/>
-      <c r="P298" s="2"/>
+        <v>1223</v>
+      </c>
+      <c r="O298" t="s" s="2">
+        <v>1224</v>
+      </c>
+      <c r="P298" t="s" s="2">
+        <v>1225</v>
+      </c>
       <c r="Q298" t="s" s="2">
         <v>73</v>
       </c>
@@ -35809,7 +35849,7 @@
         <v>73</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>225</v>
+        <v>1221</v>
       </c>
       <c r="AH298" t="s" s="2">
         <v>74</v>
@@ -35821,7 +35861,7 @@
         <v>73</v>
       </c>
       <c r="AK298" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="299">
@@ -35829,14 +35869,14 @@
         <v>841</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" t="s" s="2">
@@ -35849,24 +35889,26 @@
         <v>73</v>
       </c>
       <c r="J299" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>126</v>
+        <v>1227</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>227</v>
+        <v>1228</v>
       </c>
       <c r="O299" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P299" s="2"/>
+        <v>1229</v>
+      </c>
+      <c r="P299" t="s" s="2">
+        <v>1230</v>
+      </c>
       <c r="Q299" t="s" s="2">
         <v>73</v>
       </c>
@@ -35914,7 +35956,7 @@
         <v>73</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>228</v>
+        <v>1226</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>74</v>
@@ -35926,7 +35968,7 @@
         <v>73</v>
       </c>
       <c r="AK299" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="300">
@@ -35934,46 +35976,42 @@
         <v>841</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>1221</v>
+        <v>1231</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>1221</v>
+        <v>1231</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="F300" s="2"/>
       <c r="G300" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H300" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I300" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J300" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O300" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P300" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O300" s="2"/>
+      <c r="P300" s="2"/>
       <c r="Q300" t="s" s="2">
         <v>73</v>
       </c>
@@ -36021,19 +36059,19 @@
         <v>73</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI300" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ300" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK300" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="301">
@@ -36041,21 +36079,21 @@
         <v>841</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>1222</v>
+        <v>1232</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>1222</v>
+        <v>1232</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F301" s="2"/>
       <c r="G301" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H301" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I301" t="s" s="2">
         <v>73</v>
@@ -36064,19 +36102,19 @@
         <v>73</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1223</v>
+        <v>125</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>1224</v>
+        <v>126</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>1225</v>
+        <v>227</v>
       </c>
       <c r="O301" t="s" s="2">
-        <v>1226</v>
+        <v>128</v>
       </c>
       <c r="P301" s="2"/>
       <c r="Q301" t="s" s="2">
@@ -36126,19 +36164,19 @@
         <v>73</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>1222</v>
+        <v>228</v>
       </c>
       <c r="AH301" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI301" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ301" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="302">
@@ -36146,42 +36184,46 @@
         <v>841</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H302" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I302" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J302" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K302" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>1228</v>
+        <v>231</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>1229</v>
-      </c>
-      <c r="O302" s="2"/>
-      <c r="P302" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="O302" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P302" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="Q302" t="s" s="2">
         <v>73</v>
       </c>
@@ -36205,42 +36247,250 @@
         <v>73</v>
       </c>
       <c r="Y302" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z302" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA302" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB302" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC302" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD302" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE302" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF302" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG302" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AH302" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ302" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK302" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="B303" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="C303" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D303" s="2"/>
+      <c r="E303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F303" s="2"/>
+      <c r="G303" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H303" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K303" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L303" t="s" s="2">
+        <v>1235</v>
+      </c>
+      <c r="M303" t="s" s="2">
+        <v>1236</v>
+      </c>
+      <c r="N303" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="O303" t="s" s="2">
+        <v>1238</v>
+      </c>
+      <c r="P303" s="2"/>
+      <c r="Q303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R303" s="2"/>
+      <c r="S303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG303" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="AH303" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI303" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ303" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK303" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="B304" t="s" s="2">
+        <v>1239</v>
+      </c>
+      <c r="C304" t="s" s="2">
+        <v>1239</v>
+      </c>
+      <c r="D304" s="2"/>
+      <c r="E304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F304" s="2"/>
+      <c r="G304" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H304" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K304" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L304" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M304" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="N304" t="s" s="2">
+        <v>1241</v>
+      </c>
+      <c r="O304" s="2"/>
+      <c r="P304" s="2"/>
+      <c r="Q304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R304" s="2"/>
+      <c r="S304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y304" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Z302" t="s" s="2">
-        <v>1229</v>
-      </c>
-      <c r="AA302" t="s" s="2">
-        <v>1230</v>
-      </c>
-      <c r="AB302" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC302" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD302" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE302" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF302" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG302" t="s" s="2">
-        <v>1227</v>
-      </c>
-      <c r="AH302" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI302" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ302" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK302" t="s" s="2">
+      <c r="Z304" t="s" s="2">
+        <v>1241</v>
+      </c>
+      <c r="AA304" t="s" s="2">
+        <v>1242</v>
+      </c>
+      <c r="AB304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG304" t="s" s="2">
+        <v>1239</v>
+      </c>
+      <c r="AH304" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI304" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ304" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK304" t="s" s="2">
         <v>93</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10154" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11968" uniqueCount="1397">
   <si>
     <t>Property</t>
   </si>
@@ -3880,6 +3880,492 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
+  </si>
+  <si>
+    <t>us-core-provenance</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</t>
+  </si>
+  <si>
+    <t>USCoreProvenance</t>
+  </si>
+  <si>
+    <t>US Core Provenance Profile</t>
+  </si>
+  <si>
+    <t>The US Core Provenance Profile inherits from the FHIR [Provenance](https://hl7.org/fhir/R4/provenance.html) resource; refer to it for scope and usage definitions. This profile sets minimum expectations for the Provenance resource to record, search, and fetch provenance information associated with a record. It covers the minimal (basic) information to support lineage of information. It specifies which core elements, extensions, vocabularies, and value sets **SHALL** be present and constrains how the elements are used.   Before reviewing this profile, implementers are encouraged to read the Basic Provenance guidance page, which documents several key use cases, specifically, the organization responsible for the most recent action on the resource.</t>
+  </si>
+  <si>
+    <t>Provenance</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Provenance</t>
+  </si>
+  <si>
+    <t>History
+EventActivityBasic Provenance</t>
+  </si>
+  <si>
+    <t>US Core Provenance</t>
+  </si>
+  <si>
+    <t>Provenance of a resource is a record that describes entities and processes involved in producing and delivering or otherwise influencing that resource. Provenance provides a critical foundation for assessing authenticity, enabling trust, and allowing reproducibility. Provenance assertions are a form of contextual metadata and can themselves become important records with their own provenance. Provenance statement indicates clinical significance in terms of confidence in authenticity, reliability, and trustworthiness, integrity, and stage in lifecycle (e.g. Document Completion - has the artifact been legally authenticated), all of which may impact security, privacy, and trust policies.</t>
+  </si>
+  <si>
+    <t>Some parties may be duplicated between the target resource and its provenance.  For instance, the prescriber is usually (but not always) the author of the prescription resource. This resource is defined with close consideration for W3C Provenance.</t>
+  </si>
+  <si>
+    <t>Provenance.id</t>
+  </si>
+  <si>
+    <t>Provenance.meta</t>
+  </si>
+  <si>
+    <t>Provenance.implicitRules</t>
+  </si>
+  <si>
+    <t>Provenance.language</t>
+  </si>
+  <si>
+    <t>Provenance.text</t>
+  </si>
+  <si>
+    <t>Provenance.contained</t>
+  </si>
+  <si>
+    <t>Provenance.extension</t>
+  </si>
+  <si>
+    <t>Provenance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.target</t>
+  </si>
+  <si>
+    <t>The Resource this Provenance record supports</t>
+  </si>
+  <si>
+    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
+  </si>
+  <si>
+    <t>Target references are usually version specific, but might not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource might not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
+  </si>
+  <si>
+    <t>Provenance.target.id</t>
+  </si>
+  <si>
+    <t>Provenance.target.extension</t>
+  </si>
+  <si>
+    <t>Provenance.target.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Provenance.target.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Provenance.target.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>Provenance.target.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>Provenance.occurred[x]</t>
+  </si>
+  <si>
+    <t>Period
+dateTime</t>
+  </si>
+  <si>
+    <t>When the activity occurred</t>
+  </si>
+  <si>
+    <t>The period during which the activity occurred.</t>
+  </si>
+  <si>
+    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
+  </si>
+  <si>
+    <t>Provenance.recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Timestamp when the activity was recorded / updated</t>
+  </si>
+  <si>
+    <t>The instant of time at which the activity was recorded.</t>
+  </si>
+  <si>
+    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
+  </si>
+  <si>
+    <t>Provenance.policy</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
+  </si>
+  <si>
+    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
+  </si>
+  <si>
+    <t>Provenance.location</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant.</t>
+  </si>
+  <si>
+    <t>Provenance.reason</t>
+  </si>
+  <si>
+    <t>Reason the activity is occurring</t>
+  </si>
+  <si>
+    <t>The reason that the activity was taking place.</t>
+  </si>
+  <si>
+    <t>The reason the activity took place.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
+  </si>
+  <si>
+    <t>Provenance.activity</t>
+  </si>
+  <si>
+    <t>Activity that occurred</t>
+  </si>
+  <si>
+    <t>An activity is something that occurs over a period of time and acts upon or with entities; it may include consuming, processing, transforming, modifying, relocating, using, or generating entities.</t>
+  </si>
+  <si>
+    <t>The activity that took place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
+  </si>
+  <si>
+    <t>Provenance.agent</t>
+  </si>
+  <si>
+    <t>Actor involved</t>
+  </si>
+  <si>
+    <t>An actor taking a role in an activity  for which it can be assigned some degree of responsibility for the activity taking place.</t>
+  </si>
+  <si>
+    <t>Several agents may be associated (i.e. has some responsibility for an activity) with an activity and vice-versa.</t>
+  </si>
+  <si>
+    <t>An agent can be a person, an organization, software, device, or other entities that may be ascribed responsibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:type}
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+provenance-1:onBehalfOf SHALL be present when Provenance.agent.who is a Practitioner or Device {who.exists((resolve() is Practitioner) or (resolve() is Device)) implies onBehalfOf.exists()}</t>
+  </si>
+  <si>
+    <t>Provenance.agent.id</t>
+  </si>
+  <si>
+    <t>Provenance.agent.extension</t>
+  </si>
+  <si>
+    <t>Provenance.agent.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.agent.type</t>
+  </si>
+  <si>
+    <t>How the agent participated</t>
+  </si>
+  <si>
+    <t>The participation the agent had with respect to the activity.</t>
+  </si>
+  <si>
+    <t>For example: author, performer, enterer, attester, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provenance-participant-type</t>
+  </si>
+  <si>
+    <t>Provenance.agent.role</t>
+  </si>
+  <si>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Roles of the agent</t>
+  </si>
+  <si>
+    <t>The function of the agent with respect to the activity. The security role enabling the agent with respect to the activity.</t>
+  </si>
+  <si>
+    <t>For example: doctor, nurse, clerk, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|Device)
+</t>
+  </si>
+  <si>
+    <t>Who participated</t>
+  </si>
+  <si>
+    <t>The individual, device or organization that participated in the event.</t>
+  </si>
+  <si>
+    <t>whoIdentity should be used when the agent is not a Resource type.</t>
+  </si>
+  <si>
+    <t>Provenance.agent.onBehalfOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
+</t>
+  </si>
+  <si>
+    <t>Who the agent is representing</t>
+  </si>
+  <si>
+    <t>The individual, device, or organization for whom the change was made.</t>
+  </si>
+  <si>
+    <t>onBehalfOfIdentity should be used when the agent is not a Resource type.</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceAuthor</t>
+  </si>
+  <si>
+    <t>ProvenanceAuthor</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceAuthor.id</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceAuthor.extension</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceAuthor.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceAuthor.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/provenance-participant-type"/&gt;
+    &lt;code value="author"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>The type of participation that a provenance agent played with respect to the activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provenance-agent-type</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceAuthor.role</t>
+  </si>
+  <si>
+    <t>What the agents role was</t>
+  </si>
+  <si>
+    <t>The role that a provenance agent played with respect to the activity.</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceAuthor.who</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson|Patient|Device|Organization)
+</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceAuthor.onBehalfOf</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceTransmitter</t>
+  </si>
+  <si>
+    <t>ProvenanceTransmitter</t>
+  </si>
+  <si>
+    <t>The entity that provided the copy to your system.</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceTransmitter.id</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceTransmitter.extension</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceTransmitter.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceTransmitter.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/core/CodeSystem/us-core-provenance-participant-type"/&gt;
+    &lt;code value="transmitter"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceTransmitter.role</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceTransmitter.who</t>
+  </si>
+  <si>
+    <t>Provenance.agent:ProvenanceTransmitter.onBehalfOf</t>
+  </si>
+  <si>
+    <t>Provenance.entity</t>
+  </si>
+  <si>
+    <t>An entity used in this activity</t>
+  </si>
+  <si>
+    <t>An entity used in this activity.</t>
+  </si>
+  <si>
+    <t>Provenance.entity.id</t>
+  </si>
+  <si>
+    <t>Provenance.entity.extension</t>
+  </si>
+  <si>
+    <t>Provenance.entity.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.entity.role</t>
+  </si>
+  <si>
+    <t>derivation | revision | quotation | source | removal</t>
+  </si>
+  <si>
+    <t>How the entity was used during the activity.</t>
+  </si>
+  <si>
+    <t>How an entity was used in an activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provenance-entity-role|4.0.1</t>
+  </si>
+  <si>
+    <t>Provenance.entity.what</t>
+  </si>
+  <si>
+    <t>Identity of entity</t>
+  </si>
+  <si>
+    <t>Identity of the  Entity used. May be a logical or physical uri and maybe absolute or relative.</t>
+  </si>
+  <si>
+    <t>whatIdentity should be used for entities that are not a Resource type.</t>
+  </si>
+  <si>
+    <t>Provenance.entity.agent</t>
+  </si>
+  <si>
+    <t>Entity is attributed to this agent</t>
+  </si>
+  <si>
+    <t>The entity is attributed to an agent to express the agent's responsibility for that entity, possibly along with other agents. This description can be understood as shorthand for saying that the agent was responsible for the activity which generated the entity.</t>
+  </si>
+  <si>
+    <t>A usecase where one Provenance.entity.agent is used where the Entity that was used in the creation/updating of the Target, is not in the context of the same custodianship as the Target, and thus the meaning of Provenance.entity.agent is to say that the entity referenced is managed elsewhere and that this Agent provided access to it.  This would be similar to where the Entity being referenced is managed outside FHIR, such as through HL7 v2, v3, or XDS. This might be where the Entity being referenced is managed in another FHIR resource server. Thus it explains the Provenance of that Entity's use in the context of this Provenance activity.</t>
+  </si>
+  <si>
+    <t>Provenance.signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature
+</t>
+  </si>
+  <si>
+    <t>Signature on target</t>
+  </si>
+  <si>
+    <t>A digital signature on the target Reference(s). The signer should match a Provenance.agent. The purpose of the signature is indicated.</t>
   </si>
 </sst>
 </file>
@@ -4013,7 +4499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4653,6 +5139,160 @@
         <v>36</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4660,7 +5300,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK304"/>
+  <dimension ref="A1:AK358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4672,7 +5312,7 @@
     <col min="1" max="1" width="26.890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="62.16015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="62.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="21.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="22.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4688,7 +5328,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="92.05859375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="39.97265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
@@ -36494,6 +37134,5666 @@
         <v>93</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B305" t="s" s="2">
+        <v>1248</v>
+      </c>
+      <c r="C305" t="s" s="2">
+        <v>1248</v>
+      </c>
+      <c r="D305" s="2"/>
+      <c r="E305" t="s" s="2">
+        <v>1250</v>
+      </c>
+      <c r="F305" s="2"/>
+      <c r="G305" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H305" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L305" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M305" t="s" s="2">
+        <v>1251</v>
+      </c>
+      <c r="N305" t="s" s="2">
+        <v>1252</v>
+      </c>
+      <c r="O305" t="s" s="2">
+        <v>1253</v>
+      </c>
+      <c r="P305" s="2"/>
+      <c r="Q305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R305" s="2"/>
+      <c r="S305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG305" t="s" s="2">
+        <v>1248</v>
+      </c>
+      <c r="AH305" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI305" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ305" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK305" t="s" s="2">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B306" t="s" s="2">
+        <v>1254</v>
+      </c>
+      <c r="C306" t="s" s="2">
+        <v>1254</v>
+      </c>
+      <c r="D306" s="2"/>
+      <c r="E306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F306" s="2"/>
+      <c r="G306" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H306" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K306" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L306" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M306" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N306" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="O306" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="P306" s="2"/>
+      <c r="Q306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R306" s="2"/>
+      <c r="S306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG306" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH306" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI306" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ306" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK306" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B307" t="s" s="2">
+        <v>1255</v>
+      </c>
+      <c r="C307" t="s" s="2">
+        <v>1255</v>
+      </c>
+      <c r="D307" s="2"/>
+      <c r="E307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F307" s="2"/>
+      <c r="G307" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H307" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K307" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L307" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M307" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N307" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O307" s="2"/>
+      <c r="P307" s="2"/>
+      <c r="Q307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R307" s="2"/>
+      <c r="S307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG307" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH307" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI307" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ307" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK307" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B308" t="s" s="2">
+        <v>1256</v>
+      </c>
+      <c r="C308" t="s" s="2">
+        <v>1256</v>
+      </c>
+      <c r="D308" s="2"/>
+      <c r="E308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F308" s="2"/>
+      <c r="G308" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H308" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J308" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K308" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L308" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M308" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N308" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O308" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="P308" s="2"/>
+      <c r="Q308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R308" s="2"/>
+      <c r="S308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG308" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH308" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI308" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ308" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK308" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B309" t="s" s="2">
+        <v>1257</v>
+      </c>
+      <c r="C309" t="s" s="2">
+        <v>1257</v>
+      </c>
+      <c r="D309" s="2"/>
+      <c r="E309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F309" s="2"/>
+      <c r="G309" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H309" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L309" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M309" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N309" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O309" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="P309" s="2"/>
+      <c r="Q309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R309" s="2"/>
+      <c r="S309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y309" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z309" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AA309" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AB309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG309" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AH309" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI309" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ309" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK309" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B310" t="s" s="2">
+        <v>1258</v>
+      </c>
+      <c r="C310" t="s" s="2">
+        <v>1258</v>
+      </c>
+      <c r="D310" s="2"/>
+      <c r="E310" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="F310" s="2"/>
+      <c r="G310" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H310" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L310" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M310" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N310" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O310" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="P310" s="2"/>
+      <c r="Q310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R310" s="2"/>
+      <c r="S310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG310" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AH310" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI310" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ310" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK310" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B311" t="s" s="2">
+        <v>1259</v>
+      </c>
+      <c r="C311" t="s" s="2">
+        <v>1259</v>
+      </c>
+      <c r="D311" s="2"/>
+      <c r="E311" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="F311" s="2"/>
+      <c r="G311" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H311" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L311" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M311" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N311" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O311" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="P311" s="2"/>
+      <c r="Q311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R311" s="2"/>
+      <c r="S311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG311" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AH311" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI311" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ311" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK311" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B312" t="s" s="2">
+        <v>1260</v>
+      </c>
+      <c r="C312" t="s" s="2">
+        <v>1260</v>
+      </c>
+      <c r="D312" s="2"/>
+      <c r="E312" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F312" s="2"/>
+      <c r="G312" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H312" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L312" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M312" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N312" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O312" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P312" s="2"/>
+      <c r="Q312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R312" s="2"/>
+      <c r="S312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG312" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AH312" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI312" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ312" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK312" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B313" t="s" s="2">
+        <v>1261</v>
+      </c>
+      <c r="C313" t="s" s="2">
+        <v>1261</v>
+      </c>
+      <c r="D313" s="2"/>
+      <c r="E313" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F313" s="2"/>
+      <c r="G313" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H313" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J313" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L313" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M313" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N313" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O313" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P313" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R313" s="2"/>
+      <c r="S313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG313" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AH313" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI313" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ313" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK313" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B314" t="s" s="2">
+        <v>1262</v>
+      </c>
+      <c r="C314" t="s" s="2">
+        <v>1262</v>
+      </c>
+      <c r="D314" s="2"/>
+      <c r="E314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F314" s="2"/>
+      <c r="G314" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H314" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I314" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K314" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L314" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M314" t="s" s="2">
+        <v>1263</v>
+      </c>
+      <c r="N314" t="s" s="2">
+        <v>1264</v>
+      </c>
+      <c r="O314" t="s" s="2">
+        <v>1265</v>
+      </c>
+      <c r="P314" s="2"/>
+      <c r="Q314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R314" s="2"/>
+      <c r="S314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG314" t="s" s="2">
+        <v>1262</v>
+      </c>
+      <c r="AH314" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI314" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ314" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK314" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B315" t="s" s="2">
+        <v>1266</v>
+      </c>
+      <c r="C315" t="s" s="2">
+        <v>1266</v>
+      </c>
+      <c r="D315" s="2"/>
+      <c r="E315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F315" s="2"/>
+      <c r="G315" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H315" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L315" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M315" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N315" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O315" s="2"/>
+      <c r="P315" s="2"/>
+      <c r="Q315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R315" s="2"/>
+      <c r="S315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG315" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AH315" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI315" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ315" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK315" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B316" t="s" s="2">
+        <v>1267</v>
+      </c>
+      <c r="C316" t="s" s="2">
+        <v>1267</v>
+      </c>
+      <c r="D316" s="2"/>
+      <c r="E316" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F316" s="2"/>
+      <c r="G316" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H316" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L316" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M316" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N316" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O316" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P316" s="2"/>
+      <c r="Q316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R316" s="2"/>
+      <c r="S316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC316" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AD316" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AE316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF316" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG316" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AH316" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI316" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ316" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK316" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B317" t="s" s="2">
+        <v>1268</v>
+      </c>
+      <c r="C317" t="s" s="2">
+        <v>1268</v>
+      </c>
+      <c r="D317" s="2"/>
+      <c r="E317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F317" s="2"/>
+      <c r="G317" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H317" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I317" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K317" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L317" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M317" t="s" s="2">
+        <v>1269</v>
+      </c>
+      <c r="N317" t="s" s="2">
+        <v>1270</v>
+      </c>
+      <c r="O317" t="s" s="2">
+        <v>1271</v>
+      </c>
+      <c r="P317" s="2"/>
+      <c r="Q317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R317" s="2"/>
+      <c r="S317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF317" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG317" t="s" s="2">
+        <v>1272</v>
+      </c>
+      <c r="AH317" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI317" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ317" t="s" s="2">
+        <v>1273</v>
+      </c>
+      <c r="AK317" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B318" t="s" s="2">
+        <v>1274</v>
+      </c>
+      <c r="C318" t="s" s="2">
+        <v>1274</v>
+      </c>
+      <c r="D318" s="2"/>
+      <c r="E318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F318" s="2"/>
+      <c r="G318" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H318" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K318" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L318" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M318" t="s" s="2">
+        <v>1275</v>
+      </c>
+      <c r="N318" t="s" s="2">
+        <v>1276</v>
+      </c>
+      <c r="O318" t="s" s="2">
+        <v>1277</v>
+      </c>
+      <c r="P318" s="2"/>
+      <c r="Q318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R318" s="2"/>
+      <c r="S318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y318" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Z318" t="s" s="2">
+        <v>1278</v>
+      </c>
+      <c r="AA318" t="s" s="2">
+        <v>1279</v>
+      </c>
+      <c r="AB318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG318" t="s" s="2">
+        <v>1280</v>
+      </c>
+      <c r="AH318" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI318" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ318" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK318" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B319" t="s" s="2">
+        <v>1281</v>
+      </c>
+      <c r="C319" t="s" s="2">
+        <v>1281</v>
+      </c>
+      <c r="D319" s="2"/>
+      <c r="E319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F319" s="2"/>
+      <c r="G319" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H319" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K319" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L319" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M319" t="s" s="2">
+        <v>1282</v>
+      </c>
+      <c r="N319" t="s" s="2">
+        <v>1283</v>
+      </c>
+      <c r="O319" t="s" s="2">
+        <v>1284</v>
+      </c>
+      <c r="P319" s="2"/>
+      <c r="Q319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R319" s="2"/>
+      <c r="S319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG319" t="s" s="2">
+        <v>1285</v>
+      </c>
+      <c r="AH319" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI319" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ319" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK319" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B320" t="s" s="2">
+        <v>1286</v>
+      </c>
+      <c r="C320" t="s" s="2">
+        <v>1286</v>
+      </c>
+      <c r="D320" s="2"/>
+      <c r="E320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F320" s="2"/>
+      <c r="G320" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H320" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K320" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L320" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M320" t="s" s="2">
+        <v>1287</v>
+      </c>
+      <c r="N320" t="s" s="2">
+        <v>1288</v>
+      </c>
+      <c r="O320" t="s" s="2">
+        <v>1289</v>
+      </c>
+      <c r="P320" s="2"/>
+      <c r="Q320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R320" s="2"/>
+      <c r="S320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG320" t="s" s="2">
+        <v>1290</v>
+      </c>
+      <c r="AH320" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI320" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ320" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK320" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B321" t="s" s="2">
+        <v>1291</v>
+      </c>
+      <c r="C321" t="s" s="2">
+        <v>1291</v>
+      </c>
+      <c r="D321" s="2"/>
+      <c r="E321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F321" s="2"/>
+      <c r="G321" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H321" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L321" t="s" s="2">
+        <v>1292</v>
+      </c>
+      <c r="M321" t="s" s="2">
+        <v>1293</v>
+      </c>
+      <c r="N321" t="s" s="2">
+        <v>1294</v>
+      </c>
+      <c r="O321" t="s" s="2">
+        <v>1295</v>
+      </c>
+      <c r="P321" s="2"/>
+      <c r="Q321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R321" s="2"/>
+      <c r="S321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG321" t="s" s="2">
+        <v>1291</v>
+      </c>
+      <c r="AH321" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI321" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ321" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK321" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B322" t="s" s="2">
+        <v>1296</v>
+      </c>
+      <c r="C322" t="s" s="2">
+        <v>1296</v>
+      </c>
+      <c r="D322" s="2"/>
+      <c r="E322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F322" s="2"/>
+      <c r="G322" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H322" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I322" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K322" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L322" t="s" s="2">
+        <v>1297</v>
+      </c>
+      <c r="M322" t="s" s="2">
+        <v>1298</v>
+      </c>
+      <c r="N322" t="s" s="2">
+        <v>1299</v>
+      </c>
+      <c r="O322" t="s" s="2">
+        <v>1300</v>
+      </c>
+      <c r="P322" s="2"/>
+      <c r="Q322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R322" s="2"/>
+      <c r="S322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG322" t="s" s="2">
+        <v>1296</v>
+      </c>
+      <c r="AH322" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI322" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ322" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK322" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B323" t="s" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C323" t="s" s="2">
+        <v>1301</v>
+      </c>
+      <c r="D323" s="2"/>
+      <c r="E323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F323" s="2"/>
+      <c r="G323" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H323" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L323" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M323" t="s" s="2">
+        <v>1302</v>
+      </c>
+      <c r="N323" t="s" s="2">
+        <v>1303</v>
+      </c>
+      <c r="O323" t="s" s="2">
+        <v>1304</v>
+      </c>
+      <c r="P323" s="2"/>
+      <c r="Q323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R323" s="2"/>
+      <c r="S323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG323" t="s" s="2">
+        <v>1301</v>
+      </c>
+      <c r="AH323" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI323" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ323" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK323" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B324" t="s" s="2">
+        <v>1305</v>
+      </c>
+      <c r="C324" t="s" s="2">
+        <v>1305</v>
+      </c>
+      <c r="D324" s="2"/>
+      <c r="E324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F324" s="2"/>
+      <c r="G324" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H324" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L324" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M324" t="s" s="2">
+        <v>1306</v>
+      </c>
+      <c r="N324" t="s" s="2">
+        <v>1307</v>
+      </c>
+      <c r="O324" s="2"/>
+      <c r="P324" s="2"/>
+      <c r="Q324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R324" s="2"/>
+      <c r="S324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG324" t="s" s="2">
+        <v>1305</v>
+      </c>
+      <c r="AH324" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI324" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ324" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK324" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B325" t="s" s="2">
+        <v>1308</v>
+      </c>
+      <c r="C325" t="s" s="2">
+        <v>1308</v>
+      </c>
+      <c r="D325" s="2"/>
+      <c r="E325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F325" s="2"/>
+      <c r="G325" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H325" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L325" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M325" t="s" s="2">
+        <v>1309</v>
+      </c>
+      <c r="N325" t="s" s="2">
+        <v>1310</v>
+      </c>
+      <c r="O325" s="2"/>
+      <c r="P325" s="2"/>
+      <c r="Q325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R325" s="2"/>
+      <c r="S325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y325" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Z325" t="s" s="2">
+        <v>1311</v>
+      </c>
+      <c r="AA325" t="s" s="2">
+        <v>1312</v>
+      </c>
+      <c r="AB325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG325" t="s" s="2">
+        <v>1308</v>
+      </c>
+      <c r="AH325" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI325" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ325" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK325" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B326" t="s" s="2">
+        <v>1313</v>
+      </c>
+      <c r="C326" t="s" s="2">
+        <v>1313</v>
+      </c>
+      <c r="D326" s="2"/>
+      <c r="E326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F326" s="2"/>
+      <c r="G326" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H326" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L326" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M326" t="s" s="2">
+        <v>1314</v>
+      </c>
+      <c r="N326" t="s" s="2">
+        <v>1315</v>
+      </c>
+      <c r="O326" s="2"/>
+      <c r="P326" s="2"/>
+      <c r="Q326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R326" s="2"/>
+      <c r="S326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y326" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Z326" t="s" s="2">
+        <v>1316</v>
+      </c>
+      <c r="AA326" t="s" s="2">
+        <v>1317</v>
+      </c>
+      <c r="AB326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG326" t="s" s="2">
+        <v>1313</v>
+      </c>
+      <c r="AH326" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI326" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ326" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK326" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B327" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="C327" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="D327" s="2"/>
+      <c r="E327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F327" s="2"/>
+      <c r="G327" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H327" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I327" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L327" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M327" t="s" s="2">
+        <v>1319</v>
+      </c>
+      <c r="N327" t="s" s="2">
+        <v>1320</v>
+      </c>
+      <c r="O327" t="s" s="2">
+        <v>1321</v>
+      </c>
+      <c r="P327" t="s" s="2">
+        <v>1322</v>
+      </c>
+      <c r="Q327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R327" s="2"/>
+      <c r="S327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC327" t="s" s="2">
+        <v>1323</v>
+      </c>
+      <c r="AD327" s="2"/>
+      <c r="AE327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF327" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG327" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="AH327" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI327" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK327" t="s" s="2">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B328" t="s" s="2">
+        <v>1325</v>
+      </c>
+      <c r="C328" t="s" s="2">
+        <v>1325</v>
+      </c>
+      <c r="D328" s="2"/>
+      <c r="E328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F328" s="2"/>
+      <c r="G328" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H328" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L328" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M328" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N328" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O328" s="2"/>
+      <c r="P328" s="2"/>
+      <c r="Q328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R328" s="2"/>
+      <c r="S328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG328" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AH328" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI328" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ328" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK328" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B329" t="s" s="2">
+        <v>1326</v>
+      </c>
+      <c r="C329" t="s" s="2">
+        <v>1326</v>
+      </c>
+      <c r="D329" s="2"/>
+      <c r="E329" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F329" s="2"/>
+      <c r="G329" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H329" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L329" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M329" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N329" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O329" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P329" s="2"/>
+      <c r="Q329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R329" s="2"/>
+      <c r="S329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG329" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AH329" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI329" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ329" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK329" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B330" t="s" s="2">
+        <v>1327</v>
+      </c>
+      <c r="C330" t="s" s="2">
+        <v>1327</v>
+      </c>
+      <c r="D330" s="2"/>
+      <c r="E330" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="F330" s="2"/>
+      <c r="G330" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H330" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J330" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K330" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L330" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M330" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N330" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O330" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P330" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R330" s="2"/>
+      <c r="S330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG330" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AH330" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI330" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ330" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK330" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B331" t="s" s="2">
+        <v>1328</v>
+      </c>
+      <c r="C331" t="s" s="2">
+        <v>1328</v>
+      </c>
+      <c r="D331" s="2"/>
+      <c r="E331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F331" s="2"/>
+      <c r="G331" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H331" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I331" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K331" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L331" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M331" t="s" s="2">
+        <v>1329</v>
+      </c>
+      <c r="N331" t="s" s="2">
+        <v>1330</v>
+      </c>
+      <c r="O331" t="s" s="2">
+        <v>1331</v>
+      </c>
+      <c r="P331" s="2"/>
+      <c r="Q331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R331" s="2"/>
+      <c r="S331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y331" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Z331" s="2"/>
+      <c r="AA331" t="s" s="2">
+        <v>1332</v>
+      </c>
+      <c r="AB331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG331" t="s" s="2">
+        <v>1328</v>
+      </c>
+      <c r="AH331" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI331" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ331" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK331" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B332" t="s" s="2">
+        <v>1333</v>
+      </c>
+      <c r="C332" t="s" s="2">
+        <v>1333</v>
+      </c>
+      <c r="D332" s="2"/>
+      <c r="E332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F332" s="2"/>
+      <c r="G332" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H332" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L332" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M332" t="s" s="2">
+        <v>1334</v>
+      </c>
+      <c r="N332" t="s" s="2">
+        <v>1335</v>
+      </c>
+      <c r="O332" t="s" s="2">
+        <v>1336</v>
+      </c>
+      <c r="P332" s="2"/>
+      <c r="Q332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R332" s="2"/>
+      <c r="S332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y332" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Z332" s="2"/>
+      <c r="AA332" t="s" s="2">
+        <v>1337</v>
+      </c>
+      <c r="AB332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG332" t="s" s="2">
+        <v>1333</v>
+      </c>
+      <c r="AH332" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI332" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ332" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK332" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B333" t="s" s="2">
+        <v>1338</v>
+      </c>
+      <c r="C333" t="s" s="2">
+        <v>1338</v>
+      </c>
+      <c r="D333" s="2"/>
+      <c r="E333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F333" s="2"/>
+      <c r="G333" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H333" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I333" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K333" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L333" t="s" s="2">
+        <v>1339</v>
+      </c>
+      <c r="M333" t="s" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N333" t="s" s="2">
+        <v>1341</v>
+      </c>
+      <c r="O333" t="s" s="2">
+        <v>1342</v>
+      </c>
+      <c r="P333" s="2"/>
+      <c r="Q333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R333" s="2"/>
+      <c r="S333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG333" t="s" s="2">
+        <v>1338</v>
+      </c>
+      <c r="AH333" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI333" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ333" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK333" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B334" t="s" s="2">
+        <v>1343</v>
+      </c>
+      <c r="C334" t="s" s="2">
+        <v>1343</v>
+      </c>
+      <c r="D334" s="2"/>
+      <c r="E334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F334" s="2"/>
+      <c r="G334" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H334" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I334" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L334" t="s" s="2">
+        <v>1344</v>
+      </c>
+      <c r="M334" t="s" s="2">
+        <v>1345</v>
+      </c>
+      <c r="N334" t="s" s="2">
+        <v>1346</v>
+      </c>
+      <c r="O334" t="s" s="2">
+        <v>1347</v>
+      </c>
+      <c r="P334" s="2"/>
+      <c r="Q334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R334" s="2"/>
+      <c r="S334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG334" t="s" s="2">
+        <v>1343</v>
+      </c>
+      <c r="AH334" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI334" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK334" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B335" t="s" s="2">
+        <v>1348</v>
+      </c>
+      <c r="C335" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="D335" t="s" s="2">
+        <v>1349</v>
+      </c>
+      <c r="E335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F335" s="2"/>
+      <c r="G335" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H335" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I335" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L335" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M335" t="s" s="2">
+        <v>1319</v>
+      </c>
+      <c r="N335" t="s" s="2">
+        <v>1320</v>
+      </c>
+      <c r="O335" t="s" s="2">
+        <v>1321</v>
+      </c>
+      <c r="P335" t="s" s="2">
+        <v>1322</v>
+      </c>
+      <c r="Q335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R335" s="2"/>
+      <c r="S335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG335" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="AH335" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI335" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ335" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK335" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B336" t="s" s="2">
+        <v>1350</v>
+      </c>
+      <c r="C336" t="s" s="2">
+        <v>1325</v>
+      </c>
+      <c r="D336" s="2"/>
+      <c r="E336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F336" s="2"/>
+      <c r="G336" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H336" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L336" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M336" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N336" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O336" s="2"/>
+      <c r="P336" s="2"/>
+      <c r="Q336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R336" s="2"/>
+      <c r="S336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG336" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AH336" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI336" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ336" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK336" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B337" t="s" s="2">
+        <v>1351</v>
+      </c>
+      <c r="C337" t="s" s="2">
+        <v>1326</v>
+      </c>
+      <c r="D337" s="2"/>
+      <c r="E337" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F337" s="2"/>
+      <c r="G337" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H337" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L337" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M337" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N337" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O337" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P337" s="2"/>
+      <c r="Q337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R337" s="2"/>
+      <c r="S337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG337" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AH337" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI337" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ337" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK337" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B338" t="s" s="2">
+        <v>1352</v>
+      </c>
+      <c r="C338" t="s" s="2">
+        <v>1327</v>
+      </c>
+      <c r="D338" s="2"/>
+      <c r="E338" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="F338" s="2"/>
+      <c r="G338" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H338" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J338" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K338" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L338" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M338" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N338" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O338" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P338" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R338" s="2"/>
+      <c r="S338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG338" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AH338" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI338" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ338" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK338" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B339" t="s" s="2">
+        <v>1353</v>
+      </c>
+      <c r="C339" t="s" s="2">
+        <v>1328</v>
+      </c>
+      <c r="D339" s="2"/>
+      <c r="E339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F339" s="2"/>
+      <c r="G339" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H339" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I339" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K339" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L339" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M339" t="s" s="2">
+        <v>1329</v>
+      </c>
+      <c r="N339" t="s" s="2">
+        <v>1330</v>
+      </c>
+      <c r="O339" t="s" s="2">
+        <v>1331</v>
+      </c>
+      <c r="P339" s="2"/>
+      <c r="Q339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R339" s="2"/>
+      <c r="S339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T339" t="s" s="2">
+        <v>1354</v>
+      </c>
+      <c r="U339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y339" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Z339" t="s" s="2">
+        <v>1355</v>
+      </c>
+      <c r="AA339" t="s" s="2">
+        <v>1356</v>
+      </c>
+      <c r="AB339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG339" t="s" s="2">
+        <v>1328</v>
+      </c>
+      <c r="AH339" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI339" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ339" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK339" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B340" t="s" s="2">
+        <v>1357</v>
+      </c>
+      <c r="C340" t="s" s="2">
+        <v>1333</v>
+      </c>
+      <c r="D340" s="2"/>
+      <c r="E340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F340" s="2"/>
+      <c r="G340" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H340" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L340" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M340" t="s" s="2">
+        <v>1358</v>
+      </c>
+      <c r="N340" t="s" s="2">
+        <v>1335</v>
+      </c>
+      <c r="O340" t="s" s="2">
+        <v>1336</v>
+      </c>
+      <c r="P340" s="2"/>
+      <c r="Q340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R340" s="2"/>
+      <c r="S340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y340" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Z340" t="s" s="2">
+        <v>1359</v>
+      </c>
+      <c r="AA340" t="s" s="2">
+        <v>1337</v>
+      </c>
+      <c r="AB340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG340" t="s" s="2">
+        <v>1333</v>
+      </c>
+      <c r="AH340" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI340" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ340" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK340" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B341" t="s" s="2">
+        <v>1360</v>
+      </c>
+      <c r="C341" t="s" s="2">
+        <v>1338</v>
+      </c>
+      <c r="D341" s="2"/>
+      <c r="E341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F341" s="2"/>
+      <c r="G341" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H341" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K341" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L341" t="s" s="2">
+        <v>1361</v>
+      </c>
+      <c r="M341" t="s" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N341" t="s" s="2">
+        <v>1341</v>
+      </c>
+      <c r="O341" t="s" s="2">
+        <v>1342</v>
+      </c>
+      <c r="P341" s="2"/>
+      <c r="Q341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R341" s="2"/>
+      <c r="S341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG341" t="s" s="2">
+        <v>1338</v>
+      </c>
+      <c r="AH341" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI341" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ341" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK341" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B342" t="s" s="2">
+        <v>1362</v>
+      </c>
+      <c r="C342" t="s" s="2">
+        <v>1343</v>
+      </c>
+      <c r="D342" s="2"/>
+      <c r="E342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F342" s="2"/>
+      <c r="G342" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H342" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L342" t="s" s="2">
+        <v>1361</v>
+      </c>
+      <c r="M342" t="s" s="2">
+        <v>1345</v>
+      </c>
+      <c r="N342" t="s" s="2">
+        <v>1346</v>
+      </c>
+      <c r="O342" t="s" s="2">
+        <v>1347</v>
+      </c>
+      <c r="P342" s="2"/>
+      <c r="Q342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R342" s="2"/>
+      <c r="S342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG342" t="s" s="2">
+        <v>1343</v>
+      </c>
+      <c r="AH342" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI342" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ342" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK342" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B343" t="s" s="2">
+        <v>1363</v>
+      </c>
+      <c r="C343" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="D343" t="s" s="2">
+        <v>1364</v>
+      </c>
+      <c r="E343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F343" s="2"/>
+      <c r="G343" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H343" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I343" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L343" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M343" t="s" s="2">
+        <v>1319</v>
+      </c>
+      <c r="N343" t="s" s="2">
+        <v>1365</v>
+      </c>
+      <c r="O343" t="s" s="2">
+        <v>1321</v>
+      </c>
+      <c r="P343" t="s" s="2">
+        <v>1322</v>
+      </c>
+      <c r="Q343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R343" s="2"/>
+      <c r="S343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG343" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="AH343" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI343" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK343" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B344" t="s" s="2">
+        <v>1366</v>
+      </c>
+      <c r="C344" t="s" s="2">
+        <v>1325</v>
+      </c>
+      <c r="D344" s="2"/>
+      <c r="E344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F344" s="2"/>
+      <c r="G344" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H344" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L344" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M344" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N344" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O344" s="2"/>
+      <c r="P344" s="2"/>
+      <c r="Q344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R344" s="2"/>
+      <c r="S344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG344" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AH344" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI344" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ344" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK344" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B345" t="s" s="2">
+        <v>1367</v>
+      </c>
+      <c r="C345" t="s" s="2">
+        <v>1326</v>
+      </c>
+      <c r="D345" s="2"/>
+      <c r="E345" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F345" s="2"/>
+      <c r="G345" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H345" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L345" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M345" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N345" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O345" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P345" s="2"/>
+      <c r="Q345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R345" s="2"/>
+      <c r="S345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG345" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AH345" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI345" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ345" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK345" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B346" t="s" s="2">
+        <v>1368</v>
+      </c>
+      <c r="C346" t="s" s="2">
+        <v>1327</v>
+      </c>
+      <c r="D346" s="2"/>
+      <c r="E346" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="F346" s="2"/>
+      <c r="G346" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H346" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J346" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K346" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L346" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M346" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N346" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O346" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P346" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R346" s="2"/>
+      <c r="S346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG346" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AH346" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI346" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK346" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B347" t="s" s="2">
+        <v>1369</v>
+      </c>
+      <c r="C347" t="s" s="2">
+        <v>1328</v>
+      </c>
+      <c r="D347" s="2"/>
+      <c r="E347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F347" s="2"/>
+      <c r="G347" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H347" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I347" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K347" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L347" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M347" t="s" s="2">
+        <v>1329</v>
+      </c>
+      <c r="N347" t="s" s="2">
+        <v>1330</v>
+      </c>
+      <c r="O347" t="s" s="2">
+        <v>1331</v>
+      </c>
+      <c r="P347" s="2"/>
+      <c r="Q347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R347" s="2"/>
+      <c r="S347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T347" t="s" s="2">
+        <v>1370</v>
+      </c>
+      <c r="U347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y347" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Z347" t="s" s="2">
+        <v>1355</v>
+      </c>
+      <c r="AA347" t="s" s="2">
+        <v>1356</v>
+      </c>
+      <c r="AB347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG347" t="s" s="2">
+        <v>1328</v>
+      </c>
+      <c r="AH347" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI347" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK347" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B348" t="s" s="2">
+        <v>1371</v>
+      </c>
+      <c r="C348" t="s" s="2">
+        <v>1333</v>
+      </c>
+      <c r="D348" s="2"/>
+      <c r="E348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F348" s="2"/>
+      <c r="G348" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H348" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L348" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M348" t="s" s="2">
+        <v>1358</v>
+      </c>
+      <c r="N348" t="s" s="2">
+        <v>1335</v>
+      </c>
+      <c r="O348" t="s" s="2">
+        <v>1336</v>
+      </c>
+      <c r="P348" s="2"/>
+      <c r="Q348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R348" s="2"/>
+      <c r="S348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y348" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Z348" t="s" s="2">
+        <v>1359</v>
+      </c>
+      <c r="AA348" t="s" s="2">
+        <v>1337</v>
+      </c>
+      <c r="AB348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG348" t="s" s="2">
+        <v>1333</v>
+      </c>
+      <c r="AH348" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI348" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK348" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B349" t="s" s="2">
+        <v>1372</v>
+      </c>
+      <c r="C349" t="s" s="2">
+        <v>1338</v>
+      </c>
+      <c r="D349" s="2"/>
+      <c r="E349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F349" s="2"/>
+      <c r="G349" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H349" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K349" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L349" t="s" s="2">
+        <v>1361</v>
+      </c>
+      <c r="M349" t="s" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N349" t="s" s="2">
+        <v>1341</v>
+      </c>
+      <c r="O349" t="s" s="2">
+        <v>1342</v>
+      </c>
+      <c r="P349" s="2"/>
+      <c r="Q349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R349" s="2"/>
+      <c r="S349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG349" t="s" s="2">
+        <v>1338</v>
+      </c>
+      <c r="AH349" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI349" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK349" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B350" t="s" s="2">
+        <v>1373</v>
+      </c>
+      <c r="C350" t="s" s="2">
+        <v>1343</v>
+      </c>
+      <c r="D350" s="2"/>
+      <c r="E350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F350" s="2"/>
+      <c r="G350" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H350" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L350" t="s" s="2">
+        <v>1361</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>1345</v>
+      </c>
+      <c r="N350" t="s" s="2">
+        <v>1346</v>
+      </c>
+      <c r="O350" t="s" s="2">
+        <v>1347</v>
+      </c>
+      <c r="P350" s="2"/>
+      <c r="Q350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R350" s="2"/>
+      <c r="S350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG350" t="s" s="2">
+        <v>1343</v>
+      </c>
+      <c r="AH350" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI350" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ350" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK350" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B351" t="s" s="2">
+        <v>1374</v>
+      </c>
+      <c r="C351" t="s" s="2">
+        <v>1374</v>
+      </c>
+      <c r="D351" s="2"/>
+      <c r="E351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F351" s="2"/>
+      <c r="G351" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H351" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L351" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M351" t="s" s="2">
+        <v>1375</v>
+      </c>
+      <c r="N351" t="s" s="2">
+        <v>1376</v>
+      </c>
+      <c r="O351" s="2"/>
+      <c r="P351" s="2"/>
+      <c r="Q351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R351" s="2"/>
+      <c r="S351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG351" t="s" s="2">
+        <v>1374</v>
+      </c>
+      <c r="AH351" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI351" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ351" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK351" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B352" t="s" s="2">
+        <v>1377</v>
+      </c>
+      <c r="C352" t="s" s="2">
+        <v>1377</v>
+      </c>
+      <c r="D352" s="2"/>
+      <c r="E352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F352" s="2"/>
+      <c r="G352" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H352" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L352" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M352" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N352" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O352" s="2"/>
+      <c r="P352" s="2"/>
+      <c r="Q352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R352" s="2"/>
+      <c r="S352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG352" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AH352" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI352" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK352" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B353" t="s" s="2">
+        <v>1378</v>
+      </c>
+      <c r="C353" t="s" s="2">
+        <v>1378</v>
+      </c>
+      <c r="D353" s="2"/>
+      <c r="E353" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F353" s="2"/>
+      <c r="G353" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H353" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L353" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M353" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N353" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O353" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P353" s="2"/>
+      <c r="Q353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R353" s="2"/>
+      <c r="S353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG353" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AH353" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI353" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK353" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B354" t="s" s="2">
+        <v>1379</v>
+      </c>
+      <c r="C354" t="s" s="2">
+        <v>1379</v>
+      </c>
+      <c r="D354" s="2"/>
+      <c r="E354" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="F354" s="2"/>
+      <c r="G354" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H354" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J354" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K354" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L354" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M354" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N354" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O354" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P354" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R354" s="2"/>
+      <c r="S354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG354" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AH354" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI354" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK354" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B355" t="s" s="2">
+        <v>1380</v>
+      </c>
+      <c r="C355" t="s" s="2">
+        <v>1380</v>
+      </c>
+      <c r="D355" s="2"/>
+      <c r="E355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F355" s="2"/>
+      <c r="G355" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H355" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K355" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L355" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M355" t="s" s="2">
+        <v>1381</v>
+      </c>
+      <c r="N355" t="s" s="2">
+        <v>1382</v>
+      </c>
+      <c r="O355" s="2"/>
+      <c r="P355" s="2"/>
+      <c r="Q355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R355" s="2"/>
+      <c r="S355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y355" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z355" t="s" s="2">
+        <v>1383</v>
+      </c>
+      <c r="AA355" t="s" s="2">
+        <v>1384</v>
+      </c>
+      <c r="AB355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG355" t="s" s="2">
+        <v>1380</v>
+      </c>
+      <c r="AH355" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI355" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK355" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B356" t="s" s="2">
+        <v>1385</v>
+      </c>
+      <c r="C356" t="s" s="2">
+        <v>1385</v>
+      </c>
+      <c r="D356" s="2"/>
+      <c r="E356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F356" s="2"/>
+      <c r="G356" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H356" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K356" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L356" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M356" t="s" s="2">
+        <v>1386</v>
+      </c>
+      <c r="N356" t="s" s="2">
+        <v>1387</v>
+      </c>
+      <c r="O356" t="s" s="2">
+        <v>1388</v>
+      </c>
+      <c r="P356" s="2"/>
+      <c r="Q356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R356" s="2"/>
+      <c r="S356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG356" t="s" s="2">
+        <v>1385</v>
+      </c>
+      <c r="AH356" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI356" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK356" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B357" t="s" s="2">
+        <v>1389</v>
+      </c>
+      <c r="C357" t="s" s="2">
+        <v>1389</v>
+      </c>
+      <c r="D357" s="2"/>
+      <c r="E357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F357" s="2"/>
+      <c r="G357" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H357" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L357" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M357" t="s" s="2">
+        <v>1390</v>
+      </c>
+      <c r="N357" t="s" s="2">
+        <v>1391</v>
+      </c>
+      <c r="O357" t="s" s="2">
+        <v>1392</v>
+      </c>
+      <c r="P357" s="2"/>
+      <c r="Q357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R357" s="2"/>
+      <c r="S357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG357" t="s" s="2">
+        <v>1389</v>
+      </c>
+      <c r="AH357" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI357" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK357" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B358" t="s" s="2">
+        <v>1393</v>
+      </c>
+      <c r="C358" t="s" s="2">
+        <v>1393</v>
+      </c>
+      <c r="D358" s="2"/>
+      <c r="E358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F358" s="2"/>
+      <c r="G358" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H358" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L358" t="s" s="2">
+        <v>1394</v>
+      </c>
+      <c r="M358" t="s" s="2">
+        <v>1395</v>
+      </c>
+      <c r="N358" t="s" s="2">
+        <v>1396</v>
+      </c>
+      <c r="O358" s="2"/>
+      <c r="P358" s="2"/>
+      <c r="Q358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R358" s="2"/>
+      <c r="S358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG358" t="s" s="2">
+        <v>1393</v>
+      </c>
+      <c r="AH358" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI358" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK358" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -2776,10 +2776,10 @@
     <t>The US Core Sex Extension is used to reflect the documentation of a person's sex. It aligns with the C-CDA Sex Observation (LOINC 46098-0).</t>
   </si>
   <si>
-    <t>Patient.extension:clinical-sex</t>
-  </si>
-  <si>
-    <t>clinical-sex</t>
+    <t>Patient.extension:spfcu</t>
+  </si>
+  <si>
+    <t>spfcu</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {patient-sexParameterForClinicalUse}

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11968" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11969" uniqueCount="1400">
   <si>
     <t>Property</t>
   </si>
@@ -2776,10 +2776,10 @@
     <t>The US Core Sex Extension is used to reflect the documentation of a person's sex. It aligns with the C-CDA Sex Observation (LOINC 46098-0).</t>
   </si>
   <si>
-    <t>Patient.extension:spfcu</t>
-  </si>
-  <si>
-    <t>spfcu</t>
+    <t>Patient.extension:spcu</t>
+  </si>
+  <si>
+    <t>spcu</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {patient-sexParameterForClinicalUse}
@@ -4171,10 +4171,13 @@
     <t>The function of the agent with respect to the activity. The security role enabling the agent with respect to the activity.</t>
   </si>
   <si>
-    <t>For example: doctor, nurse, clerk, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+    <t>When the author is a person who is not acting in the role of a clinician, this code encodes the personal or legal relationship between author and the patient.</t>
+  </si>
+  <si>
+    <t>C-CDA author provenance and role value sets. See additional bindings</t>
+  </si>
+  <si>
+    <t>http://hl7.org/cda/stds/core/ValueSet/uscore-cda-role-code</t>
   </si>
   <si>
     <t>Provenance.agent.who</t>
@@ -4247,7 +4250,13 @@
     <t>What the agents role was</t>
   </si>
   <si>
+    <t>For example: doctor, nurse, clerk, etc.</t>
+  </si>
+  <si>
     <t>The role that a provenance agent played with respect to the activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
   </si>
   <si>
     <t>Provenance.agent:ProvenanceAuthor.who</t>
@@ -40025,11 +40034,13 @@
         <v>73</v>
       </c>
       <c r="Y332" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Z332" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="Z332" t="s" s="2">
+        <v>1337</v>
+      </c>
       <c r="AA332" t="s" s="2">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="AB332" t="s" s="2">
         <v>73</v>
@@ -40067,10 +40078,10 @@
         <v>1243</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -40093,16 +40104,16 @@
         <v>82</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="O333" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="P333" s="2"/>
       <c r="Q333" t="s" s="2">
@@ -40152,7 +40163,7 @@
         <v>73</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>81</v>
@@ -40172,10 +40183,10 @@
         <v>1243</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -40198,16 +40209,16 @@
         <v>73</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="N334" t="s" s="2">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="O334" t="s" s="2">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="P334" s="2"/>
       <c r="Q334" t="s" s="2">
@@ -40257,7 +40268,7 @@
         <v>73</v>
       </c>
       <c r="AG334" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>74</v>
@@ -40277,13 +40288,13 @@
         <v>1243</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C335" t="s" s="2">
         <v>1318</v>
       </c>
       <c r="D335" t="s" s="2">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="E335" t="s" s="2">
         <v>73</v>
@@ -40386,7 +40397,7 @@
         <v>1243</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C336" t="s" s="2">
         <v>1325</v>
@@ -40489,7 +40500,7 @@
         <v>1243</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C337" t="s" s="2">
         <v>1326</v>
@@ -40594,7 +40605,7 @@
         <v>1243</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C338" t="s" s="2">
         <v>1327</v>
@@ -40701,7 +40712,7 @@
         <v>1243</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C339" t="s" s="2">
         <v>1328</v>
@@ -40747,7 +40758,7 @@
         <v>73</v>
       </c>
       <c r="T339" t="s" s="2">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="U339" t="s" s="2">
         <v>73</v>
@@ -40765,10 +40776,10 @@
         <v>156</v>
       </c>
       <c r="Z339" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="AA339" t="s" s="2">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="AB339" t="s" s="2">
         <v>73</v>
@@ -40806,7 +40817,7 @@
         <v>1243</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C340" t="s" s="2">
         <v>1333</v>
@@ -40835,13 +40846,13 @@
         <v>147</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="N340" t="s" s="2">
         <v>1335</v>
       </c>
       <c r="O340" t="s" s="2">
-        <v>1336</v>
+        <v>1360</v>
       </c>
       <c r="P340" s="2"/>
       <c r="Q340" t="s" s="2">
@@ -40870,10 +40881,10 @@
         <v>151</v>
       </c>
       <c r="Z340" t="s" s="2">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="AA340" t="s" s="2">
-        <v>1337</v>
+        <v>1362</v>
       </c>
       <c r="AB340" t="s" s="2">
         <v>73</v>
@@ -40911,10 +40922,10 @@
         <v>1243</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -40937,16 +40948,16 @@
         <v>82</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="O341" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="P341" s="2"/>
       <c r="Q341" t="s" s="2">
@@ -40996,7 +41007,7 @@
         <v>73</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>81</v>
@@ -41016,10 +41027,10 @@
         <v>1243</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -41042,16 +41053,16 @@
         <v>73</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="O342" t="s" s="2">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="P342" s="2"/>
       <c r="Q342" t="s" s="2">
@@ -41101,7 +41112,7 @@
         <v>73</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>74</v>
@@ -41121,13 +41132,13 @@
         <v>1243</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="C343" t="s" s="2">
         <v>1318</v>
       </c>
       <c r="D343" t="s" s="2">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="E343" t="s" s="2">
         <v>73</v>
@@ -41155,7 +41166,7 @@
         <v>1319</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>1321</v>
@@ -41230,7 +41241,7 @@
         <v>1243</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="C344" t="s" s="2">
         <v>1325</v>
@@ -41333,7 +41344,7 @@
         <v>1243</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="C345" t="s" s="2">
         <v>1326</v>
@@ -41438,7 +41449,7 @@
         <v>1243</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="C346" t="s" s="2">
         <v>1327</v>
@@ -41545,7 +41556,7 @@
         <v>1243</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="C347" t="s" s="2">
         <v>1328</v>
@@ -41591,7 +41602,7 @@
         <v>73</v>
       </c>
       <c r="T347" t="s" s="2">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="U347" t="s" s="2">
         <v>73</v>
@@ -41609,10 +41620,10 @@
         <v>156</v>
       </c>
       <c r="Z347" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="AA347" t="s" s="2">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="AB347" t="s" s="2">
         <v>73</v>
@@ -41650,7 +41661,7 @@
         <v>1243</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="C348" t="s" s="2">
         <v>1333</v>
@@ -41679,13 +41690,13 @@
         <v>147</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="N348" t="s" s="2">
         <v>1335</v>
       </c>
       <c r="O348" t="s" s="2">
-        <v>1336</v>
+        <v>1360</v>
       </c>
       <c r="P348" s="2"/>
       <c r="Q348" t="s" s="2">
@@ -41714,10 +41725,10 @@
         <v>151</v>
       </c>
       <c r="Z348" t="s" s="2">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="AA348" t="s" s="2">
-        <v>1337</v>
+        <v>1362</v>
       </c>
       <c r="AB348" t="s" s="2">
         <v>73</v>
@@ -41755,10 +41766,10 @@
         <v>1243</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -41781,16 +41792,16 @@
         <v>82</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="O349" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="P349" s="2"/>
       <c r="Q349" t="s" s="2">
@@ -41840,7 +41851,7 @@
         <v>73</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>81</v>
@@ -41860,10 +41871,10 @@
         <v>1243</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -41886,16 +41897,16 @@
         <v>73</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="O350" t="s" s="2">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="P350" s="2"/>
       <c r="Q350" t="s" s="2">
@@ -41945,7 +41956,7 @@
         <v>73</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="AH350" t="s" s="2">
         <v>74</v>
@@ -41965,10 +41976,10 @@
         <v>1243</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -41994,10 +42005,10 @@
         <v>219</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="O351" s="2"/>
       <c r="P351" s="2"/>
@@ -42048,7 +42059,7 @@
         <v>73</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>74</v>
@@ -42068,10 +42079,10 @@
         <v>1243</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -42171,10 +42182,10 @@
         <v>1243</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -42276,10 +42287,10 @@
         <v>1243</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -42383,10 +42394,10 @@
         <v>1243</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -42412,10 +42423,10 @@
         <v>101</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="O355" s="2"/>
       <c r="P355" s="2"/>
@@ -42445,28 +42456,28 @@
         <v>144</v>
       </c>
       <c r="Z355" t="s" s="2">
+        <v>1386</v>
+      </c>
+      <c r="AA355" t="s" s="2">
+        <v>1387</v>
+      </c>
+      <c r="AB355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG355" t="s" s="2">
         <v>1383</v>
-      </c>
-      <c r="AA355" t="s" s="2">
-        <v>1384</v>
-      </c>
-      <c r="AB355" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC355" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD355" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE355" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF355" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG355" t="s" s="2">
-        <v>1380</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>81</v>
@@ -42486,10 +42497,10 @@
         <v>1243</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -42515,13 +42526,13 @@
         <v>398</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="O356" t="s" s="2">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="P356" s="2"/>
       <c r="Q356" t="s" s="2">
@@ -42571,7 +42582,7 @@
         <v>73</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>81</v>
@@ -42591,10 +42602,10 @@
         <v>1243</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -42620,13 +42631,13 @@
         <v>76</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="O357" t="s" s="2">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="P357" s="2"/>
       <c r="Q357" t="s" s="2">
@@ -42676,7 +42687,7 @@
         <v>73</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>74</v>
@@ -42696,10 +42707,10 @@
         <v>1243</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -42722,13 +42733,13 @@
         <v>73</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="O358" s="2"/>
       <c r="P358" s="2"/>
@@ -42779,7 +42790,7 @@
         <v>73</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>74</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -4177,7 +4177,7 @@
     <t>C-CDA author provenance and role value sets. See additional bindings</t>
   </si>
   <si>
-    <t>http://hl7.org/cda/stds/core/ValueSet/uscore-cda-role-code</t>
+    <t>http://hl7.org/cda/stds/core/ValueSet/CDARoleCode</t>
   </si>
   <si>
     <t>Provenance.agent.who</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13719" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15168" uniqueCount="1792">
   <si>
     <t>Property</t>
   </si>
@@ -5063,6 +5063,558 @@
   </si>
   <si>
     <t>A digital signature on the target Reference(s). The signer should match a Provenance.agent. The purpose of the signature is indicated.</t>
+  </si>
+  <si>
+    <t>us-core-servicerequest</t>
+  </si>
+  <si>
+    <t>http://www.fhir.org/guides/uscdi5-sandbox/StructureDefinition/us-core-servicerequest</t>
+  </si>
+  <si>
+    <t>USCoreServiceRequestProfile</t>
+  </si>
+  <si>
+    <t>US Core ServiceRequest Profile</t>
+  </si>
+  <si>
+    <t>The US Core ServiceRequest Profile inherits from the FHIR [ServiceRequest](https://hl7.org/fhir/R4/servicerequest.html) resource; refer to it for scope and usage definitions. This profile sets minimum expectations for recording, searching, and fetching the ServiceRequest information. It specifies which core elements, extensions, vocabularies, and value sets **SHALL** be present and constrains how the elements are used. Providing the floor for standards development for specific use cases promotes interoperability and adoption.</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest</t>
+  </si>
+  <si>
+    <t>diagnostic request
+referralreferral requesttransfer of care request</t>
+  </si>
+  <si>
+    <t>A request for a service to be performed</t>
+  </si>
+  <si>
+    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
+  </si>
+  <si>
+    <t>ServiceRequest.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.meta</t>
+  </si>
+  <si>
+    <t>ServiceRequest.implicitRules</t>
+  </si>
+  <si>
+    <t>ServiceRequest.language</t>
+  </si>
+  <si>
+    <t>ServiceRequest.text</t>
+  </si>
+  <si>
+    <t>ServiceRequest.contained</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesUri</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
+    <t>Composite Request ID</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+  </si>
+  <si>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>ServiceRequest.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>The kind of service request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category</t>
+  </si>
+  <si>
+    <t>Classification of service</t>
+  </si>
+  <si>
+    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what service request are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Classification of the requested service.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category:us-core</t>
+  </si>
+  <si>
+    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-servicerequest-category</t>
+  </si>
+  <si>
+    <t>ServiceRequest.priority</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>ServiceRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t>True if service/procedure should not be performed</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
+  </si>
+  <si>
+    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
+  </si>
+  <si>
+    <t>If missing, the request is a positive request e.g. "do perform"</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service requested
+</t>
+  </si>
+  <si>
+    <t>What is being requested/ordered</t>
+  </si>
+  <si>
+    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
+  </si>
+  <si>
+    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detailed instructions
+</t>
+  </si>
+  <si>
+    <t>Additional order information</t>
+  </si>
+  <si>
+    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
+  </si>
+  <si>
+    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
+  </si>
+  <si>
+    <t>Codified order entry details which are based on order context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prr-1
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.quantity[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+RatioRange</t>
+  </si>
+  <si>
+    <t>Service amount</t>
+  </si>
+  <si>
+    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
+  </si>
+  <si>
+    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|Group|http://hl7.org/fhir/us/core/StructureDefinition/us-core-location|Device)
+</t>
+  </si>
+  <si>
+    <t>Individual or Entity the service is ordered for</t>
+  </si>
+  <si>
+    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context
+</t>
+  </si>
+  <si>
+    <t>Encounter in which the request was created</t>
+  </si>
+  <si>
+    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule
+</t>
+  </si>
+  <si>
+    <t>Period
+dateTimeTiming</t>
+  </si>
+  <si>
+    <t>When service should occur</t>
+  </si>
+  <si>
+    <t>The date/time at which the requested service should occur.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>Preconditions for service</t>
+  </si>
+  <si>
+    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedOn
+</t>
+  </si>
+  <si>
+    <t>Date request signed</t>
+  </si>
+  <si>
+    <t>When the request transitioned to being actionable.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requester</t>
+  </si>
+  <si>
+    <t>author
+orderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|PractitionerRole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|Device)
+</t>
+  </si>
+  <si>
+    <t>Who/what is requesting service</t>
+  </si>
+  <si>
+    <t>The individual who initiated the request and has responsibility for its activation.</t>
+  </si>
+  <si>
+    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialty
+</t>
+  </si>
+  <si>
+    <t>Performer role</t>
+  </si>
+  <si>
+    <t>Desired type of performer for doing the requested service.</t>
+  </si>
+  <si>
+    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
+  </si>
+  <si>
+    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request recipient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Requested performer</t>
+  </si>
+  <si>
+    <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
+  </si>
+  <si>
+    <t>If multiple performers are present, it is interpreted as a list of *alternative* performers without any preference regardless of order.  If order of preference is needed use the [request-performerOrder extension](http://hl7.org/fhir/R4/extension-request-performerorder.html).  Use CareTeam to represent a group of performers (for example, Practitioner A *and* Practitioner B).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationCode</t>
+  </si>
+  <si>
+    <t>Requested location</t>
+  </si>
+  <si>
+    <t>The preferred location(s) where the procedure should actually happen in coded or free text form. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>A location type where services are delivered.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationReference</t>
+  </si>
+  <si>
+    <t>A reference to the the preferred location(s) where the procedure should actually happen. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode</t>
+  </si>
+  <si>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Explanation/Justification for procedure or service</t>
+  </si>
+  <si>
+    <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: US Core Profile that supports the requested service</t>
+  </si>
+  <si>
+    <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>ServiceRequest.insurance</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo</t>
+  </si>
+  <si>
+    <t>Ask at order entry question
+AOE</t>
+  </si>
+  <si>
+    <t>Additional clinical information</t>
+  </si>
+  <si>
+    <t>Additional clinical information about the patient or specimen that may influence the services or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
+  </si>
+  <si>
+    <t>To represent information about how the services are to be delivered use the `instructions` element.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.specimen</t>
+  </si>
+  <si>
+    <t>Procedure Samples</t>
+  </si>
+  <si>
+    <t>One or more specimens that the laboratory procedure will use.</t>
+  </si>
+  <si>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location
+</t>
+  </si>
+  <si>
+    <t>Location on Body</t>
+  </si>
+  <si>
+    <t>Anatomic location where the procedure should be performed. This is the target site.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in the code found in ServiceRequest.code.  If the use case requires BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [procedure-targetBodyStructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
+  </si>
+  <si>
+    <t>Knowing where the procedure is performed is important for tracking if multiple sites are possible.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note</t>
+  </si>
+  <si>
+    <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer-oriented instructions</t>
+  </si>
+  <si>
+    <t>ServiceRequest.relevantHistory</t>
+  </si>
+  <si>
+    <t>Request provenance</t>
+  </si>
+  <si>
+    <t>Key events in the history of the request.</t>
+  </si>
+  <si>
+    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important.+This SHALL NOT include the Provenance associated with this current version of the resource.  (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update.  Until then, it can be queried directly as the Provenance that points to this version using _revinclude+All Provenances should have some historical version of this Request as their subject.</t>
   </si>
 </sst>
 </file>
@@ -5196,7 +5748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6188,6 +6740,168 @@
         <v>38</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6195,7 +6909,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK409"/>
+  <dimension ref="A1:AK452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6208,7 +6922,7 @@
     <col min="2" max="2" width="62.16015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="62.16015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="22.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="44.00390625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -49082,6 +49796,4503 @@
         <v>94</v>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B410" t="s" s="2">
+        <v>1622</v>
+      </c>
+      <c r="C410" t="s" s="2">
+        <v>1622</v>
+      </c>
+      <c r="D410" s="2"/>
+      <c r="E410" t="s" s="2">
+        <v>1624</v>
+      </c>
+      <c r="F410" s="2"/>
+      <c r="G410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H410" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="L410" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M410" t="s" s="2">
+        <v>1625</v>
+      </c>
+      <c r="N410" t="s" s="2">
+        <v>1626</v>
+      </c>
+      <c r="O410" s="2"/>
+      <c r="P410" s="2"/>
+      <c r="Q410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R410" s="2"/>
+      <c r="S410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG410" t="s" s="2">
+        <v>1622</v>
+      </c>
+      <c r="AH410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI410" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ410" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK410" t="s" s="2">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B411" t="s" s="2">
+        <v>1628</v>
+      </c>
+      <c r="C411" t="s" s="2">
+        <v>1628</v>
+      </c>
+      <c r="D411" s="2"/>
+      <c r="E411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F411" s="2"/>
+      <c r="G411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H411" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K411" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L411" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M411" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N411" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O411" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="P411" s="2"/>
+      <c r="Q411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R411" s="2"/>
+      <c r="S411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG411" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI411" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ411" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK411" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B412" t="s" s="2">
+        <v>1629</v>
+      </c>
+      <c r="C412" t="s" s="2">
+        <v>1629</v>
+      </c>
+      <c r="D412" s="2"/>
+      <c r="E412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F412" s="2"/>
+      <c r="G412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H412" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K412" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L412" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M412" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N412" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O412" s="2"/>
+      <c r="P412" s="2"/>
+      <c r="Q412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R412" s="2"/>
+      <c r="S412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG412" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI412" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ412" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK412" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B413" t="s" s="2">
+        <v>1630</v>
+      </c>
+      <c r="C413" t="s" s="2">
+        <v>1630</v>
+      </c>
+      <c r="D413" s="2"/>
+      <c r="E413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F413" s="2"/>
+      <c r="G413" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H413" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J413" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K413" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L413" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M413" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N413" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O413" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P413" s="2"/>
+      <c r="Q413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R413" s="2"/>
+      <c r="S413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG413" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH413" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI413" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ413" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK413" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B414" t="s" s="2">
+        <v>1631</v>
+      </c>
+      <c r="C414" t="s" s="2">
+        <v>1631</v>
+      </c>
+      <c r="D414" s="2"/>
+      <c r="E414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F414" s="2"/>
+      <c r="G414" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H414" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="L414" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M414" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N414" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O414" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="P414" s="2"/>
+      <c r="Q414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R414" s="2"/>
+      <c r="S414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y414" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z414" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AA414" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AB414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG414" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AH414" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI414" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ414" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK414" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B415" t="s" s="2">
+        <v>1632</v>
+      </c>
+      <c r="C415" t="s" s="2">
+        <v>1632</v>
+      </c>
+      <c r="D415" s="2"/>
+      <c r="E415" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="F415" s="2"/>
+      <c r="G415" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H415" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="L415" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M415" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N415" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O415" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="P415" s="2"/>
+      <c r="Q415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R415" s="2"/>
+      <c r="S415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG415" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AH415" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI415" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ415" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK415" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B416" t="s" s="2">
+        <v>1633</v>
+      </c>
+      <c r="C416" t="s" s="2">
+        <v>1633</v>
+      </c>
+      <c r="D416" s="2"/>
+      <c r="E416" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F416" s="2"/>
+      <c r="G416" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H416" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="L416" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M416" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N416" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O416" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="P416" s="2"/>
+      <c r="Q416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R416" s="2"/>
+      <c r="S416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG416" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH416" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI416" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ416" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK416" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B417" t="s" s="2">
+        <v>1634</v>
+      </c>
+      <c r="C417" t="s" s="2">
+        <v>1634</v>
+      </c>
+      <c r="D417" s="2"/>
+      <c r="E417" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F417" s="2"/>
+      <c r="G417" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H417" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="L417" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M417" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N417" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O417" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P417" s="2"/>
+      <c r="Q417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R417" s="2"/>
+      <c r="S417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG417" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AH417" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI417" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ417" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK417" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B418" t="s" s="2">
+        <v>1635</v>
+      </c>
+      <c r="C418" t="s" s="2">
+        <v>1635</v>
+      </c>
+      <c r="D418" s="2"/>
+      <c r="E418" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F418" s="2"/>
+      <c r="G418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H418" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J418" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="L418" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M418" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N418" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O418" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P418" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R418" s="2"/>
+      <c r="S418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG418" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AH418" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI418" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ418" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK418" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B419" t="s" s="2">
+        <v>1636</v>
+      </c>
+      <c r="C419" t="s" s="2">
+        <v>1636</v>
+      </c>
+      <c r="D419" s="2"/>
+      <c r="E419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F419" s="2"/>
+      <c r="G419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H419" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K419" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L419" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M419" t="s" s="2">
+        <v>1637</v>
+      </c>
+      <c r="N419" t="s" s="2">
+        <v>1638</v>
+      </c>
+      <c r="O419" t="s" s="2">
+        <v>1639</v>
+      </c>
+      <c r="P419" s="2"/>
+      <c r="Q419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R419" s="2"/>
+      <c r="S419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG419" t="s" s="2">
+        <v>1636</v>
+      </c>
+      <c r="AH419" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI419" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ419" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK419" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B420" t="s" s="2">
+        <v>1640</v>
+      </c>
+      <c r="C420" t="s" s="2">
+        <v>1640</v>
+      </c>
+      <c r="D420" s="2"/>
+      <c r="E420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F420" s="2"/>
+      <c r="G420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H420" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K420" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L420" t="s" s="2">
+        <v>1641</v>
+      </c>
+      <c r="M420" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="N420" t="s" s="2">
+        <v>1642</v>
+      </c>
+      <c r="O420" t="s" s="2">
+        <v>1643</v>
+      </c>
+      <c r="P420" s="2"/>
+      <c r="Q420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R420" s="2"/>
+      <c r="S420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG420" t="s" s="2">
+        <v>1640</v>
+      </c>
+      <c r="AH420" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI420" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ420" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK420" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B421" t="s" s="2">
+        <v>1644</v>
+      </c>
+      <c r="C421" t="s" s="2">
+        <v>1644</v>
+      </c>
+      <c r="D421" s="2"/>
+      <c r="E421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F421" s="2"/>
+      <c r="G421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H421" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K421" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L421" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M421" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="N421" t="s" s="2">
+        <v>1645</v>
+      </c>
+      <c r="O421" t="s" s="2">
+        <v>1646</v>
+      </c>
+      <c r="P421" s="2"/>
+      <c r="Q421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R421" s="2"/>
+      <c r="S421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG421" t="s" s="2">
+        <v>1644</v>
+      </c>
+      <c r="AH421" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI421" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ421" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK421" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B422" t="s" s="2">
+        <v>1647</v>
+      </c>
+      <c r="C422" t="s" s="2">
+        <v>1647</v>
+      </c>
+      <c r="D422" s="2"/>
+      <c r="E422" t="s" s="2">
+        <v>1648</v>
+      </c>
+      <c r="F422" s="2"/>
+      <c r="G422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K422" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L422" t="s" s="2">
+        <v>1649</v>
+      </c>
+      <c r="M422" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="N422" t="s" s="2">
+        <v>1650</v>
+      </c>
+      <c r="O422" s="2"/>
+      <c r="P422" s="2"/>
+      <c r="Q422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R422" s="2"/>
+      <c r="S422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG422" t="s" s="2">
+        <v>1647</v>
+      </c>
+      <c r="AH422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ422" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK422" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B423" t="s" s="2">
+        <v>1651</v>
+      </c>
+      <c r="C423" t="s" s="2">
+        <v>1651</v>
+      </c>
+      <c r="D423" s="2"/>
+      <c r="E423" t="s" s="2">
+        <v>1652</v>
+      </c>
+      <c r="F423" s="2"/>
+      <c r="G423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K423" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L423" t="s" s="2">
+        <v>1653</v>
+      </c>
+      <c r="M423" t="s" s="2">
+        <v>1654</v>
+      </c>
+      <c r="N423" t="s" s="2">
+        <v>1655</v>
+      </c>
+      <c r="O423" s="2"/>
+      <c r="P423" s="2"/>
+      <c r="Q423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R423" s="2"/>
+      <c r="S423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG423" t="s" s="2">
+        <v>1651</v>
+      </c>
+      <c r="AH423" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ423" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK423" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B424" t="s" s="2">
+        <v>1656</v>
+      </c>
+      <c r="C424" t="s" s="2">
+        <v>1656</v>
+      </c>
+      <c r="D424" s="2"/>
+      <c r="E424" t="s" s="2">
+        <v>1657</v>
+      </c>
+      <c r="F424" s="2"/>
+      <c r="G424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H424" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K424" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L424" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M424" t="s" s="2">
+        <v>1658</v>
+      </c>
+      <c r="N424" t="s" s="2">
+        <v>1659</v>
+      </c>
+      <c r="O424" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="P424" t="s" s="2">
+        <v>1660</v>
+      </c>
+      <c r="Q424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R424" s="2"/>
+      <c r="S424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG424" t="s" s="2">
+        <v>1656</v>
+      </c>
+      <c r="AH424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI424" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ424" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK424" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B425" t="s" s="2">
+        <v>1661</v>
+      </c>
+      <c r="C425" t="s" s="2">
+        <v>1661</v>
+      </c>
+      <c r="D425" s="2"/>
+      <c r="E425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F425" s="2"/>
+      <c r="G425" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H425" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I425" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J425" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K425" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L425" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M425" t="s" s="2">
+        <v>1662</v>
+      </c>
+      <c r="N425" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="O425" t="s" s="2">
+        <v>1664</v>
+      </c>
+      <c r="P425" s="2"/>
+      <c r="Q425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R425" s="2"/>
+      <c r="S425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y425" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Z425" t="s" s="2">
+        <v>1665</v>
+      </c>
+      <c r="AA425" t="s" s="2">
+        <v>1666</v>
+      </c>
+      <c r="AB425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG425" t="s" s="2">
+        <v>1661</v>
+      </c>
+      <c r="AH425" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI425" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ425" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK425" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B426" t="s" s="2">
+        <v>1667</v>
+      </c>
+      <c r="C426" t="s" s="2">
+        <v>1667</v>
+      </c>
+      <c r="D426" s="2"/>
+      <c r="E426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F426" s="2"/>
+      <c r="G426" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H426" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I426" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J426" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K426" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L426" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M426" t="s" s="2">
+        <v>1668</v>
+      </c>
+      <c r="N426" t="s" s="2">
+        <v>1669</v>
+      </c>
+      <c r="O426" t="s" s="2">
+        <v>1670</v>
+      </c>
+      <c r="P426" s="2"/>
+      <c r="Q426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R426" s="2"/>
+      <c r="S426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y426" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Z426" t="s" s="2">
+        <v>1671</v>
+      </c>
+      <c r="AA426" t="s" s="2">
+        <v>1672</v>
+      </c>
+      <c r="AB426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG426" t="s" s="2">
+        <v>1667</v>
+      </c>
+      <c r="AH426" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI426" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ426" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK426" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B427" t="s" s="2">
+        <v>1673</v>
+      </c>
+      <c r="C427" t="s" s="2">
+        <v>1673</v>
+      </c>
+      <c r="D427" s="2"/>
+      <c r="E427" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F427" s="2"/>
+      <c r="G427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I427" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J427" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K427" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L427" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M427" t="s" s="2">
+        <v>1674</v>
+      </c>
+      <c r="N427" t="s" s="2">
+        <v>1675</v>
+      </c>
+      <c r="O427" t="s" s="2">
+        <v>1676</v>
+      </c>
+      <c r="P427" t="s" s="2">
+        <v>1677</v>
+      </c>
+      <c r="Q427" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R427" s="2"/>
+      <c r="S427" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T427" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U427" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V427" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W427" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X427" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y427" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z427" t="s" s="2">
+        <v>1678</v>
+      </c>
+      <c r="AA427" t="s" s="2">
+        <v>1679</v>
+      </c>
+      <c r="AB427" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC427" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AD427" s="2"/>
+      <c r="AE427" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF427" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG427" t="s" s="2">
+        <v>1673</v>
+      </c>
+      <c r="AH427" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ427" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK427" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B428" t="s" s="2">
+        <v>1680</v>
+      </c>
+      <c r="C428" t="s" s="2">
+        <v>1673</v>
+      </c>
+      <c r="D428" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="E428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F428" s="2"/>
+      <c r="G428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I428" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K428" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L428" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M428" t="s" s="2">
+        <v>1674</v>
+      </c>
+      <c r="N428" t="s" s="2">
+        <v>1675</v>
+      </c>
+      <c r="O428" t="s" s="2">
+        <v>1676</v>
+      </c>
+      <c r="P428" t="s" s="2">
+        <v>1677</v>
+      </c>
+      <c r="Q428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R428" s="2"/>
+      <c r="S428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y428" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Z428" t="s" s="2">
+        <v>1681</v>
+      </c>
+      <c r="AA428" t="s" s="2">
+        <v>1682</v>
+      </c>
+      <c r="AB428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG428" t="s" s="2">
+        <v>1673</v>
+      </c>
+      <c r="AH428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ428" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK428" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B429" t="s" s="2">
+        <v>1683</v>
+      </c>
+      <c r="C429" t="s" s="2">
+        <v>1683</v>
+      </c>
+      <c r="D429" s="2"/>
+      <c r="E429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F429" s="2"/>
+      <c r="G429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H429" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K429" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L429" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M429" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="N429" t="s" s="2">
+        <v>1684</v>
+      </c>
+      <c r="O429" s="2"/>
+      <c r="P429" s="2"/>
+      <c r="Q429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R429" t="s" s="2">
+        <v>1685</v>
+      </c>
+      <c r="S429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y429" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Z429" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AA429" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AB429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG429" t="s" s="2">
+        <v>1683</v>
+      </c>
+      <c r="AH429" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI429" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ429" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK429" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B430" t="s" s="2">
+        <v>1686</v>
+      </c>
+      <c r="C430" t="s" s="2">
+        <v>1686</v>
+      </c>
+      <c r="D430" s="2"/>
+      <c r="E430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F430" s="2"/>
+      <c r="G430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H430" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J430" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K430" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L430" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M430" t="s" s="2">
+        <v>1687</v>
+      </c>
+      <c r="N430" t="s" s="2">
+        <v>1688</v>
+      </c>
+      <c r="O430" t="s" s="2">
+        <v>1689</v>
+      </c>
+      <c r="P430" t="s" s="2">
+        <v>1690</v>
+      </c>
+      <c r="Q430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R430" t="s" s="2">
+        <v>1691</v>
+      </c>
+      <c r="S430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG430" t="s" s="2">
+        <v>1686</v>
+      </c>
+      <c r="AH430" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI430" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ430" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK430" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B431" t="s" s="2">
+        <v>1692</v>
+      </c>
+      <c r="C431" t="s" s="2">
+        <v>1692</v>
+      </c>
+      <c r="D431" s="2"/>
+      <c r="E431" t="s" s="2">
+        <v>1693</v>
+      </c>
+      <c r="F431" s="2"/>
+      <c r="G431" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H431" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I431" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K431" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L431" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M431" t="s" s="2">
+        <v>1694</v>
+      </c>
+      <c r="N431" t="s" s="2">
+        <v>1695</v>
+      </c>
+      <c r="O431" t="s" s="2">
+        <v>1696</v>
+      </c>
+      <c r="P431" s="2"/>
+      <c r="Q431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R431" s="2"/>
+      <c r="S431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y431" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Z431" s="2"/>
+      <c r="AA431" t="s" s="2">
+        <v>1697</v>
+      </c>
+      <c r="AB431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG431" t="s" s="2">
+        <v>1692</v>
+      </c>
+      <c r="AH431" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI431" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ431" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK431" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B432" t="s" s="2">
+        <v>1698</v>
+      </c>
+      <c r="C432" t="s" s="2">
+        <v>1698</v>
+      </c>
+      <c r="D432" s="2"/>
+      <c r="E432" t="s" s="2">
+        <v>1699</v>
+      </c>
+      <c r="F432" s="2"/>
+      <c r="G432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K432" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L432" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M432" t="s" s="2">
+        <v>1700</v>
+      </c>
+      <c r="N432" t="s" s="2">
+        <v>1701</v>
+      </c>
+      <c r="O432" t="s" s="2">
+        <v>1702</v>
+      </c>
+      <c r="P432" s="2"/>
+      <c r="Q432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R432" s="2"/>
+      <c r="S432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y432" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z432" t="s" s="2">
+        <v>1703</v>
+      </c>
+      <c r="AA432" t="s" s="2">
+        <v>1704</v>
+      </c>
+      <c r="AB432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF432" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG432" t="s" s="2">
+        <v>1698</v>
+      </c>
+      <c r="AH432" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ432" t="s" s="2">
+        <v>1705</v>
+      </c>
+      <c r="AK432" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B433" t="s" s="2">
+        <v>1706</v>
+      </c>
+      <c r="C433" t="s" s="2">
+        <v>1706</v>
+      </c>
+      <c r="D433" s="2"/>
+      <c r="E433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F433" s="2"/>
+      <c r="G433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H433" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K433" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L433" t="s" s="2">
+        <v>1707</v>
+      </c>
+      <c r="M433" t="s" s="2">
+        <v>1708</v>
+      </c>
+      <c r="N433" t="s" s="2">
+        <v>1709</v>
+      </c>
+      <c r="O433" s="2"/>
+      <c r="P433" t="s" s="2">
+        <v>1710</v>
+      </c>
+      <c r="Q433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R433" s="2"/>
+      <c r="S433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG433" t="s" s="2">
+        <v>1706</v>
+      </c>
+      <c r="AH433" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI433" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ433" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK433" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B434" t="s" s="2">
+        <v>1711</v>
+      </c>
+      <c r="C434" t="s" s="2">
+        <v>1711</v>
+      </c>
+      <c r="D434" s="2"/>
+      <c r="E434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F434" s="2"/>
+      <c r="G434" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H434" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I434" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K434" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L434" t="s" s="2">
+        <v>1712</v>
+      </c>
+      <c r="M434" t="s" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N434" t="s" s="2">
+        <v>1714</v>
+      </c>
+      <c r="O434" s="2"/>
+      <c r="P434" s="2"/>
+      <c r="Q434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R434" s="2"/>
+      <c r="S434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG434" t="s" s="2">
+        <v>1711</v>
+      </c>
+      <c r="AH434" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI434" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ434" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK434" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B435" t="s" s="2">
+        <v>1715</v>
+      </c>
+      <c r="C435" t="s" s="2">
+        <v>1715</v>
+      </c>
+      <c r="D435" s="2"/>
+      <c r="E435" t="s" s="2">
+        <v>1716</v>
+      </c>
+      <c r="F435" s="2"/>
+      <c r="G435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H435" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I435" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K435" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L435" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M435" t="s" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N435" t="s" s="2">
+        <v>1718</v>
+      </c>
+      <c r="O435" s="2"/>
+      <c r="P435" s="2"/>
+      <c r="Q435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R435" s="2"/>
+      <c r="S435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG435" t="s" s="2">
+        <v>1715</v>
+      </c>
+      <c r="AH435" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI435" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ435" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK435" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B436" t="s" s="2">
+        <v>1719</v>
+      </c>
+      <c r="C436" t="s" s="2">
+        <v>1719</v>
+      </c>
+      <c r="D436" s="2"/>
+      <c r="E436" t="s" s="2">
+        <v>1720</v>
+      </c>
+      <c r="F436" s="2"/>
+      <c r="G436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H436" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I436" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K436" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L436" t="s" s="2">
+        <v>1721</v>
+      </c>
+      <c r="M436" t="s" s="2">
+        <v>1722</v>
+      </c>
+      <c r="N436" t="s" s="2">
+        <v>1723</v>
+      </c>
+      <c r="O436" s="2"/>
+      <c r="P436" s="2"/>
+      <c r="Q436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R436" s="2"/>
+      <c r="S436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG436" t="s" s="2">
+        <v>1719</v>
+      </c>
+      <c r="AH436" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI436" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ436" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK436" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B437" t="s" s="2">
+        <v>1724</v>
+      </c>
+      <c r="C437" t="s" s="2">
+        <v>1724</v>
+      </c>
+      <c r="D437" s="2"/>
+      <c r="E437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F437" s="2"/>
+      <c r="G437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H437" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K437" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L437" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M437" t="s" s="2">
+        <v>1725</v>
+      </c>
+      <c r="N437" t="s" s="2">
+        <v>1726</v>
+      </c>
+      <c r="O437" s="2"/>
+      <c r="P437" s="2"/>
+      <c r="Q437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R437" s="2"/>
+      <c r="S437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y437" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z437" t="s" s="2">
+        <v>1727</v>
+      </c>
+      <c r="AA437" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AB437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG437" t="s" s="2">
+        <v>1724</v>
+      </c>
+      <c r="AH437" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI437" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ437" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK437" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B438" t="s" s="2">
+        <v>1728</v>
+      </c>
+      <c r="C438" t="s" s="2">
+        <v>1728</v>
+      </c>
+      <c r="D438" s="2"/>
+      <c r="E438" t="s" s="2">
+        <v>1729</v>
+      </c>
+      <c r="F438" s="2"/>
+      <c r="G438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H438" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I438" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K438" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L438" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M438" t="s" s="2">
+        <v>1730</v>
+      </c>
+      <c r="N438" t="s" s="2">
+        <v>1731</v>
+      </c>
+      <c r="O438" s="2"/>
+      <c r="P438" s="2"/>
+      <c r="Q438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R438" s="2"/>
+      <c r="S438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG438" t="s" s="2">
+        <v>1728</v>
+      </c>
+      <c r="AH438" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI438" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ438" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK438" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B439" t="s" s="2">
+        <v>1732</v>
+      </c>
+      <c r="C439" t="s" s="2">
+        <v>1732</v>
+      </c>
+      <c r="D439" s="2"/>
+      <c r="E439" t="s" s="2">
+        <v>1733</v>
+      </c>
+      <c r="F439" s="2"/>
+      <c r="G439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H439" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I439" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K439" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L439" t="s" s="2">
+        <v>1734</v>
+      </c>
+      <c r="M439" t="s" s="2">
+        <v>1735</v>
+      </c>
+      <c r="N439" t="s" s="2">
+        <v>1736</v>
+      </c>
+      <c r="O439" t="s" s="2">
+        <v>1737</v>
+      </c>
+      <c r="P439" s="2"/>
+      <c r="Q439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R439" s="2"/>
+      <c r="S439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG439" t="s" s="2">
+        <v>1732</v>
+      </c>
+      <c r="AH439" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI439" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ439" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK439" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B440" t="s" s="2">
+        <v>1738</v>
+      </c>
+      <c r="C440" t="s" s="2">
+        <v>1738</v>
+      </c>
+      <c r="D440" s="2"/>
+      <c r="E440" t="s" s="2">
+        <v>1739</v>
+      </c>
+      <c r="F440" s="2"/>
+      <c r="G440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H440" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K440" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L440" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M440" t="s" s="2">
+        <v>1740</v>
+      </c>
+      <c r="N440" t="s" s="2">
+        <v>1741</v>
+      </c>
+      <c r="O440" t="s" s="2">
+        <v>1742</v>
+      </c>
+      <c r="P440" s="2"/>
+      <c r="Q440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R440" s="2"/>
+      <c r="S440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y440" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z440" t="s" s="2">
+        <v>1743</v>
+      </c>
+      <c r="AA440" t="s" s="2">
+        <v>1744</v>
+      </c>
+      <c r="AB440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG440" t="s" s="2">
+        <v>1738</v>
+      </c>
+      <c r="AH440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI440" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ440" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK440" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B441" t="s" s="2">
+        <v>1745</v>
+      </c>
+      <c r="C441" t="s" s="2">
+        <v>1745</v>
+      </c>
+      <c r="D441" s="2"/>
+      <c r="E441" t="s" s="2">
+        <v>1746</v>
+      </c>
+      <c r="F441" s="2"/>
+      <c r="G441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K441" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L441" t="s" s="2">
+        <v>1747</v>
+      </c>
+      <c r="M441" t="s" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N441" t="s" s="2">
+        <v>1749</v>
+      </c>
+      <c r="O441" t="s" s="2">
+        <v>1750</v>
+      </c>
+      <c r="P441" s="2"/>
+      <c r="Q441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R441" s="2"/>
+      <c r="S441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG441" t="s" s="2">
+        <v>1745</v>
+      </c>
+      <c r="AH441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ441" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK441" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B442" t="s" s="2">
+        <v>1751</v>
+      </c>
+      <c r="C442" t="s" s="2">
+        <v>1751</v>
+      </c>
+      <c r="D442" s="2"/>
+      <c r="E442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F442" s="2"/>
+      <c r="G442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K442" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L442" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M442" t="s" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N442" t="s" s="2">
+        <v>1753</v>
+      </c>
+      <c r="O442" s="2"/>
+      <c r="P442" s="2"/>
+      <c r="Q442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R442" s="2"/>
+      <c r="S442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y442" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z442" t="s" s="2">
+        <v>1754</v>
+      </c>
+      <c r="AA442" t="s" s="2">
+        <v>1755</v>
+      </c>
+      <c r="AB442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG442" t="s" s="2">
+        <v>1751</v>
+      </c>
+      <c r="AH442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ442" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK442" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B443" t="s" s="2">
+        <v>1756</v>
+      </c>
+      <c r="C443" t="s" s="2">
+        <v>1756</v>
+      </c>
+      <c r="D443" s="2"/>
+      <c r="E443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F443" s="2"/>
+      <c r="G443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K443" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L443" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M443" t="s" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N443" t="s" s="2">
+        <v>1757</v>
+      </c>
+      <c r="O443" s="2"/>
+      <c r="P443" s="2"/>
+      <c r="Q443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R443" s="2"/>
+      <c r="S443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG443" t="s" s="2">
+        <v>1756</v>
+      </c>
+      <c r="AH443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ443" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK443" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B444" t="s" s="2">
+        <v>1758</v>
+      </c>
+      <c r="C444" t="s" s="2">
+        <v>1758</v>
+      </c>
+      <c r="D444" s="2"/>
+      <c r="E444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F444" s="2"/>
+      <c r="G444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K444" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L444" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M444" t="s" s="2">
+        <v>1759</v>
+      </c>
+      <c r="N444" t="s" s="2">
+        <v>1760</v>
+      </c>
+      <c r="O444" t="s" s="2">
+        <v>1761</v>
+      </c>
+      <c r="P444" s="2"/>
+      <c r="Q444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R444" s="2"/>
+      <c r="S444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y444" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Z444" s="2"/>
+      <c r="AA444" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AB444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG444" t="s" s="2">
+        <v>1758</v>
+      </c>
+      <c r="AH444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ444" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK444" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B445" t="s" s="2">
+        <v>1762</v>
+      </c>
+      <c r="C445" t="s" s="2">
+        <v>1762</v>
+      </c>
+      <c r="D445" s="2"/>
+      <c r="E445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F445" s="2"/>
+      <c r="G445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K445" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L445" t="s" s="2">
+        <v>1763</v>
+      </c>
+      <c r="M445" t="s" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N445" t="s" s="2">
+        <v>1765</v>
+      </c>
+      <c r="O445" t="s" s="2">
+        <v>1766</v>
+      </c>
+      <c r="P445" s="2"/>
+      <c r="Q445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R445" s="2"/>
+      <c r="S445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG445" t="s" s="2">
+        <v>1762</v>
+      </c>
+      <c r="AH445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ445" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK445" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B446" t="s" s="2">
+        <v>1767</v>
+      </c>
+      <c r="C446" t="s" s="2">
+        <v>1767</v>
+      </c>
+      <c r="D446" s="2"/>
+      <c r="E446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F446" s="2"/>
+      <c r="G446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="L446" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="M446" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="N446" t="s" s="2">
+        <v>1768</v>
+      </c>
+      <c r="O446" s="2"/>
+      <c r="P446" s="2"/>
+      <c r="Q446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R446" s="2"/>
+      <c r="S446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG446" t="s" s="2">
+        <v>1767</v>
+      </c>
+      <c r="AH446" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ446" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK446" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B447" t="s" s="2">
+        <v>1769</v>
+      </c>
+      <c r="C447" t="s" s="2">
+        <v>1769</v>
+      </c>
+      <c r="D447" s="2"/>
+      <c r="E447" t="s" s="2">
+        <v>1770</v>
+      </c>
+      <c r="F447" s="2"/>
+      <c r="G447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="L447" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M447" t="s" s="2">
+        <v>1771</v>
+      </c>
+      <c r="N447" t="s" s="2">
+        <v>1772</v>
+      </c>
+      <c r="O447" t="s" s="2">
+        <v>1773</v>
+      </c>
+      <c r="P447" s="2"/>
+      <c r="Q447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R447" s="2"/>
+      <c r="S447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG447" t="s" s="2">
+        <v>1769</v>
+      </c>
+      <c r="AH447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ447" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK447" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B448" t="s" s="2">
+        <v>1774</v>
+      </c>
+      <c r="C448" t="s" s="2">
+        <v>1774</v>
+      </c>
+      <c r="D448" s="2"/>
+      <c r="E448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F448" s="2"/>
+      <c r="G448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K448" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L448" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="M448" t="s" s="2">
+        <v>1775</v>
+      </c>
+      <c r="N448" t="s" s="2">
+        <v>1776</v>
+      </c>
+      <c r="O448" t="s" s="2">
+        <v>1777</v>
+      </c>
+      <c r="P448" s="2"/>
+      <c r="Q448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R448" s="2"/>
+      <c r="S448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG448" t="s" s="2">
+        <v>1774</v>
+      </c>
+      <c r="AH448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ448" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK448" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B449" t="s" s="2">
+        <v>1778</v>
+      </c>
+      <c r="C449" t="s" s="2">
+        <v>1778</v>
+      </c>
+      <c r="D449" s="2"/>
+      <c r="E449" t="s" s="2">
+        <v>1779</v>
+      </c>
+      <c r="F449" s="2"/>
+      <c r="G449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K449" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L449" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M449" t="s" s="2">
+        <v>1780</v>
+      </c>
+      <c r="N449" t="s" s="2">
+        <v>1781</v>
+      </c>
+      <c r="O449" t="s" s="2">
+        <v>1782</v>
+      </c>
+      <c r="P449" t="s" s="2">
+        <v>1783</v>
+      </c>
+      <c r="Q449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R449" s="2"/>
+      <c r="S449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y449" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z449" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="AA449" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="AB449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG449" t="s" s="2">
+        <v>1778</v>
+      </c>
+      <c r="AH449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ449" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK449" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B450" t="s" s="2">
+        <v>1784</v>
+      </c>
+      <c r="C450" t="s" s="2">
+        <v>1784</v>
+      </c>
+      <c r="D450" s="2"/>
+      <c r="E450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F450" s="2"/>
+      <c r="G450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="L450" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M450" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="N450" t="s" s="2">
+        <v>1785</v>
+      </c>
+      <c r="O450" s="2"/>
+      <c r="P450" s="2"/>
+      <c r="Q450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R450" s="2"/>
+      <c r="S450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG450" t="s" s="2">
+        <v>1784</v>
+      </c>
+      <c r="AH450" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ450" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK450" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B451" t="s" s="2">
+        <v>1786</v>
+      </c>
+      <c r="C451" t="s" s="2">
+        <v>1786</v>
+      </c>
+      <c r="D451" s="2"/>
+      <c r="E451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F451" s="2"/>
+      <c r="G451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H451" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K451" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L451" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M451" t="s" s="2">
+        <v>1787</v>
+      </c>
+      <c r="N451" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O451" s="2"/>
+      <c r="P451" s="2"/>
+      <c r="Q451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R451" s="2"/>
+      <c r="S451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG451" t="s" s="2">
+        <v>1786</v>
+      </c>
+      <c r="AH451" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI451" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ451" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK451" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="B452" t="s" s="2">
+        <v>1788</v>
+      </c>
+      <c r="C452" t="s" s="2">
+        <v>1788</v>
+      </c>
+      <c r="D452" s="2"/>
+      <c r="E452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F452" s="2"/>
+      <c r="G452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="L452" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M452" t="s" s="2">
+        <v>1789</v>
+      </c>
+      <c r="N452" t="s" s="2">
+        <v>1790</v>
+      </c>
+      <c r="O452" t="s" s="2">
+        <v>1791</v>
+      </c>
+      <c r="P452" s="2"/>
+      <c r="Q452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="R452" s="2"/>
+      <c r="S452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="U452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="V452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="W452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="X452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG452" t="s" s="2">
+        <v>1788</v>
+      </c>
+      <c r="AH452" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ452" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK452" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -2895,10 +2895,10 @@
     <t>Clinically relevant time/time-period for observation</t>
   </si>
   <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g., human patients - this is usually called the "physiologically relevant time".</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.</t>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -2911,7 +2911,7 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available</t>
+    <t>Date/Time this reviewed and verified observation was made available</t>
   </si>
   <si>
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
@@ -2923,11 +2923,11 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|PractitionerRole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson)
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation</t>
+    <t>Who reviewed and verified the observation</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -2951,10 +2951,10 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>ADI documentation types</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-adi-finding</t>
+    <t>Advance Healthcare Directive Categories Grouper</t>
+  </si>
+  <si>
+    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1115.25</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -31380,7 +31380,7 @@
         <v>85</v>
       </c>
       <c r="I234" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J234" t="s" s="2">
         <v>77</v>
@@ -31487,7 +31487,7 @@
         <v>85</v>
       </c>
       <c r="I235" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J235" t="s" s="2">
         <v>77</v>
@@ -31592,7 +31592,7 @@
         <v>79</v>
       </c>
       <c r="I236" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J236" t="s" s="2">
         <v>77</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24357" uniqueCount="2359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24357" uniqueCount="2360">
   <si>
     <t>Property</t>
   </si>
@@ -5203,6 +5203,10 @@
   </si>
   <si>
     <t>Observation.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/uscdi5-sandbox/StructureDefinition/us-core-adi-documentreference|Resource)
+</t>
   </si>
   <si>
     <t>Reference to patient or provider authored ADI documents</t>
@@ -9107,7 +9111,7 @@
         <v>2</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="206">
@@ -9115,7 +9119,7 @@
         <v>4</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="207">
@@ -9131,7 +9135,7 @@
         <v>8</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="209">
@@ -9281,7 +9285,7 @@
         <v>2</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="228">
@@ -9289,7 +9293,7 @@
         <v>4</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="229">
@@ -9305,7 +9309,7 @@
         <v>8</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="231">
@@ -9313,7 +9317,7 @@
         <v>10</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="232">
@@ -9377,7 +9381,7 @@
         <v>25</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="240">
@@ -9415,7 +9419,7 @@
         <v>34</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="245">
@@ -9423,7 +9427,7 @@
         <v>36</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="246">
@@ -9455,7 +9459,7 @@
         <v>2</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="250">
@@ -9463,7 +9467,7 @@
         <v>4</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>2050</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="251">
@@ -9479,7 +9483,7 @@
         <v>8</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>2051</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="253">
@@ -9487,7 +9491,7 @@
         <v>10</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="254">
@@ -9549,7 +9553,7 @@
         <v>25</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="262">
@@ -9587,7 +9591,7 @@
         <v>34</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="267">
@@ -9595,7 +9599,7 @@
         <v>36</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="268">
@@ -9627,7 +9631,7 @@
         <v>2</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="272">
@@ -9635,7 +9639,7 @@
         <v>4</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="273">
@@ -9651,7 +9655,7 @@
         <v>8</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="275">
@@ -9659,7 +9663,7 @@
         <v>10</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>2188</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="276">
@@ -9721,7 +9725,7 @@
         <v>25</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>2189</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="284">
@@ -9759,7 +9763,7 @@
         <v>34</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>2190</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="289">
@@ -9767,7 +9771,7 @@
         <v>36</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="290">
@@ -55870,13 +55874,13 @@
         <v>77</v>
       </c>
       <c r="L441" t="s" s="2">
-        <v>1504</v>
+        <v>1675</v>
       </c>
       <c r="M441" t="s" s="2">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="N441" t="s" s="2">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="O441" s="2"/>
       <c r="P441" s="2"/>
@@ -55936,7 +55940,7 @@
         <v>86</v>
       </c>
       <c r="AJ441" t="s" s="2">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="AK441" t="s" s="2">
         <v>98</v>
@@ -56738,7 +56742,7 @@
         <v>77</v>
       </c>
       <c r="T449" t="s" s="2">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="U449" t="s" s="2">
         <v>77</v>
@@ -56933,7 +56937,7 @@
         <v>395</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="N451" t="s" s="2">
         <v>1506</v>
@@ -57252,7 +57256,7 @@
         <v>191</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="N454" t="s" s="2">
         <v>1523</v>
@@ -57357,13 +57361,13 @@
         <v>1526</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="N455" t="s" s="2">
         <v>1528</v>
       </c>
       <c r="O455" t="s" s="2">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="P455" t="s" s="2">
         <v>1529</v>
@@ -57501,7 +57505,7 @@
         <v>154</v>
       </c>
       <c r="Z456" t="s" s="2">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="AA456" t="s" s="2">
         <v>948</v>
@@ -60499,7 +60503,7 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>1446</v>
@@ -60604,7 +60608,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>1452</v>
@@ -60709,7 +60713,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>1453</v>
@@ -60812,7 +60816,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>1454</v>
@@ -60917,7 +60921,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>1455</v>
@@ -61022,7 +61026,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>1456</v>
@@ -61127,7 +61131,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>1457</v>
@@ -61232,7 +61236,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>1458</v>
@@ -61337,7 +61341,7 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>1459</v>
@@ -61444,7 +61448,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>1460</v>
@@ -61549,7 +61553,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>1464</v>
@@ -61654,7 +61658,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>1470</v>
@@ -61759,7 +61763,7 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>1476</v>
@@ -61866,7 +61870,7 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>1482</v>
@@ -61971,7 +61975,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>1489</v>
@@ -62080,7 +62084,7 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>1491</v>
@@ -62131,7 +62135,7 @@
         <v>77</v>
       </c>
       <c r="T500" t="s" s="2">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="U500" t="s" s="2">
         <v>77</v>
@@ -62187,7 +62191,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>1498</v>
@@ -62294,7 +62298,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>1503</v>
@@ -62326,7 +62330,7 @@
         <v>395</v>
       </c>
       <c r="M502" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="N502" t="s" s="2">
         <v>1506</v>
@@ -62399,7 +62403,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>1508</v>
@@ -62506,7 +62510,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>1514</v>
@@ -62613,7 +62617,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>1521</v>
@@ -62718,7 +62722,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>1525</v>
@@ -62823,7 +62827,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>1530</v>
@@ -62892,7 +62896,7 @@
         <v>154</v>
       </c>
       <c r="Z507" t="s" s="2">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="AA507" t="s" s="2">
         <v>948</v>
@@ -62930,7 +62934,7 @@
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>1537</v>
@@ -63037,7 +63041,7 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>1545</v>
@@ -63144,7 +63148,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>1553</v>
@@ -63251,7 +63255,7 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>1558</v>
@@ -63356,7 +63360,7 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>1564</v>
@@ -63463,7 +63467,7 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>1571</v>
@@ -63568,7 +63572,7 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>1576</v>
@@ -63673,7 +63677,7 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>1581</v>
@@ -63780,7 +63784,7 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>1587</v>
@@ -63883,7 +63887,7 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>1588</v>
@@ -63988,7 +63992,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>1589</v>
@@ -64095,7 +64099,7 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>1590</v>
@@ -64198,7 +64202,7 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>1594</v>
@@ -64301,7 +64305,7 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>1597</v>
@@ -64408,7 +64412,7 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>1604</v>
@@ -64515,7 +64519,7 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>1611</v>
@@ -64620,7 +64624,7 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>1616</v>
@@ -64723,7 +64727,7 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>1619</v>
@@ -64828,7 +64832,7 @@
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>1624</v>
@@ -64933,7 +64937,7 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>1629</v>
@@ -65040,7 +65044,7 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>1634</v>
@@ -65143,7 +65147,7 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>1635</v>
@@ -65248,7 +65252,7 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B530" t="s" s="2">
         <v>1636</v>
@@ -65355,7 +65359,7 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B531" t="s" s="2">
         <v>1637</v>
@@ -65462,7 +65466,7 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B532" t="s" s="2">
         <v>1643</v>
@@ -65569,7 +65573,7 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B533" t="s" s="2">
         <v>1647</v>
@@ -65676,7 +65680,7 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B534" t="s" s="2">
         <v>1651</v>
@@ -65783,7 +65787,7 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B535" t="s" s="2">
         <v>1652</v>
@@ -65890,17 +65894,17 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="F536" s="2"/>
       <c r="G536" t="s" s="2">
@@ -65922,10 +65926,10 @@
         <v>80</v>
       </c>
       <c r="M536" t="s" s="2">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="N536" t="s" s="2">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="O536" s="2"/>
       <c r="P536" s="2"/>
@@ -65976,7 +65980,7 @@
         <v>77</v>
       </c>
       <c r="AG536" t="s" s="2">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="AH536" t="s" s="2">
         <v>78</v>
@@ -65993,13 +65997,13 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -66098,13 +66102,13 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" t="s" s="2">
@@ -66201,13 +66205,13 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
@@ -66306,13 +66310,13 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -66411,13 +66415,13 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
@@ -66516,13 +66520,13 @@
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
@@ -66621,13 +66625,13 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -66722,16 +66726,16 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B544" t="s" s="2">
+        <v>1705</v>
+      </c>
+      <c r="C544" t="s" s="2">
         <v>1704</v>
       </c>
-      <c r="C544" t="s" s="2">
-        <v>1703</v>
-      </c>
       <c r="D544" t="s" s="2">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="E544" t="s" s="2">
         <v>77</v>
@@ -66753,13 +66757,13 @@
         <v>77</v>
       </c>
       <c r="L544" t="s" s="2">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="M544" t="s" s="2">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="N544" t="s" s="2">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="O544" s="2"/>
       <c r="P544" s="2"/>
@@ -66819,24 +66823,24 @@
         <v>79</v>
       </c>
       <c r="AJ544" t="s" s="2">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="AK544" t="s" s="2">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D545" t="s" s="2">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="E545" t="s" s="2">
         <v>77</v>
@@ -66858,13 +66862,13 @@
         <v>77</v>
       </c>
       <c r="L545" t="s" s="2">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="M545" t="s" s="2">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="N545" t="s" s="2">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="O545" s="2"/>
       <c r="P545" s="2"/>
@@ -66932,16 +66936,16 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D546" t="s" s="2">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E546" t="s" s="2">
         <v>77</v>
@@ -66963,13 +66967,13 @@
         <v>77</v>
       </c>
       <c r="L546" t="s" s="2">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="M546" t="s" s="2">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="N546" t="s" s="2">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="O546" s="2"/>
       <c r="P546" s="2"/>
@@ -67037,16 +67041,16 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D547" t="s" s="2">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="E547" t="s" s="2">
         <v>77</v>
@@ -67068,16 +67072,16 @@
         <v>77</v>
       </c>
       <c r="L547" t="s" s="2">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="M547" t="s" s="2">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="N547" t="s" s="2">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="O547" t="s" s="2">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="P547" s="2"/>
       <c r="Q547" t="s" s="2">
@@ -67144,16 +67148,16 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D548" t="s" s="2">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="E548" t="s" s="2">
         <v>77</v>
@@ -67175,13 +67179,13 @@
         <v>77</v>
       </c>
       <c r="L548" t="s" s="2">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="M548" t="s" s="2">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="N548" t="s" s="2">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="O548" s="2"/>
       <c r="P548" s="2"/>
@@ -67249,16 +67253,16 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D549" t="s" s="2">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="E549" t="s" s="2">
         <v>77</v>
@@ -67280,13 +67284,13 @@
         <v>77</v>
       </c>
       <c r="L549" t="s" s="2">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="M549" t="s" s="2">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="N549" t="s" s="2">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="O549" s="2"/>
       <c r="P549" s="2"/>
@@ -67354,16 +67358,16 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D550" t="s" s="2">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="E550" t="s" s="2">
         <v>77</v>
@@ -67385,16 +67389,16 @@
         <v>77</v>
       </c>
       <c r="L550" t="s" s="2">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="M550" t="s" s="2">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="N550" t="s" s="2">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="O550" t="s" s="2">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="P550" s="2"/>
       <c r="Q550" t="s" s="2">
@@ -67461,16 +67465,16 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D551" t="s" s="2">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="E551" t="s" s="2">
         <v>77</v>
@@ -67492,13 +67496,13 @@
         <v>77</v>
       </c>
       <c r="L551" t="s" s="2">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="M551" t="s" s="2">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="N551" t="s" s="2">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="O551" s="2"/>
       <c r="P551" s="2"/>
@@ -67566,13 +67570,13 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D552" t="s" s="2">
         <v>475</v>
@@ -67673,13 +67677,13 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -67780,13 +67784,13 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -67812,14 +67816,14 @@
         <v>142</v>
       </c>
       <c r="M554" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="N554" t="s" s="2">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="O554" s="2"/>
       <c r="P554" t="s" s="2">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="Q554" t="s" s="2">
         <v>77</v>
@@ -67868,7 +67872,7 @@
         <v>77</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="AH554" t="s" s="2">
         <v>78</v>
@@ -67885,13 +67889,13 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -67988,13 +67992,13 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -68093,13 +68097,13 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -68200,13 +68204,13 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -68307,13 +68311,13 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -68414,13 +68418,13 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -68446,7 +68450,7 @@
         <v>206</v>
       </c>
       <c r="M560" t="s" s="2">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="N560" t="s" s="2">
         <v>511</v>
@@ -68519,13 +68523,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -68622,13 +68626,13 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
@@ -68727,13 +68731,13 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -68759,67 +68763,67 @@
         <v>791</v>
       </c>
       <c r="M563" t="s" s="2">
+        <v>1765</v>
+      </c>
+      <c r="N563" t="s" s="2">
+        <v>1766</v>
+      </c>
+      <c r="O563" t="s" s="2">
+        <v>1767</v>
+      </c>
+      <c r="P563" t="s" s="2">
+        <v>1768</v>
+      </c>
+      <c r="Q563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R563" t="s" s="2">
+        <v>1769</v>
+      </c>
+      <c r="S563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF563" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG563" t="s" s="2">
         <v>1764</v>
-      </c>
-      <c r="N563" t="s" s="2">
-        <v>1765</v>
-      </c>
-      <c r="O563" t="s" s="2">
-        <v>1766</v>
-      </c>
-      <c r="P563" t="s" s="2">
-        <v>1767</v>
-      </c>
-      <c r="Q563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R563" t="s" s="2">
-        <v>1768</v>
-      </c>
-      <c r="S563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG563" t="s" s="2">
-        <v>1763</v>
       </c>
       <c r="AH563" t="s" s="2">
         <v>78</v>
@@ -68836,13 +68840,13 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -68865,19 +68869,19 @@
         <v>87</v>
       </c>
       <c r="L564" t="s" s="2">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="M564" t="s" s="2">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="N564" t="s" s="2">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="O564" t="s" s="2">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P564" t="s" s="2">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="Q564" t="s" s="2">
         <v>77</v>
@@ -68926,7 +68930,7 @@
         <v>77</v>
       </c>
       <c r="AG564" t="s" s="2">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="AH564" t="s" s="2">
         <v>78</v>
@@ -68938,18 +68942,18 @@
         <v>77</v>
       </c>
       <c r="AK564" t="s" s="2">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -69046,13 +69050,13 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -69151,13 +69155,13 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -69183,16 +69187,16 @@
         <v>106</v>
       </c>
       <c r="M567" t="s" s="2">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="N567" t="s" s="2">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="O567" t="s" s="2">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="P567" t="s" s="2">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q567" t="s" s="2">
         <v>77</v>
@@ -69220,10 +69224,10 @@
         <v>154</v>
       </c>
       <c r="Z567" t="s" s="2">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="AA567" t="s" s="2">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="AB567" t="s" s="2">
         <v>77</v>
@@ -69241,7 +69245,7 @@
         <v>77</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>78</v>
@@ -69258,13 +69262,13 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -69290,16 +69294,16 @@
         <v>206</v>
       </c>
       <c r="M568" t="s" s="2">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="N568" t="s" s="2">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="O568" t="s" s="2">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="P568" t="s" s="2">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="Q568" t="s" s="2">
         <v>77</v>
@@ -69348,7 +69352,7 @@
         <v>77</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>78</v>
@@ -69365,17 +69369,17 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="F569" s="2"/>
       <c r="G569" t="s" s="2">
@@ -69397,13 +69401,13 @@
         <v>206</v>
       </c>
       <c r="M569" t="s" s="2">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="N569" t="s" s="2">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="O569" t="s" s="2">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="P569" s="2"/>
       <c r="Q569" t="s" s="2">
@@ -69453,7 +69457,7 @@
         <v>77</v>
       </c>
       <c r="AG569" t="s" s="2">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="AH569" t="s" s="2">
         <v>78</v>
@@ -69470,17 +69474,17 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="F570" s="2"/>
       <c r="G570" t="s" s="2">
@@ -69502,13 +69506,13 @@
         <v>206</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="O570" t="s" s="2">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="P570" s="2"/>
       <c r="Q570" t="s" s="2">
@@ -69558,7 +69562,7 @@
         <v>77</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>78</v>
@@ -69575,13 +69579,13 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -69607,10 +69611,10 @@
         <v>206</v>
       </c>
       <c r="M571" t="s" s="2">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="N571" t="s" s="2">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="O571" s="2"/>
       <c r="P571" s="2"/>
@@ -69661,7 +69665,7 @@
         <v>77</v>
       </c>
       <c r="AG571" t="s" s="2">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="AH571" t="s" s="2">
         <v>78</v>
@@ -69678,13 +69682,13 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -69710,10 +69714,10 @@
         <v>206</v>
       </c>
       <c r="M572" t="s" s="2">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="N572" t="s" s="2">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="O572" s="2"/>
       <c r="P572" s="2"/>
@@ -69764,7 +69768,7 @@
         <v>77</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>78</v>
@@ -69781,13 +69785,13 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -69813,14 +69817,14 @@
         <v>375</v>
       </c>
       <c r="M573" t="s" s="2">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="N573" t="s" s="2">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="O573" s="2"/>
       <c r="P573" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="Q573" t="s" s="2">
         <v>77</v>
@@ -69869,7 +69873,7 @@
         <v>77</v>
       </c>
       <c r="AG573" t="s" s="2">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="AH573" t="s" s="2">
         <v>78</v>
@@ -69886,13 +69890,13 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -69915,19 +69919,19 @@
         <v>87</v>
       </c>
       <c r="L574" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="M574" t="s" s="2">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="N574" t="s" s="2">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="O574" t="s" s="2">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="P574" t="s" s="2">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="Q574" t="s" s="2">
         <v>77</v>
@@ -69976,7 +69980,7 @@
         <v>77</v>
       </c>
       <c r="AG574" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="AH574" t="s" s="2">
         <v>78</v>
@@ -69993,13 +69997,13 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -70096,13 +70100,13 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -70201,13 +70205,13 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -70233,10 +70237,10 @@
         <v>106</v>
       </c>
       <c r="M577" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="N577" t="s" s="2">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="O577" s="2"/>
       <c r="P577" s="2"/>
@@ -70266,10 +70270,10 @@
         <v>154</v>
       </c>
       <c r="Z577" t="s" s="2">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="AA577" t="s" s="2">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="AB577" t="s" s="2">
         <v>77</v>
@@ -70287,7 +70291,7 @@
         <v>77</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>78</v>
@@ -70296,7 +70300,7 @@
         <v>86</v>
       </c>
       <c r="AJ577" t="s" s="2">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="AK577" t="s" s="2">
         <v>98</v>
@@ -70304,13 +70308,13 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -70336,16 +70340,16 @@
         <v>206</v>
       </c>
       <c r="M578" t="s" s="2">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="N578" t="s" s="2">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="O578" t="s" s="2">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="P578" t="s" s="2">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="Q578" t="s" s="2">
         <v>77</v>
@@ -70394,7 +70398,7 @@
         <v>77</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>78</v>
@@ -70411,13 +70415,13 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -70443,16 +70447,16 @@
         <v>106</v>
       </c>
       <c r="M579" t="s" s="2">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="N579" t="s" s="2">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="O579" t="s" s="2">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="P579" t="s" s="2">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="Q579" t="s" s="2">
         <v>77</v>
@@ -70481,7 +70485,7 @@
       </c>
       <c r="Z579" s="2"/>
       <c r="AA579" t="s" s="2">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="AB579" t="s" s="2">
         <v>77</v>
@@ -70499,7 +70503,7 @@
         <v>77</v>
       </c>
       <c r="AG579" t="s" s="2">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="AH579" t="s" s="2">
         <v>78</v>
@@ -70516,13 +70520,13 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -70548,13 +70552,13 @@
         <v>646</v>
       </c>
       <c r="M580" t="s" s="2">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="N580" t="s" s="2">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="O580" t="s" s="2">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="P580" s="2"/>
       <c r="Q580" t="s" s="2">
@@ -70604,7 +70608,7 @@
         <v>77</v>
       </c>
       <c r="AG580" t="s" s="2">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="AH580" t="s" s="2">
         <v>78</v>
@@ -70621,13 +70625,13 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -70653,10 +70657,10 @@
         <v>375</v>
       </c>
       <c r="M581" t="s" s="2">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="N581" t="s" s="2">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="O581" s="2"/>
       <c r="P581" s="2"/>
@@ -70707,7 +70711,7 @@
         <v>77</v>
       </c>
       <c r="AG581" t="s" s="2">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="AH581" t="s" s="2">
         <v>78</v>
@@ -70724,13 +70728,13 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -70756,16 +70760,16 @@
         <v>106</v>
       </c>
       <c r="M582" t="s" s="2">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="N582" t="s" s="2">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="O582" t="s" s="2">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="P582" t="s" s="2">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="Q582" t="s" s="2">
         <v>77</v>
@@ -70794,7 +70798,7 @@
       </c>
       <c r="Z582" s="2"/>
       <c r="AA582" t="s" s="2">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="AB582" t="s" s="2">
         <v>77</v>
@@ -70812,7 +70816,7 @@
         <v>77</v>
       </c>
       <c r="AG582" t="s" s="2">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="AH582" t="s" s="2">
         <v>78</v>
@@ -70829,13 +70833,13 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -70861,16 +70865,16 @@
         <v>811</v>
       </c>
       <c r="M583" t="s" s="2">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="N583" t="s" s="2">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O583" t="s" s="2">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="P583" t="s" s="2">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="Q583" t="s" s="2">
         <v>77</v>
@@ -70919,7 +70923,7 @@
         <v>77</v>
       </c>
       <c r="AG583" t="s" s="2">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="AH583" t="s" s="2">
         <v>78</v>
@@ -70936,13 +70940,13 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -70965,19 +70969,19 @@
         <v>87</v>
       </c>
       <c r="L584" t="s" s="2">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="M584" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="N584" t="s" s="2">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="O584" t="s" s="2">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="P584" t="s" s="2">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="Q584" t="s" s="2">
         <v>77</v>
@@ -71026,7 +71030,7 @@
         <v>77</v>
       </c>
       <c r="AG584" t="s" s="2">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="AH584" t="s" s="2">
         <v>78</v>
@@ -71043,13 +71047,13 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -71072,19 +71076,19 @@
         <v>87</v>
       </c>
       <c r="L585" t="s" s="2">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="M585" t="s" s="2">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="N585" t="s" s="2">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="O585" t="s" s="2">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="P585" t="s" s="2">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="Q585" t="s" s="2">
         <v>77</v>
@@ -71133,7 +71137,7 @@
         <v>77</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="AH585" t="s" s="2">
         <v>78</v>
@@ -71150,13 +71154,13 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
@@ -71253,13 +71257,13 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -71358,13 +71362,13 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -71390,16 +71394,16 @@
         <v>106</v>
       </c>
       <c r="M588" t="s" s="2">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="N588" t="s" s="2">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="O588" t="s" s="2">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="P588" t="s" s="2">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="Q588" t="s" s="2">
         <v>77</v>
@@ -71412,7 +71416,7 @@
         <v>77</v>
       </c>
       <c r="U588" t="s" s="2">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="V588" t="s" s="2">
         <v>77</v>
@@ -71427,10 +71431,10 @@
         <v>154</v>
       </c>
       <c r="Z588" t="s" s="2">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="AA588" t="s" s="2">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="AB588" t="s" s="2">
         <v>77</v>
@@ -71448,7 +71452,7 @@
         <v>77</v>
       </c>
       <c r="AG588" t="s" s="2">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="AH588" t="s" s="2">
         <v>78</v>
@@ -71465,13 +71469,13 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -71497,13 +71501,13 @@
         <v>106</v>
       </c>
       <c r="M589" t="s" s="2">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="N589" t="s" s="2">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="O589" t="s" s="2">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="P589" s="2"/>
       <c r="Q589" t="s" s="2">
@@ -71517,7 +71521,7 @@
         <v>77</v>
       </c>
       <c r="U589" t="s" s="2">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="V589" t="s" s="2">
         <v>77</v>
@@ -71532,10 +71536,10 @@
         <v>154</v>
       </c>
       <c r="Z589" t="s" s="2">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="AA589" t="s" s="2">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="AB589" t="s" s="2">
         <v>77</v>
@@ -71553,7 +71557,7 @@
         <v>77</v>
       </c>
       <c r="AG589" t="s" s="2">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="AH589" t="s" s="2">
         <v>78</v>
@@ -71570,13 +71574,13 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -71602,16 +71606,16 @@
         <v>206</v>
       </c>
       <c r="M590" t="s" s="2">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="N590" t="s" s="2">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="O590" t="s" s="2">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="P590" t="s" s="2">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="Q590" t="s" s="2">
         <v>77</v>
@@ -71624,7 +71628,7 @@
         <v>77</v>
       </c>
       <c r="U590" t="s" s="2">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="V590" t="s" s="2">
         <v>77</v>
@@ -71660,7 +71664,7 @@
         <v>77</v>
       </c>
       <c r="AG590" t="s" s="2">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="AH590" t="s" s="2">
         <v>78</v>
@@ -71677,13 +71681,13 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -71709,10 +71713,10 @@
         <v>206</v>
       </c>
       <c r="M591" t="s" s="2">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="N591" t="s" s="2">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="O591" s="2"/>
       <c r="P591" s="2"/>
@@ -71727,7 +71731,7 @@
         <v>77</v>
       </c>
       <c r="U591" t="s" s="2">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="V591" t="s" s="2">
         <v>77</v>
@@ -71763,7 +71767,7 @@
         <v>77</v>
       </c>
       <c r="AG591" t="s" s="2">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="AH591" t="s" s="2">
         <v>78</v>
@@ -71780,17 +71784,17 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="F592" s="2"/>
       <c r="G592" t="s" s="2">
@@ -71812,10 +71816,10 @@
         <v>206</v>
       </c>
       <c r="M592" t="s" s="2">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N592" t="s" s="2">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="O592" s="2"/>
       <c r="P592" s="2"/>
@@ -71830,7 +71834,7 @@
         <v>77</v>
       </c>
       <c r="U592" t="s" s="2">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="V592" t="s" s="2">
         <v>77</v>
@@ -71866,7 +71870,7 @@
         <v>77</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>78</v>
@@ -71883,17 +71887,17 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C593" t="s" s="2">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="D593" s="2"/>
       <c r="E593" t="s" s="2">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="F593" s="2"/>
       <c r="G593" t="s" s="2">
@@ -71915,13 +71919,13 @@
         <v>206</v>
       </c>
       <c r="M593" t="s" s="2">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="N593" t="s" s="2">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="O593" t="s" s="2">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="P593" s="2"/>
       <c r="Q593" t="s" s="2">
@@ -71935,7 +71939,7 @@
         <v>77</v>
       </c>
       <c r="U593" t="s" s="2">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="V593" t="s" s="2">
         <v>77</v>
@@ -71971,7 +71975,7 @@
         <v>77</v>
       </c>
       <c r="AG593" t="s" s="2">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="AH593" t="s" s="2">
         <v>78</v>
@@ -71988,17 +71992,17 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C594" t="s" s="2">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" t="s" s="2">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="F594" s="2"/>
       <c r="G594" t="s" s="2">
@@ -72020,10 +72024,10 @@
         <v>206</v>
       </c>
       <c r="M594" t="s" s="2">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="N594" t="s" s="2">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="O594" s="2"/>
       <c r="P594" s="2"/>
@@ -72038,7 +72042,7 @@
         <v>77</v>
       </c>
       <c r="U594" t="s" s="2">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="V594" t="s" s="2">
         <v>77</v>
@@ -72053,10 +72057,10 @@
         <v>167</v>
       </c>
       <c r="Z594" t="s" s="2">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="AA594" t="s" s="2">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="AB594" t="s" s="2">
         <v>77</v>
@@ -72074,7 +72078,7 @@
         <v>77</v>
       </c>
       <c r="AG594" t="s" s="2">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="AH594" t="s" s="2">
         <v>78</v>
@@ -72091,17 +72095,17 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="C595" t="s" s="2">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" t="s" s="2">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="F595" s="2"/>
       <c r="G595" t="s" s="2">
@@ -72123,10 +72127,10 @@
         <v>206</v>
       </c>
       <c r="M595" t="s" s="2">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="N595" t="s" s="2">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="O595" s="2"/>
       <c r="P595" s="2"/>
@@ -72141,7 +72145,7 @@
         <v>77</v>
       </c>
       <c r="U595" t="s" s="2">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="V595" t="s" s="2">
         <v>77</v>
@@ -72177,7 +72181,7 @@
         <v>77</v>
       </c>
       <c r="AG595" t="s" s="2">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="AH595" t="s" s="2">
         <v>78</v>
@@ -72194,13 +72198,13 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C596" t="s" s="2">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" t="s" s="2">
@@ -72226,13 +72230,13 @@
         <v>206</v>
       </c>
       <c r="M596" t="s" s="2">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="N596" t="s" s="2">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="O596" t="s" s="2">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="P596" s="2"/>
       <c r="Q596" t="s" s="2">
@@ -72282,7 +72286,7 @@
         <v>77</v>
       </c>
       <c r="AG596" t="s" s="2">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="AH596" t="s" s="2">
         <v>78</v>
@@ -72299,13 +72303,13 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="C597" t="s" s="2">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" t="s" s="2">
@@ -72331,14 +72335,14 @@
         <v>375</v>
       </c>
       <c r="M597" t="s" s="2">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="N597" t="s" s="2">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="O597" s="2"/>
       <c r="P597" t="s" s="2">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="Q597" t="s" s="2">
         <v>77</v>
@@ -72351,7 +72355,7 @@
         <v>77</v>
       </c>
       <c r="U597" t="s" s="2">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="V597" t="s" s="2">
         <v>77</v>
@@ -72387,7 +72391,7 @@
         <v>77</v>
       </c>
       <c r="AG597" t="s" s="2">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="AH597" t="s" s="2">
         <v>78</v>
@@ -72404,13 +72408,13 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="C598" t="s" s="2">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" t="s" s="2">
@@ -72436,14 +72440,14 @@
         <v>163</v>
       </c>
       <c r="M598" t="s" s="2">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="N598" t="s" s="2">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="O598" s="2"/>
       <c r="P598" t="s" s="2">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="Q598" t="s" s="2">
         <v>77</v>
@@ -72471,10 +72475,10 @@
         <v>167</v>
       </c>
       <c r="Z598" t="s" s="2">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="AA598" t="s" s="2">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="AB598" t="s" s="2">
         <v>77</v>
@@ -72492,7 +72496,7 @@
         <v>77</v>
       </c>
       <c r="AG598" t="s" s="2">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="AH598" t="s" s="2">
         <v>78</v>
@@ -72509,13 +72513,13 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -72538,19 +72542,19 @@
         <v>77</v>
       </c>
       <c r="L599" t="s" s="2">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="M599" t="s" s="2">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="N599" t="s" s="2">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="O599" t="s" s="2">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="P599" t="s" s="2">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="Q599" t="s" s="2">
         <v>77</v>
@@ -72599,7 +72603,7 @@
         <v>77</v>
       </c>
       <c r="AG599" t="s" s="2">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="AH599" t="s" s="2">
         <v>78</v>
@@ -72616,13 +72620,13 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -72648,16 +72652,16 @@
         <v>289</v>
       </c>
       <c r="M600" t="s" s="2">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="N600" t="s" s="2">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="O600" t="s" s="2">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="P600" t="s" s="2">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="Q600" t="s" s="2">
         <v>77</v>
@@ -72706,7 +72710,7 @@
         <v>77</v>
       </c>
       <c r="AG600" t="s" s="2">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="AH600" t="s" s="2">
         <v>78</v>
@@ -72723,13 +72727,13 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -72755,16 +72759,16 @@
         <v>249</v>
       </c>
       <c r="M601" t="s" s="2">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="N601" t="s" s="2">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="O601" t="s" s="2">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="P601" t="s" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="Q601" t="s" s="2">
         <v>77</v>
@@ -72813,7 +72817,7 @@
         <v>77</v>
       </c>
       <c r="AG601" t="s" s="2">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="AH601" t="s" s="2">
         <v>78</v>
@@ -72825,18 +72829,18 @@
         <v>77</v>
       </c>
       <c r="AK601" t="s" s="2">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -72933,13 +72937,13 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -73038,13 +73042,13 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -73145,13 +73149,13 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
@@ -73177,14 +73181,14 @@
         <v>163</v>
       </c>
       <c r="M605" t="s" s="2">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="N605" t="s" s="2">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="O605" s="2"/>
       <c r="P605" t="s" s="2">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="Q605" t="s" s="2">
         <v>77</v>
@@ -73212,10 +73216,10 @@
         <v>167</v>
       </c>
       <c r="Z605" t="s" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="AA605" t="s" s="2">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="AB605" t="s" s="2">
         <v>77</v>
@@ -73233,7 +73237,7 @@
         <v>77</v>
       </c>
       <c r="AG605" t="s" s="2">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="AH605" t="s" s="2">
         <v>78</v>
@@ -73250,13 +73254,13 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -73279,17 +73283,17 @@
         <v>77</v>
       </c>
       <c r="L606" t="s" s="2">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="M606" t="s" s="2">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="N606" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="O606" s="2"/>
       <c r="P606" t="s" s="2">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="Q606" t="s" s="2">
         <v>77</v>
@@ -73338,7 +73342,7 @@
         <v>77</v>
       </c>
       <c r="AG606" t="s" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="AH606" t="s" s="2">
         <v>78</v>
@@ -73355,13 +73359,13 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
@@ -73384,19 +73388,19 @@
         <v>77</v>
       </c>
       <c r="L607" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="M607" t="s" s="2">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="N607" t="s" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="O607" t="s" s="2">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="P607" t="s" s="2">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="Q607" t="s" s="2">
         <v>77</v>
@@ -73445,7 +73449,7 @@
         <v>77</v>
       </c>
       <c r="AG607" t="s" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="AH607" t="s" s="2">
         <v>78</v>
@@ -73462,13 +73466,13 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -73491,17 +73495,17 @@
         <v>77</v>
       </c>
       <c r="L608" t="s" s="2">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="M608" t="s" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="N608" t="s" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="O608" s="2"/>
       <c r="P608" t="s" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="Q608" t="s" s="2">
         <v>77</v>
@@ -73550,7 +73554,7 @@
         <v>77</v>
       </c>
       <c r="AG608" t="s" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="AH608" t="s" s="2">
         <v>78</v>
@@ -73567,13 +73571,13 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -73599,14 +73603,14 @@
         <v>106</v>
       </c>
       <c r="M609" t="s" s="2">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="N609" t="s" s="2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="O609" s="2"/>
       <c r="P609" t="s" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="Q609" t="s" s="2">
         <v>77</v>
@@ -73634,10 +73638,10 @@
         <v>154</v>
       </c>
       <c r="Z609" t="s" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="AA609" t="s" s="2">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="AB609" t="s" s="2">
         <v>77</v>
@@ -73655,7 +73659,7 @@
         <v>77</v>
       </c>
       <c r="AG609" t="s" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="AH609" t="s" s="2">
         <v>78</v>
@@ -73672,13 +73676,13 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -73704,14 +73708,14 @@
         <v>244</v>
       </c>
       <c r="M610" t="s" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="N610" t="s" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="O610" s="2"/>
       <c r="P610" t="s" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="Q610" t="s" s="2">
         <v>77</v>
@@ -73760,7 +73764,7 @@
         <v>77</v>
       </c>
       <c r="AG610" t="s" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="AH610" t="s" s="2">
         <v>78</v>
@@ -73769,7 +73773,7 @@
         <v>86</v>
       </c>
       <c r="AJ610" t="s" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="AK610" t="s" s="2">
         <v>98</v>
@@ -73777,13 +73781,13 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -73809,10 +73813,10 @@
         <v>375</v>
       </c>
       <c r="M611" t="s" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="N611" t="s" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="O611" s="2"/>
       <c r="P611" s="2"/>
@@ -73863,7 +73867,7 @@
         <v>77</v>
       </c>
       <c r="AG611" t="s" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="AH611" t="s" s="2">
         <v>78</v>
@@ -73880,13 +73884,13 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -73912,16 +73916,16 @@
         <v>249</v>
       </c>
       <c r="M612" t="s" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="N612" t="s" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O612" t="s" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="P612" t="s" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="Q612" t="s" s="2">
         <v>77</v>
@@ -73970,7 +73974,7 @@
         <v>77</v>
       </c>
       <c r="AG612" t="s" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="AH612" t="s" s="2">
         <v>78</v>
@@ -73987,13 +73991,13 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -74090,13 +74094,13 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -74195,13 +74199,13 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
@@ -74302,13 +74306,13 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -74334,16 +74338,16 @@
         <v>163</v>
       </c>
       <c r="M616" t="s" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="N616" t="s" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="O616" t="s" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="P616" t="s" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="Q616" t="s" s="2">
         <v>77</v>
@@ -74372,7 +74376,7 @@
       </c>
       <c r="Z616" s="2"/>
       <c r="AA616" t="s" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="AB616" t="s" s="2">
         <v>77</v>
@@ -74390,7 +74394,7 @@
         <v>77</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>86</v>
@@ -74407,13 +74411,13 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
@@ -74439,16 +74443,16 @@
         <v>791</v>
       </c>
       <c r="M617" t="s" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N617" t="s" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="O617" t="s" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="P617" t="s" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Q617" t="s" s="2">
         <v>77</v>
@@ -74497,7 +74501,7 @@
         <v>77</v>
       </c>
       <c r="AG617" t="s" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="AH617" t="s" s="2">
         <v>78</v>
@@ -74514,17 +74518,17 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F618" s="2"/>
       <c r="G618" t="s" s="2">
@@ -74543,16 +74547,16 @@
         <v>77</v>
       </c>
       <c r="L618" t="s" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M618" t="s" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="N618" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="O618" t="s" s="2">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="P618" s="2"/>
       <c r="Q618" t="s" s="2">
@@ -74602,7 +74606,7 @@
         <v>77</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>78</v>
@@ -74619,13 +74623,13 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -74651,16 +74655,16 @@
         <v>244</v>
       </c>
       <c r="M619" t="s" s="2">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="N619" t="s" s="2">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="O619" t="s" s="2">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="P619" t="s" s="2">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="Q619" t="s" s="2">
         <v>77</v>
@@ -74709,7 +74713,7 @@
         <v>77</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>78</v>
@@ -74726,13 +74730,13 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -74758,16 +74762,16 @@
         <v>249</v>
       </c>
       <c r="M620" t="s" s="2">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N620" t="s" s="2">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O620" t="s" s="2">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="P620" t="s" s="2">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="Q620" t="s" s="2">
         <v>77</v>
@@ -74816,7 +74820,7 @@
         <v>77</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>78</v>
@@ -74833,13 +74837,13 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -74936,13 +74940,13 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -75041,13 +75045,13 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -75148,13 +75152,13 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -75177,16 +75181,16 @@
         <v>87</v>
       </c>
       <c r="L624" t="s" s="2">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="M624" t="s" s="2">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="N624" t="s" s="2">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="O624" t="s" s="2">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="P624" s="2"/>
       <c r="Q624" t="s" s="2">
@@ -75236,7 +75240,7 @@
         <v>77</v>
       </c>
       <c r="AG624" t="s" s="2">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="AH624" t="s" s="2">
         <v>86</v>
@@ -75253,13 +75257,13 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -75285,10 +75289,10 @@
         <v>106</v>
       </c>
       <c r="M625" t="s" s="2">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="N625" t="s" s="2">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="O625" s="2"/>
       <c r="P625" s="2"/>
@@ -75318,10 +75322,10 @@
         <v>154</v>
       </c>
       <c r="Z625" t="s" s="2">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AA625" t="s" s="2">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AB625" t="s" s="2">
         <v>77</v>
@@ -75339,7 +75343,7 @@
         <v>77</v>
       </c>
       <c r="AG625" t="s" s="2">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>86</v>
@@ -75356,17 +75360,17 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="F626" s="2"/>
       <c r="G626" t="s" s="2">
@@ -75388,13 +75392,13 @@
         <v>80</v>
       </c>
       <c r="M626" t="s" s="2">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="N626" t="s" s="2">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="O626" t="s" s="2">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="P626" s="2"/>
       <c r="Q626" t="s" s="2">
@@ -75444,7 +75448,7 @@
         <v>77</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>78</v>
@@ -75461,13 +75465,13 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -75566,13 +75570,13 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -75669,13 +75673,13 @@
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -75774,13 +75778,13 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -75879,13 +75883,13 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -75984,13 +75988,13 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -76089,13 +76093,13 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -76194,13 +76198,13 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -76301,13 +76305,13 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -76333,13 +76337,13 @@
         <v>395</v>
       </c>
       <c r="M635" t="s" s="2">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="N635" t="s" s="2">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="O635" t="s" s="2">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="P635" s="2"/>
       <c r="Q635" t="s" s="2">
@@ -76389,7 +76393,7 @@
         <v>77</v>
       </c>
       <c r="AG635" t="s" s="2">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="AH635" t="s" s="2">
         <v>86</v>
@@ -76406,13 +76410,13 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -76509,13 +76513,13 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -76614,13 +76618,13 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -76719,13 +76723,13 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -76824,13 +76828,13 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -76929,13 +76933,13 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -77034,13 +77038,13 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -77063,16 +77067,16 @@
         <v>77</v>
       </c>
       <c r="L642" t="s" s="2">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="M642" t="s" s="2">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="N642" t="s" s="2">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="O642" t="s" s="2">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="P642" s="2"/>
       <c r="Q642" t="s" s="2">
@@ -77122,7 +77126,7 @@
         <v>77</v>
       </c>
       <c r="AG642" t="s" s="2">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>78</v>
@@ -77139,13 +77143,13 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -77171,13 +77175,13 @@
         <v>191</v>
       </c>
       <c r="M643" t="s" s="2">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="N643" t="s" s="2">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="O643" t="s" s="2">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="P643" s="2"/>
       <c r="Q643" t="s" s="2">
@@ -77227,7 +77231,7 @@
         <v>77</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>86</v>
@@ -77244,13 +77248,13 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -77276,13 +77280,13 @@
         <v>100</v>
       </c>
       <c r="M644" t="s" s="2">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="N644" t="s" s="2">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="O644" t="s" s="2">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="P644" s="2"/>
       <c r="Q644" t="s" s="2">
@@ -77332,7 +77336,7 @@
         <v>77</v>
       </c>
       <c r="AG644" t="s" s="2">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="AH644" t="s" s="2">
         <v>78</v>
@@ -77349,13 +77353,13 @@
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -77381,10 +77385,10 @@
         <v>1027</v>
       </c>
       <c r="M645" t="s" s="2">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="N645" t="s" s="2">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="O645" s="2"/>
       <c r="P645" s="2"/>
@@ -77435,7 +77439,7 @@
         <v>77</v>
       </c>
       <c r="AG645" t="s" s="2">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="AH645" t="s" s="2">
         <v>78</v>
@@ -77452,13 +77456,13 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -77484,10 +77488,10 @@
         <v>163</v>
       </c>
       <c r="M646" t="s" s="2">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="N646" t="s" s="2">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="O646" s="2"/>
       <c r="P646" s="2"/>
@@ -77517,10 +77521,10 @@
         <v>167</v>
       </c>
       <c r="Z646" t="s" s="2">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="AA646" t="s" s="2">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="AB646" t="s" s="2">
         <v>77</v>
@@ -77538,7 +77542,7 @@
         <v>77</v>
       </c>
       <c r="AG646" t="s" s="2">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="AH646" t="s" s="2">
         <v>78</v>
@@ -77555,13 +77559,13 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -77587,10 +77591,10 @@
         <v>163</v>
       </c>
       <c r="M647" t="s" s="2">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="N647" t="s" s="2">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="O647" s="2"/>
       <c r="P647" s="2"/>
@@ -77620,10 +77624,10 @@
         <v>167</v>
       </c>
       <c r="Z647" t="s" s="2">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="AA647" t="s" s="2">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="AB647" t="s" s="2">
         <v>77</v>
@@ -77641,7 +77645,7 @@
         <v>77</v>
       </c>
       <c r="AG647" t="s" s="2">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="AH647" t="s" s="2">
         <v>78</v>
@@ -77658,13 +77662,13 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -77690,16 +77694,16 @@
         <v>249</v>
       </c>
       <c r="M648" t="s" s="2">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="N648" t="s" s="2">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="O648" t="s" s="2">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="P648" t="s" s="2">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="Q648" t="s" s="2">
         <v>77</v>
@@ -77736,7 +77740,7 @@
         <v>77</v>
       </c>
       <c r="AC648" t="s" s="2">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="AD648" s="2"/>
       <c r="AE648" t="s" s="2">
@@ -77746,7 +77750,7 @@
         <v>179</v>
       </c>
       <c r="AG648" t="s" s="2">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="AH648" t="s" s="2">
         <v>86</v>
@@ -77758,18 +77762,18 @@
         <v>77</v>
       </c>
       <c r="AK648" t="s" s="2">
-        <v>2110</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -77866,13 +77870,13 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -77971,13 +77975,13 @@
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -78078,13 +78082,13 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -78110,13 +78114,13 @@
         <v>163</v>
       </c>
       <c r="M652" t="s" s="2">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="N652" t="s" s="2">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="O652" t="s" s="2">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P652" s="2"/>
       <c r="Q652" t="s" s="2">
@@ -78146,7 +78150,7 @@
       </c>
       <c r="Z652" s="2"/>
       <c r="AA652" t="s" s="2">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="AB652" t="s" s="2">
         <v>77</v>
@@ -78164,7 +78168,7 @@
         <v>77</v>
       </c>
       <c r="AG652" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="AH652" t="s" s="2">
         <v>78</v>
@@ -78181,13 +78185,13 @@
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -78213,13 +78217,13 @@
         <v>163</v>
       </c>
       <c r="M653" t="s" s="2">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="N653" t="s" s="2">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="O653" t="s" s="2">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P653" s="2"/>
       <c r="Q653" t="s" s="2">
@@ -78248,10 +78252,10 @@
         <v>175</v>
       </c>
       <c r="Z653" t="s" s="2">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="AA653" t="s" s="2">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="AB653" t="s" s="2">
         <v>77</v>
@@ -78269,7 +78273,7 @@
         <v>77</v>
       </c>
       <c r="AG653" t="s" s="2">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="AH653" t="s" s="2">
         <v>78</v>
@@ -78286,13 +78290,13 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -78315,16 +78319,16 @@
         <v>87</v>
       </c>
       <c r="L654" t="s" s="2">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="M654" t="s" s="2">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="N654" t="s" s="2">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="O654" t="s" s="2">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="P654" s="2"/>
       <c r="Q654" t="s" s="2">
@@ -78374,7 +78378,7 @@
         <v>77</v>
       </c>
       <c r="AG654" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="AH654" t="s" s="2">
         <v>86</v>
@@ -78391,13 +78395,13 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -78423,13 +78427,13 @@
         <v>730</v>
       </c>
       <c r="M655" t="s" s="2">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="N655" t="s" s="2">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="O655" t="s" s="2">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="P655" s="2"/>
       <c r="Q655" t="s" s="2">
@@ -78479,7 +78483,7 @@
         <v>77</v>
       </c>
       <c r="AG655" t="s" s="2">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="AH655" t="s" s="2">
         <v>78</v>
@@ -78496,16 +78500,16 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B656" t="s" s="2">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="C656" t="s" s="2">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="D656" t="s" s="2">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="E656" t="s" s="2">
         <v>77</v>
@@ -78530,16 +78534,16 @@
         <v>249</v>
       </c>
       <c r="M656" t="s" s="2">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="N656" t="s" s="2">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="O656" t="s" s="2">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="P656" t="s" s="2">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="Q656" t="s" s="2">
         <v>77</v>
@@ -78588,7 +78592,7 @@
         <v>77</v>
       </c>
       <c r="AG656" t="s" s="2">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="AH656" t="s" s="2">
         <v>86</v>
@@ -78605,13 +78609,13 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B657" t="s" s="2">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="C657" t="s" s="2">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="D657" s="2"/>
       <c r="E657" t="s" s="2">
@@ -78708,13 +78712,13 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B658" t="s" s="2">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="C658" t="s" s="2">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="D658" s="2"/>
       <c r="E658" t="s" s="2">
@@ -78813,13 +78817,13 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B659" t="s" s="2">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="C659" t="s" s="2">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="D659" s="2"/>
       <c r="E659" t="s" s="2">
@@ -78920,13 +78924,13 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B660" t="s" s="2">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="C660" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="D660" s="2"/>
       <c r="E660" t="s" s="2">
@@ -78952,13 +78956,13 @@
         <v>163</v>
       </c>
       <c r="M660" t="s" s="2">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="N660" t="s" s="2">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="O660" t="s" s="2">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P660" s="2"/>
       <c r="Q660" t="s" s="2">
@@ -78969,7 +78973,7 @@
         <v>77</v>
       </c>
       <c r="T660" t="s" s="2">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="U660" t="s" s="2">
         <v>77</v>
@@ -78987,10 +78991,10 @@
         <v>167</v>
       </c>
       <c r="Z660" t="s" s="2">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="AA660" t="s" s="2">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="AB660" t="s" s="2">
         <v>77</v>
@@ -79008,7 +79012,7 @@
         <v>77</v>
       </c>
       <c r="AG660" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="AH660" t="s" s="2">
         <v>78</v>
@@ -79025,13 +79029,13 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B661" t="s" s="2">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="C661" t="s" s="2">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="D661" s="2"/>
       <c r="E661" t="s" s="2">
@@ -79057,13 +79061,13 @@
         <v>163</v>
       </c>
       <c r="M661" t="s" s="2">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="N661" t="s" s="2">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="O661" t="s" s="2">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="P661" s="2"/>
       <c r="Q661" t="s" s="2">
@@ -79092,10 +79096,10 @@
         <v>175</v>
       </c>
       <c r="Z661" t="s" s="2">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="AA661" t="s" s="2">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="AB661" t="s" s="2">
         <v>77</v>
@@ -79113,7 +79117,7 @@
         <v>77</v>
       </c>
       <c r="AG661" t="s" s="2">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="AH661" t="s" s="2">
         <v>78</v>
@@ -79130,13 +79134,13 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B662" t="s" s="2">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="C662" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="D662" s="2"/>
       <c r="E662" t="s" s="2">
@@ -79159,16 +79163,16 @@
         <v>87</v>
       </c>
       <c r="L662" t="s" s="2">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="M662" t="s" s="2">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="N662" t="s" s="2">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="O662" t="s" s="2">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="P662" s="2"/>
       <c r="Q662" t="s" s="2">
@@ -79218,7 +79222,7 @@
         <v>77</v>
       </c>
       <c r="AG662" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="AH662" t="s" s="2">
         <v>86</v>
@@ -79235,13 +79239,13 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B663" t="s" s="2">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="C663" t="s" s="2">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="D663" s="2"/>
       <c r="E663" t="s" s="2">
@@ -79264,16 +79268,16 @@
         <v>77</v>
       </c>
       <c r="L663" t="s" s="2">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="M663" t="s" s="2">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="N663" t="s" s="2">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="O663" t="s" s="2">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="P663" s="2"/>
       <c r="Q663" t="s" s="2">
@@ -79323,7 +79327,7 @@
         <v>77</v>
       </c>
       <c r="AG663" t="s" s="2">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="AH663" t="s" s="2">
         <v>78</v>
@@ -79340,16 +79344,16 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B664" t="s" s="2">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="C664" t="s" s="2">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="D664" t="s" s="2">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="E664" t="s" s="2">
         <v>77</v>
@@ -79374,16 +79378,16 @@
         <v>249</v>
       </c>
       <c r="M664" t="s" s="2">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="N664" t="s" s="2">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="O664" t="s" s="2">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="P664" t="s" s="2">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="Q664" t="s" s="2">
         <v>77</v>
@@ -79432,7 +79436,7 @@
         <v>77</v>
       </c>
       <c r="AG664" t="s" s="2">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="AH664" t="s" s="2">
         <v>86</v>
@@ -79449,13 +79453,13 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B665" t="s" s="2">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="C665" t="s" s="2">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="D665" s="2"/>
       <c r="E665" t="s" s="2">
@@ -79552,13 +79556,13 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B666" t="s" s="2">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="C666" t="s" s="2">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="D666" s="2"/>
       <c r="E666" t="s" s="2">
@@ -79657,13 +79661,13 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B667" t="s" s="2">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="C667" t="s" s="2">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="D667" s="2"/>
       <c r="E667" t="s" s="2">
@@ -79764,13 +79768,13 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B668" t="s" s="2">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="C668" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="D668" s="2"/>
       <c r="E668" t="s" s="2">
@@ -79796,13 +79800,13 @@
         <v>163</v>
       </c>
       <c r="M668" t="s" s="2">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="N668" t="s" s="2">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="O668" t="s" s="2">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P668" s="2"/>
       <c r="Q668" t="s" s="2">
@@ -79813,7 +79817,7 @@
         <v>77</v>
       </c>
       <c r="T668" t="s" s="2">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="U668" t="s" s="2">
         <v>77</v>
@@ -79831,10 +79835,10 @@
         <v>167</v>
       </c>
       <c r="Z668" t="s" s="2">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="AA668" t="s" s="2">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="AB668" t="s" s="2">
         <v>77</v>
@@ -79852,7 +79856,7 @@
         <v>77</v>
       </c>
       <c r="AG668" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="AH668" t="s" s="2">
         <v>78</v>
@@ -79869,13 +79873,13 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B669" t="s" s="2">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="C669" t="s" s="2">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="D669" s="2"/>
       <c r="E669" t="s" s="2">
@@ -79901,13 +79905,13 @@
         <v>163</v>
       </c>
       <c r="M669" t="s" s="2">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="N669" t="s" s="2">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="O669" t="s" s="2">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="P669" s="2"/>
       <c r="Q669" t="s" s="2">
@@ -79936,10 +79940,10 @@
         <v>175</v>
       </c>
       <c r="Z669" t="s" s="2">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="AA669" t="s" s="2">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="AB669" t="s" s="2">
         <v>77</v>
@@ -79957,7 +79961,7 @@
         <v>77</v>
       </c>
       <c r="AG669" t="s" s="2">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="AH669" t="s" s="2">
         <v>78</v>
@@ -79974,13 +79978,13 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B670" t="s" s="2">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="C670" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="D670" s="2"/>
       <c r="E670" t="s" s="2">
@@ -80003,16 +80007,16 @@
         <v>87</v>
       </c>
       <c r="L670" t="s" s="2">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="M670" t="s" s="2">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="N670" t="s" s="2">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="O670" t="s" s="2">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="P670" s="2"/>
       <c r="Q670" t="s" s="2">
@@ -80062,7 +80066,7 @@
         <v>77</v>
       </c>
       <c r="AG670" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="AH670" t="s" s="2">
         <v>86</v>
@@ -80079,13 +80083,13 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B671" t="s" s="2">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="C671" t="s" s="2">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="D671" s="2"/>
       <c r="E671" t="s" s="2">
@@ -80108,16 +80112,16 @@
         <v>77</v>
       </c>
       <c r="L671" t="s" s="2">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="M671" t="s" s="2">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="N671" t="s" s="2">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="O671" t="s" s="2">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="P671" s="2"/>
       <c r="Q671" t="s" s="2">
@@ -80167,7 +80171,7 @@
         <v>77</v>
       </c>
       <c r="AG671" t="s" s="2">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="AH671" t="s" s="2">
         <v>78</v>
@@ -80184,13 +80188,13 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B672" t="s" s="2">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C672" t="s" s="2">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="D672" s="2"/>
       <c r="E672" t="s" s="2">
@@ -80216,10 +80220,10 @@
         <v>249</v>
       </c>
       <c r="M672" t="s" s="2">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="N672" t="s" s="2">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="O672" s="2"/>
       <c r="P672" s="2"/>
@@ -80270,7 +80274,7 @@
         <v>77</v>
       </c>
       <c r="AG672" t="s" s="2">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="AH672" t="s" s="2">
         <v>78</v>
@@ -80287,13 +80291,13 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B673" t="s" s="2">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="C673" t="s" s="2">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="D673" s="2"/>
       <c r="E673" t="s" s="2">
@@ -80390,13 +80394,13 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B674" t="s" s="2">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="C674" t="s" s="2">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="D674" s="2"/>
       <c r="E674" t="s" s="2">
@@ -80495,13 +80499,13 @@
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="C675" t="s" s="2">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="D675" s="2"/>
       <c r="E675" t="s" s="2">
@@ -80602,13 +80606,13 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B676" t="s" s="2">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="C676" t="s" s="2">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="D676" s="2"/>
       <c r="E676" t="s" s="2">
@@ -80634,10 +80638,10 @@
         <v>106</v>
       </c>
       <c r="M676" t="s" s="2">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="N676" t="s" s="2">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="O676" s="2"/>
       <c r="P676" s="2"/>
@@ -80667,10 +80671,10 @@
         <v>154</v>
       </c>
       <c r="Z676" t="s" s="2">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="AA676" t="s" s="2">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="AB676" t="s" s="2">
         <v>77</v>
@@ -80688,7 +80692,7 @@
         <v>77</v>
       </c>
       <c r="AG676" t="s" s="2">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="AH676" t="s" s="2">
         <v>86</v>
@@ -80705,13 +80709,13 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="C677" t="s" s="2">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="D677" s="2"/>
       <c r="E677" t="s" s="2">
@@ -80737,13 +80741,13 @@
         <v>395</v>
       </c>
       <c r="M677" t="s" s="2">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="N677" t="s" s="2">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="O677" t="s" s="2">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="P677" s="2"/>
       <c r="Q677" t="s" s="2">
@@ -80793,7 +80797,7 @@
         <v>77</v>
       </c>
       <c r="AG677" t="s" s="2">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="AH677" t="s" s="2">
         <v>86</v>
@@ -80810,13 +80814,13 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="C678" t="s" s="2">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="D678" s="2"/>
       <c r="E678" t="s" s="2">
@@ -80842,13 +80846,13 @@
         <v>80</v>
       </c>
       <c r="M678" t="s" s="2">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="N678" t="s" s="2">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="O678" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="P678" s="2"/>
       <c r="Q678" t="s" s="2">
@@ -80898,7 +80902,7 @@
         <v>77</v>
       </c>
       <c r="AG678" t="s" s="2">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="AH678" t="s" s="2">
         <v>78</v>
@@ -80915,13 +80919,13 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B679" t="s" s="2">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="C679" t="s" s="2">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="D679" s="2"/>
       <c r="E679" t="s" s="2">
@@ -80944,13 +80948,13 @@
         <v>77</v>
       </c>
       <c r="L679" t="s" s="2">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="M679" t="s" s="2">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="N679" t="s" s="2">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="O679" s="2"/>
       <c r="P679" s="2"/>
@@ -81001,7 +81005,7 @@
         <v>77</v>
       </c>
       <c r="AG679" t="s" s="2">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="AH679" t="s" s="2">
         <v>78</v>
@@ -81018,17 +81022,17 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B680" t="s" s="2">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="C680" t="s" s="2">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="D680" s="2"/>
       <c r="E680" t="s" s="2">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="F680" s="2"/>
       <c r="G680" t="s" s="2">
@@ -81050,10 +81054,10 @@
         <v>80</v>
       </c>
       <c r="M680" t="s" s="2">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="N680" t="s" s="2">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="O680" s="2"/>
       <c r="P680" s="2"/>
@@ -81104,7 +81108,7 @@
         <v>77</v>
       </c>
       <c r="AG680" t="s" s="2">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="AH680" t="s" s="2">
         <v>78</v>
@@ -81116,18 +81120,18 @@
         <v>77</v>
       </c>
       <c r="AK680" t="s" s="2">
-        <v>2195</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B681" t="s" s="2">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="C681" t="s" s="2">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="D681" s="2"/>
       <c r="E681" t="s" s="2">
@@ -81226,13 +81230,13 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B682" t="s" s="2">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="C682" t="s" s="2">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" t="s" s="2">
@@ -81329,13 +81333,13 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B683" t="s" s="2">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="C683" t="s" s="2">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="D683" s="2"/>
       <c r="E683" t="s" s="2">
@@ -81434,13 +81438,13 @@
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="C684" t="s" s="2">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="D684" s="2"/>
       <c r="E684" t="s" s="2">
@@ -81539,13 +81543,13 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="C685" t="s" s="2">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="D685" s="2"/>
       <c r="E685" t="s" s="2">
@@ -81644,13 +81648,13 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="C686" t="s" s="2">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" t="s" s="2">
@@ -81749,13 +81753,13 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B687" t="s" s="2">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="C687" t="s" s="2">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="D687" s="2"/>
       <c r="E687" t="s" s="2">
@@ -81854,13 +81858,13 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B688" t="s" s="2">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="C688" t="s" s="2">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="D688" s="2"/>
       <c r="E688" t="s" s="2">
@@ -81961,13 +81965,13 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B689" t="s" s="2">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C689" t="s" s="2">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="D689" s="2"/>
       <c r="E689" t="s" s="2">
@@ -81993,13 +81997,13 @@
         <v>142</v>
       </c>
       <c r="M689" t="s" s="2">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="N689" t="s" s="2">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="O689" t="s" s="2">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="P689" s="2"/>
       <c r="Q689" t="s" s="2">
@@ -82049,7 +82053,7 @@
         <v>77</v>
       </c>
       <c r="AG689" t="s" s="2">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="AH689" t="s" s="2">
         <v>78</v>
@@ -82066,13 +82070,13 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="C690" t="s" s="2">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" t="s" s="2">
@@ -82095,16 +82099,16 @@
         <v>87</v>
       </c>
       <c r="L690" t="s" s="2">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="M690" t="s" s="2">
         <v>1324</v>
       </c>
       <c r="N690" t="s" s="2">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="O690" t="s" s="2">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="P690" s="2"/>
       <c r="Q690" t="s" s="2">
@@ -82154,7 +82158,7 @@
         <v>77</v>
       </c>
       <c r="AG690" t="s" s="2">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="AH690" t="s" s="2">
         <v>78</v>
@@ -82171,13 +82175,13 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="C691" t="s" s="2">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" t="s" s="2">
@@ -82206,10 +82210,10 @@
         <v>1327</v>
       </c>
       <c r="N691" t="s" s="2">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="O691" t="s" s="2">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="P691" s="2"/>
       <c r="Q691" t="s" s="2">
@@ -82259,7 +82263,7 @@
         <v>77</v>
       </c>
       <c r="AG691" t="s" s="2">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="AH691" t="s" s="2">
         <v>78</v>
@@ -82276,17 +82280,17 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="C692" t="s" s="2">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" t="s" s="2">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="F692" s="2"/>
       <c r="G692" t="s" s="2">
@@ -82305,13 +82309,13 @@
         <v>87</v>
       </c>
       <c r="L692" t="s" s="2">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="M692" t="s" s="2">
         <v>1331</v>
       </c>
       <c r="N692" t="s" s="2">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O692" s="2"/>
       <c r="P692" s="2"/>
@@ -82362,7 +82366,7 @@
         <v>77</v>
       </c>
       <c r="AG692" t="s" s="2">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="AH692" t="s" s="2">
         <v>78</v>
@@ -82379,17 +82383,17 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="C693" t="s" s="2">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" t="s" s="2">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="F693" s="2"/>
       <c r="G693" t="s" s="2">
@@ -82411,10 +82415,10 @@
         <v>585</v>
       </c>
       <c r="M693" t="s" s="2">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="N693" t="s" s="2">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="O693" s="2"/>
       <c r="P693" s="2"/>
@@ -82465,7 +82469,7 @@
         <v>77</v>
       </c>
       <c r="AG693" t="s" s="2">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="AH693" t="s" s="2">
         <v>78</v>
@@ -82482,17 +82486,17 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="C694" t="s" s="2">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" t="s" s="2">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="F694" s="2"/>
       <c r="G694" t="s" s="2">
@@ -82514,16 +82518,16 @@
         <v>142</v>
       </c>
       <c r="M694" t="s" s="2">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="N694" t="s" s="2">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="O694" t="s" s="2">
         <v>1336</v>
       </c>
       <c r="P694" t="s" s="2">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="Q694" t="s" s="2">
         <v>77</v>
@@ -82572,7 +82576,7 @@
         <v>77</v>
       </c>
       <c r="AG694" t="s" s="2">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="AH694" t="s" s="2">
         <v>78</v>
@@ -82589,13 +82593,13 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="C695" t="s" s="2">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" t="s" s="2">
@@ -82621,13 +82625,13 @@
         <v>106</v>
       </c>
       <c r="M695" t="s" s="2">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="N695" t="s" s="2">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="O695" t="s" s="2">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="P695" s="2"/>
       <c r="Q695" t="s" s="2">
@@ -82656,10 +82660,10 @@
         <v>154</v>
       </c>
       <c r="Z695" t="s" s="2">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AA695" t="s" s="2">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AB695" t="s" s="2">
         <v>77</v>
@@ -82677,7 +82681,7 @@
         <v>77</v>
       </c>
       <c r="AG695" t="s" s="2">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="AH695" t="s" s="2">
         <v>86</v>
@@ -82694,13 +82698,13 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="C696" t="s" s="2">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" t="s" s="2">
@@ -82726,13 +82730,13 @@
         <v>106</v>
       </c>
       <c r="M696" t="s" s="2">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="N696" t="s" s="2">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="O696" t="s" s="2">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="P696" s="2"/>
       <c r="Q696" t="s" s="2">
@@ -82761,10 +82765,10 @@
         <v>154</v>
       </c>
       <c r="Z696" t="s" s="2">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AA696" t="s" s="2">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="AB696" t="s" s="2">
         <v>77</v>
@@ -82782,7 +82786,7 @@
         <v>77</v>
       </c>
       <c r="AG696" t="s" s="2">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AH696" t="s" s="2">
         <v>86</v>
@@ -82799,13 +82803,13 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B697" t="s" s="2">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="C697" t="s" s="2">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="D697" s="2"/>
       <c r="E697" t="s" s="2">
@@ -82831,16 +82835,16 @@
         <v>163</v>
       </c>
       <c r="M697" t="s" s="2">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="N697" t="s" s="2">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="O697" t="s" s="2">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="P697" t="s" s="2">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="Q697" t="s" s="2">
         <v>77</v>
@@ -82868,10 +82872,10 @@
         <v>175</v>
       </c>
       <c r="Z697" t="s" s="2">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="AA697" t="s" s="2">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="AB697" t="s" s="2">
         <v>77</v>
@@ -82887,7 +82891,7 @@
         <v>179</v>
       </c>
       <c r="AG697" t="s" s="2">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="AH697" t="s" s="2">
         <v>78</v>
@@ -82904,13 +82908,13 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="C698" t="s" s="2">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="D698" t="s" s="2">
         <v>1263</v>
@@ -82938,16 +82942,16 @@
         <v>163</v>
       </c>
       <c r="M698" t="s" s="2">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="N698" t="s" s="2">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="O698" t="s" s="2">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="P698" t="s" s="2">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="Q698" t="s" s="2">
         <v>77</v>
@@ -82975,10 +82979,10 @@
         <v>154</v>
       </c>
       <c r="Z698" t="s" s="2">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="AA698" t="s" s="2">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="AB698" t="s" s="2">
         <v>77</v>
@@ -82996,7 +83000,7 @@
         <v>77</v>
       </c>
       <c r="AG698" t="s" s="2">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="AH698" t="s" s="2">
         <v>78</v>
@@ -83013,13 +83017,13 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="C699" t="s" s="2">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
@@ -83048,7 +83052,7 @@
         <v>1266</v>
       </c>
       <c r="N699" t="s" s="2">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="O699" s="2"/>
       <c r="P699" s="2"/>
@@ -83056,7 +83060,7 @@
         <v>77</v>
       </c>
       <c r="R699" t="s" s="2">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="S699" t="s" s="2">
         <v>77</v>
@@ -83101,7 +83105,7 @@
         <v>77</v>
       </c>
       <c r="AG699" t="s" s="2">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="AH699" t="s" s="2">
         <v>78</v>
@@ -83118,13 +83122,13 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B700" t="s" s="2">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="C700" t="s" s="2">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="D700" s="2"/>
       <c r="E700" t="s" s="2">
@@ -83150,67 +83154,67 @@
         <v>791</v>
       </c>
       <c r="M700" t="s" s="2">
+        <v>2255</v>
+      </c>
+      <c r="N700" t="s" s="2">
+        <v>2256</v>
+      </c>
+      <c r="O700" t="s" s="2">
+        <v>2257</v>
+      </c>
+      <c r="P700" t="s" s="2">
+        <v>2258</v>
+      </c>
+      <c r="Q700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R700" t="s" s="2">
+        <v>2259</v>
+      </c>
+      <c r="S700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF700" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG700" t="s" s="2">
         <v>2254</v>
-      </c>
-      <c r="N700" t="s" s="2">
-        <v>2255</v>
-      </c>
-      <c r="O700" t="s" s="2">
-        <v>2256</v>
-      </c>
-      <c r="P700" t="s" s="2">
-        <v>2257</v>
-      </c>
-      <c r="Q700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R700" t="s" s="2">
-        <v>2258</v>
-      </c>
-      <c r="S700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF700" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG700" t="s" s="2">
-        <v>2253</v>
       </c>
       <c r="AH700" t="s" s="2">
         <v>78</v>
@@ -83227,17 +83231,17 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B701" t="s" s="2">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="C701" t="s" s="2">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="F701" s="2"/>
       <c r="G701" t="s" s="2">
@@ -83259,13 +83263,13 @@
         <v>163</v>
       </c>
       <c r="M701" t="s" s="2">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="N701" t="s" s="2">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="O701" t="s" s="2">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="P701" s="2"/>
       <c r="Q701" t="s" s="2">
@@ -83295,7 +83299,7 @@
       </c>
       <c r="Z701" s="2"/>
       <c r="AA701" t="s" s="2">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="AB701" t="s" s="2">
         <v>77</v>
@@ -83313,7 +83317,7 @@
         <v>77</v>
       </c>
       <c r="AG701" t="s" s="2">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="AH701" t="s" s="2">
         <v>78</v>
@@ -83330,17 +83334,17 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="C702" t="s" s="2">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="F702" s="2"/>
       <c r="G702" t="s" s="2">
@@ -83362,13 +83366,13 @@
         <v>163</v>
       </c>
       <c r="M702" t="s" s="2">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="N702" t="s" s="2">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="O702" t="s" s="2">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="P702" s="2"/>
       <c r="Q702" t="s" s="2">
@@ -83397,10 +83401,10 @@
         <v>175</v>
       </c>
       <c r="Z702" t="s" s="2">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="AA702" t="s" s="2">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="AB702" t="s" s="2">
         <v>77</v>
@@ -83418,7 +83422,7 @@
         <v>77</v>
       </c>
       <c r="AG702" t="s" s="2">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="AH702" t="s" s="2">
         <v>78</v>
@@ -83427,7 +83431,7 @@
         <v>79</v>
       </c>
       <c r="AJ702" t="s" s="2">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="AK702" t="s" s="2">
         <v>98</v>
@@ -83435,13 +83439,13 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="C703" t="s" s="2">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
@@ -83464,17 +83468,17 @@
         <v>87</v>
       </c>
       <c r="L703" t="s" s="2">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="M703" t="s" s="2">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="N703" t="s" s="2">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="O703" s="2"/>
       <c r="P703" t="s" s="2">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="Q703" t="s" s="2">
         <v>77</v>
@@ -83523,7 +83527,7 @@
         <v>77</v>
       </c>
       <c r="AG703" t="s" s="2">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="AH703" t="s" s="2">
         <v>78</v>
@@ -83540,13 +83544,13 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -83569,13 +83573,13 @@
         <v>87</v>
       </c>
       <c r="L704" t="s" s="2">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="M704" t="s" s="2">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="N704" t="s" s="2">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="O704" s="2"/>
       <c r="P704" s="2"/>
@@ -83626,7 +83630,7 @@
         <v>77</v>
       </c>
       <c r="AG704" t="s" s="2">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="AH704" t="s" s="2">
         <v>86</v>
@@ -83643,17 +83647,17 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" t="s" s="2">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="F705" s="2"/>
       <c r="G705" t="s" s="2">
@@ -83675,10 +83679,10 @@
         <v>365</v>
       </c>
       <c r="M705" t="s" s="2">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="N705" t="s" s="2">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="O705" s="2"/>
       <c r="P705" s="2"/>
@@ -83729,7 +83733,7 @@
         <v>77</v>
       </c>
       <c r="AG705" t="s" s="2">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="AH705" t="s" s="2">
         <v>78</v>
@@ -83746,17 +83750,17 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="F706" s="2"/>
       <c r="G706" t="s" s="2">
@@ -83775,13 +83779,13 @@
         <v>87</v>
       </c>
       <c r="L706" t="s" s="2">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="M706" t="s" s="2">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="N706" t="s" s="2">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="O706" s="2"/>
       <c r="P706" s="2"/>
@@ -83832,7 +83836,7 @@
         <v>77</v>
       </c>
       <c r="AG706" t="s" s="2">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>78</v>
@@ -83849,13 +83853,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -83881,10 +83885,10 @@
         <v>1101</v>
       </c>
       <c r="M707" t="s" s="2">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="N707" t="s" s="2">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="O707" s="2"/>
       <c r="P707" s="2"/>
@@ -83914,7 +83918,7 @@
         <v>175</v>
       </c>
       <c r="Z707" t="s" s="2">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="AA707" t="s" s="2">
         <v>1106</v>
@@ -83935,7 +83939,7 @@
         <v>77</v>
       </c>
       <c r="AG707" t="s" s="2">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="AH707" t="s" s="2">
         <v>78</v>
@@ -83952,17 +83956,17 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="F708" s="2"/>
       <c r="G708" t="s" s="2">
@@ -83984,10 +83988,10 @@
         <v>346</v>
       </c>
       <c r="M708" t="s" s="2">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="N708" t="s" s="2">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="O708" s="2"/>
       <c r="P708" s="2"/>
@@ -84038,7 +84042,7 @@
         <v>77</v>
       </c>
       <c r="AG708" t="s" s="2">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="AH708" t="s" s="2">
         <v>78</v>
@@ -84055,17 +84059,17 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="F709" s="2"/>
       <c r="G709" t="s" s="2">
@@ -84084,16 +84088,16 @@
         <v>87</v>
       </c>
       <c r="L709" t="s" s="2">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="M709" t="s" s="2">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="N709" t="s" s="2">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="O709" t="s" s="2">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="P709" s="2"/>
       <c r="Q709" t="s" s="2">
@@ -84143,7 +84147,7 @@
         <v>77</v>
       </c>
       <c r="AG709" t="s" s="2">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="AH709" t="s" s="2">
         <v>78</v>
@@ -84160,17 +84164,17 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" t="s" s="2">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="F710" s="2"/>
       <c r="G710" t="s" s="2">
@@ -84192,13 +84196,13 @@
         <v>163</v>
       </c>
       <c r="M710" t="s" s="2">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="N710" t="s" s="2">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="O710" t="s" s="2">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="P710" s="2"/>
       <c r="Q710" t="s" s="2">
@@ -84227,10 +84231,10 @@
         <v>175</v>
       </c>
       <c r="Z710" t="s" s="2">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="AA710" t="s" s="2">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="AB710" t="s" s="2">
         <v>77</v>
@@ -84248,7 +84252,7 @@
         <v>77</v>
       </c>
       <c r="AG710" t="s" s="2">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="AH710" t="s" s="2">
         <v>78</v>
@@ -84265,17 +84269,17 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="C711" t="s" s="2">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" t="s" s="2">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="F711" s="2"/>
       <c r="G711" t="s" s="2">
@@ -84294,16 +84298,16 @@
         <v>87</v>
       </c>
       <c r="L711" t="s" s="2">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="M711" t="s" s="2">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="N711" t="s" s="2">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="O711" t="s" s="2">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="P711" s="2"/>
       <c r="Q711" t="s" s="2">
@@ -84353,7 +84357,7 @@
         <v>77</v>
       </c>
       <c r="AG711" t="s" s="2">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="AH711" t="s" s="2">
         <v>78</v>
@@ -84370,13 +84374,13 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="C712" t="s" s="2">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="D712" s="2"/>
       <c r="E712" t="s" s="2">
@@ -84402,10 +84406,10 @@
         <v>163</v>
       </c>
       <c r="M712" t="s" s="2">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="N712" t="s" s="2">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="O712" s="2"/>
       <c r="P712" s="2"/>
@@ -84435,10 +84439,10 @@
         <v>175</v>
       </c>
       <c r="Z712" t="s" s="2">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="AA712" t="s" s="2">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="AB712" t="s" s="2">
         <v>77</v>
@@ -84456,7 +84460,7 @@
         <v>77</v>
       </c>
       <c r="AG712" t="s" s="2">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="AH712" t="s" s="2">
         <v>78</v>
@@ -84473,13 +84477,13 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B713" t="s" s="2">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="C713" t="s" s="2">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="D713" s="2"/>
       <c r="E713" t="s" s="2">
@@ -84505,10 +84509,10 @@
         <v>1027</v>
       </c>
       <c r="M713" t="s" s="2">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="N713" t="s" s="2">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="O713" s="2"/>
       <c r="P713" s="2"/>
@@ -84559,7 +84563,7 @@
         <v>77</v>
       </c>
       <c r="AG713" t="s" s="2">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="AH713" t="s" s="2">
         <v>78</v>
@@ -84576,13 +84580,13 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B714" t="s" s="2">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="C714" t="s" s="2">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" t="s" s="2">
@@ -84608,13 +84612,13 @@
         <v>163</v>
       </c>
       <c r="M714" t="s" s="2">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="N714" t="s" s="2">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="O714" t="s" s="2">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="P714" s="2"/>
       <c r="Q714" t="s" s="2">
@@ -84662,7 +84666,7 @@
         <v>77</v>
       </c>
       <c r="AG714" t="s" s="2">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="AH714" t="s" s="2">
         <v>78</v>
@@ -84679,13 +84683,13 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B715" t="s" s="2">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="C715" t="s" s="2">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" t="s" s="2">
@@ -84708,16 +84712,16 @@
         <v>87</v>
       </c>
       <c r="L715" t="s" s="2">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="M715" t="s" s="2">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="N715" t="s" s="2">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="O715" t="s" s="2">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="P715" s="2"/>
       <c r="Q715" t="s" s="2">
@@ -84767,7 +84771,7 @@
         <v>77</v>
       </c>
       <c r="AG715" t="s" s="2">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="AH715" t="s" s="2">
         <v>78</v>
@@ -84784,13 +84788,13 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="C716" t="s" s="2">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" t="s" s="2">
@@ -84819,7 +84823,7 @@
         <v>1345</v>
       </c>
       <c r="N716" t="s" s="2">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="O716" s="2"/>
       <c r="P716" s="2"/>
@@ -84870,7 +84874,7 @@
         <v>77</v>
       </c>
       <c r="AG716" t="s" s="2">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="AH716" t="s" s="2">
         <v>78</v>
@@ -84887,17 +84891,17 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="C717" t="s" s="2">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" t="s" s="2">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="F717" s="2"/>
       <c r="G717" t="s" s="2">
@@ -84919,13 +84923,13 @@
         <v>395</v>
       </c>
       <c r="M717" t="s" s="2">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="N717" t="s" s="2">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="O717" t="s" s="2">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="P717" s="2"/>
       <c r="Q717" t="s" s="2">
@@ -84975,7 +84979,7 @@
         <v>77</v>
       </c>
       <c r="AG717" t="s" s="2">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="AH717" t="s" s="2">
         <v>78</v>
@@ -84992,13 +84996,13 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B718" t="s" s="2">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="C718" t="s" s="2">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="D718" s="2"/>
       <c r="E718" t="s" s="2">
@@ -85024,13 +85028,13 @@
         <v>1572</v>
       </c>
       <c r="M718" t="s" s="2">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="N718" t="s" s="2">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="O718" t="s" s="2">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="P718" s="2"/>
       <c r="Q718" t="s" s="2">
@@ -85080,7 +85084,7 @@
         <v>77</v>
       </c>
       <c r="AG718" t="s" s="2">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="AH718" t="s" s="2">
         <v>78</v>
@@ -85097,17 +85101,17 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B719" t="s" s="2">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="C719" t="s" s="2">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="D719" s="2"/>
       <c r="E719" t="s" s="2">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="F719" s="2"/>
       <c r="G719" t="s" s="2">
@@ -85129,16 +85133,16 @@
         <v>163</v>
       </c>
       <c r="M719" t="s" s="2">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="N719" t="s" s="2">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="O719" t="s" s="2">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="P719" t="s" s="2">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="Q719" t="s" s="2">
         <v>77</v>
@@ -85187,7 +85191,7 @@
         <v>77</v>
       </c>
       <c r="AG719" t="s" s="2">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="AH719" t="s" s="2">
         <v>78</v>
@@ -85204,13 +85208,13 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="C720" t="s" s="2">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="D720" s="2"/>
       <c r="E720" t="s" s="2">
@@ -85239,7 +85243,7 @@
         <v>54</v>
       </c>
       <c r="N720" t="s" s="2">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="O720" s="2"/>
       <c r="P720" s="2"/>
@@ -85290,7 +85294,7 @@
         <v>77</v>
       </c>
       <c r="AG720" t="s" s="2">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="AH720" t="s" s="2">
         <v>78</v>
@@ -85307,13 +85311,13 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B721" t="s" s="2">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="C721" t="s" s="2">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="D721" s="2"/>
       <c r="E721" t="s" s="2">
@@ -85339,7 +85343,7 @@
         <v>206</v>
       </c>
       <c r="M721" t="s" s="2">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="N721" t="s" s="2">
         <v>1091</v>
@@ -85393,7 +85397,7 @@
         <v>77</v>
       </c>
       <c r="AG721" t="s" s="2">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="AH721" t="s" s="2">
         <v>78</v>
@@ -85410,13 +85414,13 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B722" t="s" s="2">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="C722" t="s" s="2">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="D722" s="2"/>
       <c r="E722" t="s" s="2">
@@ -85442,13 +85446,13 @@
         <v>1207</v>
       </c>
       <c r="M722" t="s" s="2">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="N722" t="s" s="2">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="O722" t="s" s="2">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="P722" s="2"/>
       <c r="Q722" t="s" s="2">
@@ -85498,7 +85502,7 @@
         <v>77</v>
       </c>
       <c r="AG722" t="s" s="2">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="AH722" t="s" s="2">
         <v>78</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24158" uniqueCount="2354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24158" uniqueCount="2355">
   <si>
     <t>Property</t>
   </si>
@@ -2869,10 +2869,10 @@
     <t>Whether the individual needs an interpreter</t>
   </si>
   <si>
-    <t>Yes|No|Unknown|Not Asked ☞☞☞ Use Snomed CT values in final version to meet USCDI terminology requirement</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/yes-no-unknown-not-asked</t>
+    <t>Answer Set with Yes No and Unknowns</t>
+  </si>
+  <si>
+    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1267.16</t>
   </si>
   <si>
     <t>us-core-medicationdispense</t>
@@ -5159,16 +5159,19 @@
     <t>An `Observation.performer` of type Practitioner or Organization typically made the Observation, and an `Observation.performer` of Patient or RelatedPerson usually is the source of information (for example, a next of kin who answers questions about the patient's advance directives) Systems may use the standard [Performer function Extension ](http://hl7.org/fhir/StructureDefinition/event-performerFunction) to distinguish the type of involvement of the performer in the Observation.</t>
   </si>
   <si>
+    <t>us-core-observation-adi-presence</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-adi-presence</t>
+  </si>
+  <si>
+    <t>USCoreObservationADIPresenceProfile</t>
+  </si>
+  <si>
     <t>Yes|No|Unknown|Not Asked (Use Snomed CT values in final version?)</t>
   </si>
   <si>
-    <t>us-core-observation-adi-presence</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-adi-presence</t>
-  </si>
-  <si>
-    <t>USCoreObservationADIPresenceProfile</t>
+    <t>http://terminology.hl7.org/ValueSet/yes-no-unknown-not-asked</t>
   </si>
   <si>
     <t>us-core-patient</t>
@@ -9093,7 +9096,7 @@
         <v>2</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="206">
@@ -9101,7 +9104,7 @@
         <v>4</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="207">
@@ -9117,7 +9120,7 @@
         <v>8</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="209">
@@ -9267,7 +9270,7 @@
         <v>2</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="228">
@@ -9275,7 +9278,7 @@
         <v>4</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="229">
@@ -9291,7 +9294,7 @@
         <v>8</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="231">
@@ -9299,7 +9302,7 @@
         <v>10</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="232">
@@ -9363,7 +9366,7 @@
         <v>25</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="240">
@@ -9401,7 +9404,7 @@
         <v>34</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="245">
@@ -9409,7 +9412,7 @@
         <v>36</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="246">
@@ -9441,7 +9444,7 @@
         <v>2</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="250">
@@ -9449,7 +9452,7 @@
         <v>4</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="251">
@@ -9465,7 +9468,7 @@
         <v>8</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="253">
@@ -9473,7 +9476,7 @@
         <v>10</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="254">
@@ -9535,7 +9538,7 @@
         <v>25</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="262">
@@ -9573,7 +9576,7 @@
         <v>34</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="267">
@@ -9581,7 +9584,7 @@
         <v>36</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>2031</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="268">
@@ -9613,7 +9616,7 @@
         <v>2</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="272">
@@ -9621,7 +9624,7 @@
         <v>4</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>2181</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="273">
@@ -9637,7 +9640,7 @@
         <v>8</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>2182</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="275">
@@ -9645,7 +9648,7 @@
         <v>10</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>2183</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="276">
@@ -9707,7 +9710,7 @@
         <v>25</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>2184</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="284">
@@ -9745,7 +9748,7 @@
         <v>34</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="289">
@@ -9753,7 +9756,7 @@
         <v>36</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="290">
@@ -56855,7 +56858,7 @@
         <v>162</v>
       </c>
       <c r="Z450" t="s" s="2">
-        <v>1659</v>
+        <v>922</v>
       </c>
       <c r="AA450" t="s" s="2">
         <v>923</v>
@@ -59853,7 +59856,7 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>1421</v>
@@ -59958,7 +59961,7 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>1427</v>
@@ -60063,7 +60066,7 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>1428</v>
@@ -60166,7 +60169,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>1429</v>
@@ -60271,7 +60274,7 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>1430</v>
@@ -60376,7 +60379,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>1431</v>
@@ -60481,7 +60484,7 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>1432</v>
@@ -60586,7 +60589,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>1433</v>
@@ -60691,7 +60694,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>1434</v>
@@ -60798,7 +60801,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>1435</v>
@@ -60903,7 +60906,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>1439</v>
@@ -61008,7 +61011,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>1445</v>
@@ -61113,7 +61116,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>1451</v>
@@ -61220,7 +61223,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>1457</v>
@@ -61325,7 +61328,7 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>1464</v>
@@ -61434,7 +61437,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>1466</v>
@@ -61541,7 +61544,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>1473</v>
@@ -61648,7 +61651,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>1478</v>
@@ -61753,7 +61756,7 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>1483</v>
@@ -61860,7 +61863,7 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>1489</v>
@@ -61967,7 +61970,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>1496</v>
@@ -62072,7 +62075,7 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>1500</v>
@@ -62177,7 +62180,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>1505</v>
@@ -62246,10 +62249,10 @@
         <v>162</v>
       </c>
       <c r="Z501" t="s" s="2">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="AA501" t="s" s="2">
-        <v>923</v>
+        <v>1663</v>
       </c>
       <c r="AB501" t="s" s="2">
         <v>77</v>
@@ -62284,7 +62287,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>1512</v>
@@ -62391,7 +62394,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>1520</v>
@@ -62498,7 +62501,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>1528</v>
@@ -62605,7 +62608,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>1533</v>
@@ -62710,7 +62713,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>1539</v>
@@ -62817,7 +62820,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>1546</v>
@@ -62922,7 +62925,7 @@
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>1551</v>
@@ -63027,7 +63030,7 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>1556</v>
@@ -63134,7 +63137,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>1562</v>
@@ -63237,7 +63240,7 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>1563</v>
@@ -63342,7 +63345,7 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>1564</v>
@@ -63449,7 +63452,7 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>1565</v>
@@ -63552,7 +63555,7 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>1569</v>
@@ -63655,7 +63658,7 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>1572</v>
@@ -63762,7 +63765,7 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>1579</v>
@@ -63869,7 +63872,7 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>1586</v>
@@ -63974,7 +63977,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>1591</v>
@@ -64077,7 +64080,7 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>1594</v>
@@ -64182,7 +64185,7 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>1599</v>
@@ -64287,7 +64290,7 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>1604</v>
@@ -64394,7 +64397,7 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>1609</v>
@@ -64497,7 +64500,7 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>1610</v>
@@ -64602,7 +64605,7 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>1611</v>
@@ -64709,7 +64712,7 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>1612</v>
@@ -64816,7 +64819,7 @@
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>1618</v>
@@ -64923,7 +64926,7 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>1622</v>
@@ -65030,7 +65033,7 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>1626</v>
@@ -65137,7 +65140,7 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>1627</v>
@@ -65244,17 +65247,17 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" t="s" s="2">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="F530" s="2"/>
       <c r="G530" t="s" s="2">
@@ -65276,10 +65279,10 @@
         <v>80</v>
       </c>
       <c r="M530" t="s" s="2">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="N530" t="s" s="2">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="O530" s="2"/>
       <c r="P530" s="2"/>
@@ -65330,7 +65333,7 @@
         <v>77</v>
       </c>
       <c r="AG530" t="s" s="2">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="AH530" t="s" s="2">
         <v>78</v>
@@ -65347,13 +65350,13 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" t="s" s="2">
@@ -65452,13 +65455,13 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" t="s" s="2">
@@ -65555,13 +65558,13 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" t="s" s="2">
@@ -65660,13 +65663,13 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="D534" s="2"/>
       <c r="E534" t="s" s="2">
@@ -65765,13 +65768,13 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
@@ -65870,13 +65873,13 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
@@ -65975,13 +65978,13 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -66076,16 +66079,16 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B538" t="s" s="2">
+        <v>1681</v>
+      </c>
+      <c r="C538" t="s" s="2">
         <v>1680</v>
       </c>
-      <c r="C538" t="s" s="2">
-        <v>1679</v>
-      </c>
       <c r="D538" t="s" s="2">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="E538" t="s" s="2">
         <v>77</v>
@@ -66107,13 +66110,13 @@
         <v>77</v>
       </c>
       <c r="L538" t="s" s="2">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="M538" t="s" s="2">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="N538" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="O538" s="2"/>
       <c r="P538" s="2"/>
@@ -66173,24 +66176,24 @@
         <v>79</v>
       </c>
       <c r="AJ538" t="s" s="2">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="AK538" t="s" s="2">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D539" t="s" s="2">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="E539" t="s" s="2">
         <v>77</v>
@@ -66212,13 +66215,13 @@
         <v>77</v>
       </c>
       <c r="L539" t="s" s="2">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="M539" t="s" s="2">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="N539" t="s" s="2">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="O539" s="2"/>
       <c r="P539" s="2"/>
@@ -66286,16 +66289,16 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D540" t="s" s="2">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="E540" t="s" s="2">
         <v>77</v>
@@ -66317,13 +66320,13 @@
         <v>77</v>
       </c>
       <c r="L540" t="s" s="2">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="M540" t="s" s="2">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="N540" t="s" s="2">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="O540" s="2"/>
       <c r="P540" s="2"/>
@@ -66391,16 +66394,16 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D541" t="s" s="2">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="E541" t="s" s="2">
         <v>77</v>
@@ -66422,16 +66425,16 @@
         <v>77</v>
       </c>
       <c r="L541" t="s" s="2">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="M541" t="s" s="2">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="N541" t="s" s="2">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="O541" t="s" s="2">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="P541" s="2"/>
       <c r="Q541" t="s" s="2">
@@ -66498,16 +66501,16 @@
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D542" t="s" s="2">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="E542" t="s" s="2">
         <v>77</v>
@@ -66529,13 +66532,13 @@
         <v>77</v>
       </c>
       <c r="L542" t="s" s="2">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="M542" t="s" s="2">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="N542" t="s" s="2">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="O542" s="2"/>
       <c r="P542" s="2"/>
@@ -66603,16 +66606,16 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D543" t="s" s="2">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="E543" t="s" s="2">
         <v>77</v>
@@ -66634,13 +66637,13 @@
         <v>77</v>
       </c>
       <c r="L543" t="s" s="2">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="M543" t="s" s="2">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="N543" t="s" s="2">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="O543" s="2"/>
       <c r="P543" s="2"/>
@@ -66708,16 +66711,16 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D544" t="s" s="2">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="E544" t="s" s="2">
         <v>77</v>
@@ -66739,16 +66742,16 @@
         <v>77</v>
       </c>
       <c r="L544" t="s" s="2">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="M544" t="s" s="2">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="N544" t="s" s="2">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="O544" t="s" s="2">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="P544" s="2"/>
       <c r="Q544" t="s" s="2">
@@ -66815,16 +66818,16 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D545" t="s" s="2">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="E545" t="s" s="2">
         <v>77</v>
@@ -66846,13 +66849,13 @@
         <v>77</v>
       </c>
       <c r="L545" t="s" s="2">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="M545" t="s" s="2">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="N545" t="s" s="2">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="O545" s="2"/>
       <c r="P545" s="2"/>
@@ -66920,13 +66923,13 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D546" t="s" s="2">
         <v>449</v>
@@ -67027,13 +67030,13 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -67134,13 +67137,13 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -67166,14 +67169,14 @@
         <v>150</v>
       </c>
       <c r="M548" t="s" s="2">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="N548" t="s" s="2">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="O548" s="2"/>
       <c r="P548" t="s" s="2">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="Q548" t="s" s="2">
         <v>77</v>
@@ -67222,7 +67225,7 @@
         <v>77</v>
       </c>
       <c r="AG548" t="s" s="2">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="AH548" t="s" s="2">
         <v>78</v>
@@ -67239,13 +67242,13 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -67342,13 +67345,13 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -67447,13 +67450,13 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -67554,13 +67557,13 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -67661,13 +67664,13 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -67768,13 +67771,13 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -67800,7 +67803,7 @@
         <v>223</v>
       </c>
       <c r="M554" t="s" s="2">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="N554" t="s" s="2">
         <v>485</v>
@@ -67873,13 +67876,13 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -67976,13 +67979,13 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -68081,13 +68084,13 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -68113,67 +68116,67 @@
         <v>766</v>
       </c>
       <c r="M557" t="s" s="2">
+        <v>1741</v>
+      </c>
+      <c r="N557" t="s" s="2">
+        <v>1742</v>
+      </c>
+      <c r="O557" t="s" s="2">
+        <v>1743</v>
+      </c>
+      <c r="P557" t="s" s="2">
+        <v>1744</v>
+      </c>
+      <c r="Q557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R557" t="s" s="2">
+        <v>1745</v>
+      </c>
+      <c r="S557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG557" t="s" s="2">
         <v>1740</v>
-      </c>
-      <c r="N557" t="s" s="2">
-        <v>1741</v>
-      </c>
-      <c r="O557" t="s" s="2">
-        <v>1742</v>
-      </c>
-      <c r="P557" t="s" s="2">
-        <v>1743</v>
-      </c>
-      <c r="Q557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R557" t="s" s="2">
-        <v>1744</v>
-      </c>
-      <c r="S557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG557" t="s" s="2">
-        <v>1739</v>
       </c>
       <c r="AH557" t="s" s="2">
         <v>78</v>
@@ -68190,13 +68193,13 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -68219,19 +68222,19 @@
         <v>87</v>
       </c>
       <c r="L558" t="s" s="2">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="M558" t="s" s="2">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="N558" t="s" s="2">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="O558" t="s" s="2">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="P558" t="s" s="2">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="Q558" t="s" s="2">
         <v>77</v>
@@ -68280,7 +68283,7 @@
         <v>77</v>
       </c>
       <c r="AG558" t="s" s="2">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="AH558" t="s" s="2">
         <v>78</v>
@@ -68292,18 +68295,18 @@
         <v>77</v>
       </c>
       <c r="AK558" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -68400,13 +68403,13 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -68505,13 +68508,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -68537,16 +68540,16 @@
         <v>106</v>
       </c>
       <c r="M561" t="s" s="2">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="N561" t="s" s="2">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="O561" t="s" s="2">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="P561" t="s" s="2">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="Q561" t="s" s="2">
         <v>77</v>
@@ -68574,10 +68577,10 @@
         <v>162</v>
       </c>
       <c r="Z561" t="s" s="2">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="AA561" t="s" s="2">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="AB561" t="s" s="2">
         <v>77</v>
@@ -68595,7 +68598,7 @@
         <v>77</v>
       </c>
       <c r="AG561" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="AH561" t="s" s="2">
         <v>78</v>
@@ -68612,13 +68615,13 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
@@ -68644,16 +68647,16 @@
         <v>223</v>
       </c>
       <c r="M562" t="s" s="2">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="N562" t="s" s="2">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="O562" t="s" s="2">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="P562" t="s" s="2">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="Q562" t="s" s="2">
         <v>77</v>
@@ -68702,7 +68705,7 @@
         <v>77</v>
       </c>
       <c r="AG562" t="s" s="2">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="AH562" t="s" s="2">
         <v>78</v>
@@ -68719,17 +68722,17 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="F563" s="2"/>
       <c r="G563" t="s" s="2">
@@ -68751,13 +68754,13 @@
         <v>223</v>
       </c>
       <c r="M563" t="s" s="2">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="N563" t="s" s="2">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="O563" t="s" s="2">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="P563" s="2"/>
       <c r="Q563" t="s" s="2">
@@ -68807,7 +68810,7 @@
         <v>77</v>
       </c>
       <c r="AG563" t="s" s="2">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="AH563" t="s" s="2">
         <v>78</v>
@@ -68824,17 +68827,17 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="F564" s="2"/>
       <c r="G564" t="s" s="2">
@@ -68856,13 +68859,13 @@
         <v>223</v>
       </c>
       <c r="M564" t="s" s="2">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="N564" t="s" s="2">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="O564" t="s" s="2">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P564" s="2"/>
       <c r="Q564" t="s" s="2">
@@ -68912,7 +68915,7 @@
         <v>77</v>
       </c>
       <c r="AG564" t="s" s="2">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="AH564" t="s" s="2">
         <v>78</v>
@@ -68929,13 +68932,13 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -68961,10 +68964,10 @@
         <v>223</v>
       </c>
       <c r="M565" t="s" s="2">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="N565" t="s" s="2">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="O565" s="2"/>
       <c r="P565" s="2"/>
@@ -69015,7 +69018,7 @@
         <v>77</v>
       </c>
       <c r="AG565" t="s" s="2">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="AH565" t="s" s="2">
         <v>78</v>
@@ -69032,13 +69035,13 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -69064,10 +69067,10 @@
         <v>223</v>
       </c>
       <c r="M566" t="s" s="2">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="N566" t="s" s="2">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="O566" s="2"/>
       <c r="P566" s="2"/>
@@ -69118,7 +69121,7 @@
         <v>77</v>
       </c>
       <c r="AG566" t="s" s="2">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="AH566" t="s" s="2">
         <v>78</v>
@@ -69135,13 +69138,13 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -69167,14 +69170,14 @@
         <v>352</v>
       </c>
       <c r="M567" t="s" s="2">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="N567" t="s" s="2">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="O567" s="2"/>
       <c r="P567" t="s" s="2">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="Q567" t="s" s="2">
         <v>77</v>
@@ -69223,7 +69226,7 @@
         <v>77</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>78</v>
@@ -69240,13 +69243,13 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -69269,19 +69272,19 @@
         <v>87</v>
       </c>
       <c r="L568" t="s" s="2">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="M568" t="s" s="2">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="N568" t="s" s="2">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="O568" t="s" s="2">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="P568" t="s" s="2">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="Q568" t="s" s="2">
         <v>77</v>
@@ -69330,7 +69333,7 @@
         <v>77</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>78</v>
@@ -69347,13 +69350,13 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -69450,13 +69453,13 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -69555,13 +69558,13 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -69587,10 +69590,10 @@
         <v>106</v>
       </c>
       <c r="M571" t="s" s="2">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="N571" t="s" s="2">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="O571" s="2"/>
       <c r="P571" s="2"/>
@@ -69620,10 +69623,10 @@
         <v>162</v>
       </c>
       <c r="Z571" t="s" s="2">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="AA571" t="s" s="2">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="AB571" t="s" s="2">
         <v>77</v>
@@ -69641,7 +69644,7 @@
         <v>77</v>
       </c>
       <c r="AG571" t="s" s="2">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="AH571" t="s" s="2">
         <v>78</v>
@@ -69650,7 +69653,7 @@
         <v>86</v>
       </c>
       <c r="AJ571" t="s" s="2">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="AK571" t="s" s="2">
         <v>98</v>
@@ -69658,13 +69661,13 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -69690,16 +69693,16 @@
         <v>223</v>
       </c>
       <c r="M572" t="s" s="2">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="N572" t="s" s="2">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="O572" t="s" s="2">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="P572" t="s" s="2">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="Q572" t="s" s="2">
         <v>77</v>
@@ -69748,7 +69751,7 @@
         <v>77</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>78</v>
@@ -69765,13 +69768,13 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -69797,16 +69800,16 @@
         <v>106</v>
       </c>
       <c r="M573" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="N573" t="s" s="2">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="O573" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="P573" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="Q573" t="s" s="2">
         <v>77</v>
@@ -69835,7 +69838,7 @@
       </c>
       <c r="Z573" s="2"/>
       <c r="AA573" t="s" s="2">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="AB573" t="s" s="2">
         <v>77</v>
@@ -69853,7 +69856,7 @@
         <v>77</v>
       </c>
       <c r="AG573" t="s" s="2">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="AH573" t="s" s="2">
         <v>78</v>
@@ -69870,13 +69873,13 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -69902,13 +69905,13 @@
         <v>620</v>
       </c>
       <c r="M574" t="s" s="2">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="N574" t="s" s="2">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="O574" t="s" s="2">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="P574" s="2"/>
       <c r="Q574" t="s" s="2">
@@ -69958,7 +69961,7 @@
         <v>77</v>
       </c>
       <c r="AG574" t="s" s="2">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="AH574" t="s" s="2">
         <v>78</v>
@@ -69975,13 +69978,13 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -70007,10 +70010,10 @@
         <v>352</v>
       </c>
       <c r="M575" t="s" s="2">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="N575" t="s" s="2">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="O575" s="2"/>
       <c r="P575" s="2"/>
@@ -70061,7 +70064,7 @@
         <v>77</v>
       </c>
       <c r="AG575" t="s" s="2">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="AH575" t="s" s="2">
         <v>78</v>
@@ -70078,13 +70081,13 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -70110,16 +70113,16 @@
         <v>106</v>
       </c>
       <c r="M576" t="s" s="2">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="N576" t="s" s="2">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="O576" t="s" s="2">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="P576" t="s" s="2">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="Q576" t="s" s="2">
         <v>77</v>
@@ -70148,7 +70151,7 @@
       </c>
       <c r="Z576" s="2"/>
       <c r="AA576" t="s" s="2">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="AB576" t="s" s="2">
         <v>77</v>
@@ -70166,7 +70169,7 @@
         <v>77</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>78</v>
@@ -70183,13 +70186,13 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -70215,16 +70218,16 @@
         <v>786</v>
       </c>
       <c r="M577" t="s" s="2">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="N577" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="O577" t="s" s="2">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="P577" t="s" s="2">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="Q577" t="s" s="2">
         <v>77</v>
@@ -70273,7 +70276,7 @@
         <v>77</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>78</v>
@@ -70290,13 +70293,13 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -70319,19 +70322,19 @@
         <v>87</v>
       </c>
       <c r="L578" t="s" s="2">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="M578" t="s" s="2">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="N578" t="s" s="2">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="O578" t="s" s="2">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="P578" t="s" s="2">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="Q578" t="s" s="2">
         <v>77</v>
@@ -70380,7 +70383,7 @@
         <v>77</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>78</v>
@@ -70397,13 +70400,13 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -70426,19 +70429,19 @@
         <v>87</v>
       </c>
       <c r="L579" t="s" s="2">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="M579" t="s" s="2">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="N579" t="s" s="2">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="O579" t="s" s="2">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="P579" t="s" s="2">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="Q579" t="s" s="2">
         <v>77</v>
@@ -70487,7 +70490,7 @@
         <v>77</v>
       </c>
       <c r="AG579" t="s" s="2">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="AH579" t="s" s="2">
         <v>78</v>
@@ -70504,13 +70507,13 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -70607,13 +70610,13 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -70712,13 +70715,13 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -70744,16 +70747,16 @@
         <v>106</v>
       </c>
       <c r="M582" t="s" s="2">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="N582" t="s" s="2">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="O582" t="s" s="2">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="P582" t="s" s="2">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="Q582" t="s" s="2">
         <v>77</v>
@@ -70766,7 +70769,7 @@
         <v>77</v>
       </c>
       <c r="U582" t="s" s="2">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="V582" t="s" s="2">
         <v>77</v>
@@ -70781,10 +70784,10 @@
         <v>162</v>
       </c>
       <c r="Z582" t="s" s="2">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="AA582" t="s" s="2">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="AB582" t="s" s="2">
         <v>77</v>
@@ -70802,7 +70805,7 @@
         <v>77</v>
       </c>
       <c r="AG582" t="s" s="2">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="AH582" t="s" s="2">
         <v>78</v>
@@ -70819,13 +70822,13 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -70851,13 +70854,13 @@
         <v>106</v>
       </c>
       <c r="M583" t="s" s="2">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="N583" t="s" s="2">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="O583" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="P583" s="2"/>
       <c r="Q583" t="s" s="2">
@@ -70871,7 +70874,7 @@
         <v>77</v>
       </c>
       <c r="U583" t="s" s="2">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="V583" t="s" s="2">
         <v>77</v>
@@ -70886,10 +70889,10 @@
         <v>162</v>
       </c>
       <c r="Z583" t="s" s="2">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="AA583" t="s" s="2">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="AB583" t="s" s="2">
         <v>77</v>
@@ -70907,7 +70910,7 @@
         <v>77</v>
       </c>
       <c r="AG583" t="s" s="2">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="AH583" t="s" s="2">
         <v>78</v>
@@ -70924,13 +70927,13 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -70956,16 +70959,16 @@
         <v>223</v>
       </c>
       <c r="M584" t="s" s="2">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="N584" t="s" s="2">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="O584" t="s" s="2">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="P584" t="s" s="2">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="Q584" t="s" s="2">
         <v>77</v>
@@ -70978,7 +70981,7 @@
         <v>77</v>
       </c>
       <c r="U584" t="s" s="2">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="V584" t="s" s="2">
         <v>77</v>
@@ -71014,7 +71017,7 @@
         <v>77</v>
       </c>
       <c r="AG584" t="s" s="2">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="AH584" t="s" s="2">
         <v>78</v>
@@ -71031,13 +71034,13 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -71063,10 +71066,10 @@
         <v>223</v>
       </c>
       <c r="M585" t="s" s="2">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="N585" t="s" s="2">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="O585" s="2"/>
       <c r="P585" s="2"/>
@@ -71081,7 +71084,7 @@
         <v>77</v>
       </c>
       <c r="U585" t="s" s="2">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="V585" t="s" s="2">
         <v>77</v>
@@ -71117,7 +71120,7 @@
         <v>77</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="AH585" t="s" s="2">
         <v>78</v>
@@ -71134,17 +71137,17 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="F586" s="2"/>
       <c r="G586" t="s" s="2">
@@ -71166,10 +71169,10 @@
         <v>223</v>
       </c>
       <c r="M586" t="s" s="2">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="N586" t="s" s="2">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="O586" s="2"/>
       <c r="P586" s="2"/>
@@ -71184,7 +71187,7 @@
         <v>77</v>
       </c>
       <c r="U586" t="s" s="2">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="V586" t="s" s="2">
         <v>77</v>
@@ -71220,7 +71223,7 @@
         <v>77</v>
       </c>
       <c r="AG586" t="s" s="2">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="AH586" t="s" s="2">
         <v>78</v>
@@ -71237,17 +71240,17 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="F587" s="2"/>
       <c r="G587" t="s" s="2">
@@ -71269,13 +71272,13 @@
         <v>223</v>
       </c>
       <c r="M587" t="s" s="2">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="N587" t="s" s="2">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="O587" t="s" s="2">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="P587" s="2"/>
       <c r="Q587" t="s" s="2">
@@ -71289,7 +71292,7 @@
         <v>77</v>
       </c>
       <c r="U587" t="s" s="2">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="V587" t="s" s="2">
         <v>77</v>
@@ -71325,7 +71328,7 @@
         <v>77</v>
       </c>
       <c r="AG587" t="s" s="2">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="AH587" t="s" s="2">
         <v>78</v>
@@ -71342,17 +71345,17 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="F588" s="2"/>
       <c r="G588" t="s" s="2">
@@ -71374,10 +71377,10 @@
         <v>223</v>
       </c>
       <c r="M588" t="s" s="2">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="N588" t="s" s="2">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="O588" s="2"/>
       <c r="P588" s="2"/>
@@ -71392,7 +71395,7 @@
         <v>77</v>
       </c>
       <c r="U588" t="s" s="2">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="V588" t="s" s="2">
         <v>77</v>
@@ -71407,10 +71410,10 @@
         <v>175</v>
       </c>
       <c r="Z588" t="s" s="2">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="AA588" t="s" s="2">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="AB588" t="s" s="2">
         <v>77</v>
@@ -71428,7 +71431,7 @@
         <v>77</v>
       </c>
       <c r="AG588" t="s" s="2">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="AH588" t="s" s="2">
         <v>78</v>
@@ -71445,17 +71448,17 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="F589" s="2"/>
       <c r="G589" t="s" s="2">
@@ -71477,10 +71480,10 @@
         <v>223</v>
       </c>
       <c r="M589" t="s" s="2">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="N589" t="s" s="2">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="O589" s="2"/>
       <c r="P589" s="2"/>
@@ -71495,7 +71498,7 @@
         <v>77</v>
       </c>
       <c r="U589" t="s" s="2">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="V589" t="s" s="2">
         <v>77</v>
@@ -71531,7 +71534,7 @@
         <v>77</v>
       </c>
       <c r="AG589" t="s" s="2">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="AH589" t="s" s="2">
         <v>78</v>
@@ -71548,13 +71551,13 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -71580,13 +71583,13 @@
         <v>223</v>
       </c>
       <c r="M590" t="s" s="2">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="N590" t="s" s="2">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="O590" t="s" s="2">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="P590" s="2"/>
       <c r="Q590" t="s" s="2">
@@ -71636,7 +71639,7 @@
         <v>77</v>
       </c>
       <c r="AG590" t="s" s="2">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="AH590" t="s" s="2">
         <v>78</v>
@@ -71653,13 +71656,13 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -71685,14 +71688,14 @@
         <v>352</v>
       </c>
       <c r="M591" t="s" s="2">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="N591" t="s" s="2">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="O591" s="2"/>
       <c r="P591" t="s" s="2">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="Q591" t="s" s="2">
         <v>77</v>
@@ -71705,7 +71708,7 @@
         <v>77</v>
       </c>
       <c r="U591" t="s" s="2">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="V591" t="s" s="2">
         <v>77</v>
@@ -71741,7 +71744,7 @@
         <v>77</v>
       </c>
       <c r="AG591" t="s" s="2">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="AH591" t="s" s="2">
         <v>78</v>
@@ -71758,13 +71761,13 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -71790,14 +71793,14 @@
         <v>171</v>
       </c>
       <c r="M592" t="s" s="2">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="N592" t="s" s="2">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="O592" s="2"/>
       <c r="P592" t="s" s="2">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="Q592" t="s" s="2">
         <v>77</v>
@@ -71825,10 +71828,10 @@
         <v>175</v>
       </c>
       <c r="Z592" t="s" s="2">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="AA592" t="s" s="2">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="AB592" t="s" s="2">
         <v>77</v>
@@ -71846,7 +71849,7 @@
         <v>77</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>78</v>
@@ -71863,13 +71866,13 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="C593" t="s" s="2">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="D593" s="2"/>
       <c r="E593" t="s" s="2">
@@ -71892,19 +71895,19 @@
         <v>77</v>
       </c>
       <c r="L593" t="s" s="2">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="M593" t="s" s="2">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="N593" t="s" s="2">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="O593" t="s" s="2">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="P593" t="s" s="2">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="Q593" t="s" s="2">
         <v>77</v>
@@ -71953,7 +71956,7 @@
         <v>77</v>
       </c>
       <c r="AG593" t="s" s="2">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="AH593" t="s" s="2">
         <v>78</v>
@@ -71970,13 +71973,13 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C594" t="s" s="2">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" t="s" s="2">
@@ -72002,16 +72005,16 @@
         <v>265</v>
       </c>
       <c r="M594" t="s" s="2">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="N594" t="s" s="2">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="O594" t="s" s="2">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="P594" t="s" s="2">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="Q594" t="s" s="2">
         <v>77</v>
@@ -72060,7 +72063,7 @@
         <v>77</v>
       </c>
       <c r="AG594" t="s" s="2">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="AH594" t="s" s="2">
         <v>78</v>
@@ -72077,13 +72080,13 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="C595" t="s" s="2">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" t="s" s="2">
@@ -72109,16 +72112,16 @@
         <v>218</v>
       </c>
       <c r="M595" t="s" s="2">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="N595" t="s" s="2">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="O595" t="s" s="2">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="P595" t="s" s="2">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="Q595" t="s" s="2">
         <v>77</v>
@@ -72167,7 +72170,7 @@
         <v>77</v>
       </c>
       <c r="AG595" t="s" s="2">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="AH595" t="s" s="2">
         <v>78</v>
@@ -72179,18 +72182,18 @@
         <v>77</v>
       </c>
       <c r="AK595" t="s" s="2">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="C596" t="s" s="2">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" t="s" s="2">
@@ -72287,13 +72290,13 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="C597" t="s" s="2">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" t="s" s="2">
@@ -72392,13 +72395,13 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C598" t="s" s="2">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" t="s" s="2">
@@ -72499,13 +72502,13 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -72531,14 +72534,14 @@
         <v>171</v>
       </c>
       <c r="M599" t="s" s="2">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="N599" t="s" s="2">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="O599" s="2"/>
       <c r="P599" t="s" s="2">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="Q599" t="s" s="2">
         <v>77</v>
@@ -72566,10 +72569,10 @@
         <v>175</v>
       </c>
       <c r="Z599" t="s" s="2">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="AA599" t="s" s="2">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="AB599" t="s" s="2">
         <v>77</v>
@@ -72587,7 +72590,7 @@
         <v>77</v>
       </c>
       <c r="AG599" t="s" s="2">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="AH599" t="s" s="2">
         <v>78</v>
@@ -72604,13 +72607,13 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -72633,17 +72636,17 @@
         <v>77</v>
       </c>
       <c r="L600" t="s" s="2">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="M600" t="s" s="2">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="N600" t="s" s="2">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="O600" s="2"/>
       <c r="P600" t="s" s="2">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="Q600" t="s" s="2">
         <v>77</v>
@@ -72692,7 +72695,7 @@
         <v>77</v>
       </c>
       <c r="AG600" t="s" s="2">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="AH600" t="s" s="2">
         <v>78</v>
@@ -72709,13 +72712,13 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -72738,19 +72741,19 @@
         <v>77</v>
       </c>
       <c r="L601" t="s" s="2">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="M601" t="s" s="2">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="N601" t="s" s="2">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="O601" t="s" s="2">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="P601" t="s" s="2">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="Q601" t="s" s="2">
         <v>77</v>
@@ -72799,7 +72802,7 @@
         <v>77</v>
       </c>
       <c r="AG601" t="s" s="2">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="AH601" t="s" s="2">
         <v>78</v>
@@ -72816,13 +72819,13 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -72845,17 +72848,17 @@
         <v>77</v>
       </c>
       <c r="L602" t="s" s="2">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="M602" t="s" s="2">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="N602" t="s" s="2">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="O602" s="2"/>
       <c r="P602" t="s" s="2">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="Q602" t="s" s="2">
         <v>77</v>
@@ -72904,7 +72907,7 @@
         <v>77</v>
       </c>
       <c r="AG602" t="s" s="2">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="AH602" t="s" s="2">
         <v>78</v>
@@ -72921,13 +72924,13 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -72953,14 +72956,14 @@
         <v>106</v>
       </c>
       <c r="M603" t="s" s="2">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="N603" t="s" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="O603" s="2"/>
       <c r="P603" t="s" s="2">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="Q603" t="s" s="2">
         <v>77</v>
@@ -72988,10 +72991,10 @@
         <v>162</v>
       </c>
       <c r="Z603" t="s" s="2">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="AA603" t="s" s="2">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="AB603" t="s" s="2">
         <v>77</v>
@@ -73009,7 +73012,7 @@
         <v>77</v>
       </c>
       <c r="AG603" t="s" s="2">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="AH603" t="s" s="2">
         <v>78</v>
@@ -73026,13 +73029,13 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -73058,14 +73061,14 @@
         <v>213</v>
       </c>
       <c r="M604" t="s" s="2">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="N604" t="s" s="2">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="O604" s="2"/>
       <c r="P604" t="s" s="2">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="Q604" t="s" s="2">
         <v>77</v>
@@ -73114,7 +73117,7 @@
         <v>77</v>
       </c>
       <c r="AG604" t="s" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="AH604" t="s" s="2">
         <v>78</v>
@@ -73123,7 +73126,7 @@
         <v>86</v>
       </c>
       <c r="AJ604" t="s" s="2">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="AK604" t="s" s="2">
         <v>98</v>
@@ -73131,13 +73134,13 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
@@ -73163,10 +73166,10 @@
         <v>352</v>
       </c>
       <c r="M605" t="s" s="2">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="N605" t="s" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="O605" s="2"/>
       <c r="P605" s="2"/>
@@ -73217,7 +73220,7 @@
         <v>77</v>
       </c>
       <c r="AG605" t="s" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="AH605" t="s" s="2">
         <v>78</v>
@@ -73234,13 +73237,13 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -73266,16 +73269,16 @@
         <v>218</v>
       </c>
       <c r="M606" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="N606" t="s" s="2">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="O606" t="s" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="P606" t="s" s="2">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="Q606" t="s" s="2">
         <v>77</v>
@@ -73324,7 +73327,7 @@
         <v>77</v>
       </c>
       <c r="AG606" t="s" s="2">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="AH606" t="s" s="2">
         <v>78</v>
@@ -73341,13 +73344,13 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
@@ -73444,13 +73447,13 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -73549,13 +73552,13 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -73656,13 +73659,13 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -73688,16 +73691,16 @@
         <v>171</v>
       </c>
       <c r="M610" t="s" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="N610" t="s" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="O610" t="s" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="P610" t="s" s="2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="Q610" t="s" s="2">
         <v>77</v>
@@ -73726,7 +73729,7 @@
       </c>
       <c r="Z610" s="2"/>
       <c r="AA610" t="s" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="AB610" t="s" s="2">
         <v>77</v>
@@ -73744,7 +73747,7 @@
         <v>77</v>
       </c>
       <c r="AG610" t="s" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="AH610" t="s" s="2">
         <v>86</v>
@@ -73761,13 +73764,13 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -73793,16 +73796,16 @@
         <v>766</v>
       </c>
       <c r="M611" t="s" s="2">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="N611" t="s" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="O611" t="s" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="P611" t="s" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="Q611" t="s" s="2">
         <v>77</v>
@@ -73851,7 +73854,7 @@
         <v>77</v>
       </c>
       <c r="AG611" t="s" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="AH611" t="s" s="2">
         <v>78</v>
@@ -73868,17 +73871,17 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F612" s="2"/>
       <c r="G612" t="s" s="2">
@@ -73897,16 +73900,16 @@
         <v>77</v>
       </c>
       <c r="L612" t="s" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="M612" t="s" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="N612" t="s" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="O612" t="s" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="P612" s="2"/>
       <c r="Q612" t="s" s="2">
@@ -73956,7 +73959,7 @@
         <v>77</v>
       </c>
       <c r="AG612" t="s" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="AH612" t="s" s="2">
         <v>78</v>
@@ -73973,13 +73976,13 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -74005,16 +74008,16 @@
         <v>213</v>
       </c>
       <c r="M613" t="s" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="N613" t="s" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O613" t="s" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="P613" t="s" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="Q613" t="s" s="2">
         <v>77</v>
@@ -74063,7 +74066,7 @@
         <v>77</v>
       </c>
       <c r="AG613" t="s" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="AH613" t="s" s="2">
         <v>78</v>
@@ -74080,13 +74083,13 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -74112,16 +74115,16 @@
         <v>218</v>
       </c>
       <c r="M614" t="s" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="N614" t="s" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="O614" t="s" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="P614" t="s" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="Q614" t="s" s="2">
         <v>77</v>
@@ -74170,7 +74173,7 @@
         <v>77</v>
       </c>
       <c r="AG614" t="s" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="AH614" t="s" s="2">
         <v>78</v>
@@ -74187,13 +74190,13 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
@@ -74290,13 +74293,13 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -74395,13 +74398,13 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
@@ -74502,13 +74505,13 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -74531,16 +74534,16 @@
         <v>87</v>
       </c>
       <c r="L618" t="s" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="M618" t="s" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="N618" t="s" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O618" t="s" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P618" s="2"/>
       <c r="Q618" t="s" s="2">
@@ -74590,7 +74593,7 @@
         <v>77</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>86</v>
@@ -74607,13 +74610,13 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -74639,10 +74642,10 @@
         <v>106</v>
       </c>
       <c r="M619" t="s" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="N619" t="s" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="O619" s="2"/>
       <c r="P619" s="2"/>
@@ -74672,10 +74675,10 @@
         <v>162</v>
       </c>
       <c r="Z619" t="s" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="AA619" t="s" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="AB619" t="s" s="2">
         <v>77</v>
@@ -74693,7 +74696,7 @@
         <v>77</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>86</v>
@@ -74710,17 +74713,17 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="F620" s="2"/>
       <c r="G620" t="s" s="2">
@@ -74742,13 +74745,13 @@
         <v>80</v>
       </c>
       <c r="M620" t="s" s="2">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N620" t="s" s="2">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O620" t="s" s="2">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="P620" s="2"/>
       <c r="Q620" t="s" s="2">
@@ -74798,7 +74801,7 @@
         <v>77</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>78</v>
@@ -74815,13 +74818,13 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -74920,13 +74923,13 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -75023,13 +75026,13 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -75128,13 +75131,13 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -75233,13 +75236,13 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -75338,13 +75341,13 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -75443,13 +75446,13 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -75548,13 +75551,13 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -75655,13 +75658,13 @@
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -75687,13 +75690,13 @@
         <v>372</v>
       </c>
       <c r="M629" t="s" s="2">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="N629" t="s" s="2">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="O629" t="s" s="2">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="P629" s="2"/>
       <c r="Q629" t="s" s="2">
@@ -75743,7 +75746,7 @@
         <v>77</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>86</v>
@@ -75760,13 +75763,13 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -75863,13 +75866,13 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -75968,13 +75971,13 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -76000,13 +76003,13 @@
         <v>223</v>
       </c>
       <c r="M632" t="s" s="2">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="N632" t="s" s="2">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="O632" t="s" s="2">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="P632" s="2"/>
       <c r="Q632" t="s" s="2">
@@ -76056,7 +76059,7 @@
         <v>77</v>
       </c>
       <c r="AG632" t="s" s="2">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="AH632" t="s" s="2">
         <v>78</v>
@@ -76065,7 +76068,7 @@
         <v>86</v>
       </c>
       <c r="AJ632" t="s" s="2">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="AK632" t="s" s="2">
         <v>98</v>
@@ -76073,13 +76076,13 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -76105,13 +76108,13 @@
         <v>100</v>
       </c>
       <c r="M633" t="s" s="2">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="N633" t="s" s="2">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="O633" t="s" s="2">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="P633" s="2"/>
       <c r="Q633" t="s" s="2">
@@ -76140,10 +76143,10 @@
         <v>175</v>
       </c>
       <c r="Z633" t="s" s="2">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="AA633" t="s" s="2">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="AB633" t="s" s="2">
         <v>77</v>
@@ -76161,7 +76164,7 @@
         <v>77</v>
       </c>
       <c r="AG633" t="s" s="2">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="AH633" t="s" s="2">
         <v>78</v>
@@ -76178,13 +76181,13 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -76210,13 +76213,13 @@
         <v>150</v>
       </c>
       <c r="M634" t="s" s="2">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="N634" t="s" s="2">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="O634" t="s" s="2">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="P634" s="2"/>
       <c r="Q634" t="s" s="2">
@@ -76266,7 +76269,7 @@
         <v>77</v>
       </c>
       <c r="AG634" t="s" s="2">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="AH634" t="s" s="2">
         <v>78</v>
@@ -76283,13 +76286,13 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -76315,13 +76318,13 @@
         <v>223</v>
       </c>
       <c r="M635" t="s" s="2">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="N635" t="s" s="2">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="O635" t="s" s="2">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="P635" s="2"/>
       <c r="Q635" t="s" s="2">
@@ -76371,7 +76374,7 @@
         <v>77</v>
       </c>
       <c r="AG635" t="s" s="2">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="AH635" t="s" s="2">
         <v>78</v>
@@ -76388,13 +76391,13 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -76417,16 +76420,16 @@
         <v>77</v>
       </c>
       <c r="L636" t="s" s="2">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="M636" t="s" s="2">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="N636" t="s" s="2">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="O636" t="s" s="2">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="P636" s="2"/>
       <c r="Q636" t="s" s="2">
@@ -76476,7 +76479,7 @@
         <v>77</v>
       </c>
       <c r="AG636" t="s" s="2">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="AH636" t="s" s="2">
         <v>78</v>
@@ -76493,13 +76496,13 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -76525,13 +76528,13 @@
         <v>198</v>
       </c>
       <c r="M637" t="s" s="2">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="N637" t="s" s="2">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="O637" t="s" s="2">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="P637" s="2"/>
       <c r="Q637" t="s" s="2">
@@ -76581,7 +76584,7 @@
         <v>77</v>
       </c>
       <c r="AG637" t="s" s="2">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="AH637" t="s" s="2">
         <v>86</v>
@@ -76598,13 +76601,13 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -76630,13 +76633,13 @@
         <v>100</v>
       </c>
       <c r="M638" t="s" s="2">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N638" t="s" s="2">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="O638" t="s" s="2">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="P638" s="2"/>
       <c r="Q638" t="s" s="2">
@@ -76686,7 +76689,7 @@
         <v>77</v>
       </c>
       <c r="AG638" t="s" s="2">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="AH638" t="s" s="2">
         <v>78</v>
@@ -76703,13 +76706,13 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -76735,10 +76738,10 @@
         <v>1002</v>
       </c>
       <c r="M639" t="s" s="2">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="N639" t="s" s="2">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="O639" s="2"/>
       <c r="P639" s="2"/>
@@ -76789,7 +76792,7 @@
         <v>77</v>
       </c>
       <c r="AG639" t="s" s="2">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>78</v>
@@ -76806,13 +76809,13 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -76838,10 +76841,10 @@
         <v>171</v>
       </c>
       <c r="M640" t="s" s="2">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="N640" t="s" s="2">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="O640" s="2"/>
       <c r="P640" s="2"/>
@@ -76871,10 +76874,10 @@
         <v>175</v>
       </c>
       <c r="Z640" t="s" s="2">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="AA640" t="s" s="2">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="AB640" t="s" s="2">
         <v>77</v>
@@ -76892,7 +76895,7 @@
         <v>77</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>78</v>
@@ -76909,13 +76912,13 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -76941,10 +76944,10 @@
         <v>171</v>
       </c>
       <c r="M641" t="s" s="2">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="N641" t="s" s="2">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="O641" s="2"/>
       <c r="P641" s="2"/>
@@ -76974,10 +76977,10 @@
         <v>175</v>
       </c>
       <c r="Z641" t="s" s="2">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="AA641" t="s" s="2">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="AB641" t="s" s="2">
         <v>77</v>
@@ -76995,7 +76998,7 @@
         <v>77</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>78</v>
@@ -77012,13 +77015,13 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -77044,16 +77047,16 @@
         <v>218</v>
       </c>
       <c r="M642" t="s" s="2">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="N642" t="s" s="2">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="O642" t="s" s="2">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="P642" t="s" s="2">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="Q642" t="s" s="2">
         <v>77</v>
@@ -77090,7 +77093,7 @@
         <v>77</v>
       </c>
       <c r="AC642" t="s" s="2">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="AD642" s="2"/>
       <c r="AE642" t="s" s="2">
@@ -77100,7 +77103,7 @@
         <v>133</v>
       </c>
       <c r="AG642" t="s" s="2">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>86</v>
@@ -77112,18 +77115,18 @@
         <v>77</v>
       </c>
       <c r="AK642" t="s" s="2">
-        <v>2105</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -77220,13 +77223,13 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -77325,13 +77328,13 @@
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -77432,13 +77435,13 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -77464,13 +77467,13 @@
         <v>171</v>
       </c>
       <c r="M646" t="s" s="2">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="N646" t="s" s="2">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="O646" t="s" s="2">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="P646" s="2"/>
       <c r="Q646" t="s" s="2">
@@ -77500,7 +77503,7 @@
       </c>
       <c r="Z646" s="2"/>
       <c r="AA646" t="s" s="2">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="AB646" t="s" s="2">
         <v>77</v>
@@ -77518,7 +77521,7 @@
         <v>77</v>
       </c>
       <c r="AG646" t="s" s="2">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="AH646" t="s" s="2">
         <v>78</v>
@@ -77535,13 +77538,13 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -77567,13 +77570,13 @@
         <v>171</v>
       </c>
       <c r="M647" t="s" s="2">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="N647" t="s" s="2">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="O647" t="s" s="2">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P647" s="2"/>
       <c r="Q647" t="s" s="2">
@@ -77602,10 +77605,10 @@
         <v>183</v>
       </c>
       <c r="Z647" t="s" s="2">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="AA647" t="s" s="2">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="AB647" t="s" s="2">
         <v>77</v>
@@ -77623,7 +77626,7 @@
         <v>77</v>
       </c>
       <c r="AG647" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="AH647" t="s" s="2">
         <v>78</v>
@@ -77640,13 +77643,13 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -77669,16 +77672,16 @@
         <v>87</v>
       </c>
       <c r="L648" t="s" s="2">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="M648" t="s" s="2">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="N648" t="s" s="2">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="O648" t="s" s="2">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P648" s="2"/>
       <c r="Q648" t="s" s="2">
@@ -77728,7 +77731,7 @@
         <v>77</v>
       </c>
       <c r="AG648" t="s" s="2">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="AH648" t="s" s="2">
         <v>86</v>
@@ -77745,13 +77748,13 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -77777,13 +77780,13 @@
         <v>704</v>
       </c>
       <c r="M649" t="s" s="2">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="N649" t="s" s="2">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="O649" t="s" s="2">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="P649" s="2"/>
       <c r="Q649" t="s" s="2">
@@ -77833,7 +77836,7 @@
         <v>77</v>
       </c>
       <c r="AG649" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="AH649" t="s" s="2">
         <v>78</v>
@@ -77850,16 +77853,16 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="D650" t="s" s="2">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="E650" t="s" s="2">
         <v>77</v>
@@ -77884,16 +77887,16 @@
         <v>218</v>
       </c>
       <c r="M650" t="s" s="2">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="N650" t="s" s="2">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="O650" t="s" s="2">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="P650" t="s" s="2">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="Q650" t="s" s="2">
         <v>77</v>
@@ -77942,7 +77945,7 @@
         <v>77</v>
       </c>
       <c r="AG650" t="s" s="2">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="AH650" t="s" s="2">
         <v>86</v>
@@ -77959,13 +77962,13 @@
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -78062,13 +78065,13 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -78167,13 +78170,13 @@
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -78274,13 +78277,13 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -78306,13 +78309,13 @@
         <v>171</v>
       </c>
       <c r="M654" t="s" s="2">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="N654" t="s" s="2">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="O654" t="s" s="2">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="P654" s="2"/>
       <c r="Q654" t="s" s="2">
@@ -78323,7 +78326,7 @@
         <v>77</v>
       </c>
       <c r="T654" t="s" s="2">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="U654" t="s" s="2">
         <v>77</v>
@@ -78341,10 +78344,10 @@
         <v>175</v>
       </c>
       <c r="Z654" t="s" s="2">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="AA654" t="s" s="2">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="AB654" t="s" s="2">
         <v>77</v>
@@ -78362,7 +78365,7 @@
         <v>77</v>
       </c>
       <c r="AG654" t="s" s="2">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="AH654" t="s" s="2">
         <v>78</v>
@@ -78379,13 +78382,13 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -78411,13 +78414,13 @@
         <v>171</v>
       </c>
       <c r="M655" t="s" s="2">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="N655" t="s" s="2">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="O655" t="s" s="2">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="P655" s="2"/>
       <c r="Q655" t="s" s="2">
@@ -78446,10 +78449,10 @@
         <v>183</v>
       </c>
       <c r="Z655" t="s" s="2">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="AA655" t="s" s="2">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="AB655" t="s" s="2">
         <v>77</v>
@@ -78467,7 +78470,7 @@
         <v>77</v>
       </c>
       <c r="AG655" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="AH655" t="s" s="2">
         <v>78</v>
@@ -78484,13 +78487,13 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B656" t="s" s="2">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="C656" t="s" s="2">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="D656" s="2"/>
       <c r="E656" t="s" s="2">
@@ -78513,16 +78516,16 @@
         <v>87</v>
       </c>
       <c r="L656" t="s" s="2">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="M656" t="s" s="2">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="N656" t="s" s="2">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="O656" t="s" s="2">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P656" s="2"/>
       <c r="Q656" t="s" s="2">
@@ -78572,7 +78575,7 @@
         <v>77</v>
       </c>
       <c r="AG656" t="s" s="2">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="AH656" t="s" s="2">
         <v>86</v>
@@ -78589,13 +78592,13 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B657" t="s" s="2">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="C657" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="D657" s="2"/>
       <c r="E657" t="s" s="2">
@@ -78618,16 +78621,16 @@
         <v>77</v>
       </c>
       <c r="L657" t="s" s="2">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="M657" t="s" s="2">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="N657" t="s" s="2">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="O657" t="s" s="2">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="P657" s="2"/>
       <c r="Q657" t="s" s="2">
@@ -78677,7 +78680,7 @@
         <v>77</v>
       </c>
       <c r="AG657" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="AH657" t="s" s="2">
         <v>78</v>
@@ -78694,16 +78697,16 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B658" t="s" s="2">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="C658" t="s" s="2">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="D658" t="s" s="2">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="E658" t="s" s="2">
         <v>77</v>
@@ -78728,16 +78731,16 @@
         <v>218</v>
       </c>
       <c r="M658" t="s" s="2">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="N658" t="s" s="2">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="O658" t="s" s="2">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="P658" t="s" s="2">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="Q658" t="s" s="2">
         <v>77</v>
@@ -78786,7 +78789,7 @@
         <v>77</v>
       </c>
       <c r="AG658" t="s" s="2">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="AH658" t="s" s="2">
         <v>86</v>
@@ -78803,13 +78806,13 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B659" t="s" s="2">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="C659" t="s" s="2">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="D659" s="2"/>
       <c r="E659" t="s" s="2">
@@ -78906,13 +78909,13 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B660" t="s" s="2">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="C660" t="s" s="2">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="D660" s="2"/>
       <c r="E660" t="s" s="2">
@@ -79011,13 +79014,13 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B661" t="s" s="2">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="C661" t="s" s="2">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="D661" s="2"/>
       <c r="E661" t="s" s="2">
@@ -79118,13 +79121,13 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B662" t="s" s="2">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C662" t="s" s="2">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="D662" s="2"/>
       <c r="E662" t="s" s="2">
@@ -79150,13 +79153,13 @@
         <v>171</v>
       </c>
       <c r="M662" t="s" s="2">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="N662" t="s" s="2">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="O662" t="s" s="2">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="P662" s="2"/>
       <c r="Q662" t="s" s="2">
@@ -79167,7 +79170,7 @@
         <v>77</v>
       </c>
       <c r="T662" t="s" s="2">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="U662" t="s" s="2">
         <v>77</v>
@@ -79185,10 +79188,10 @@
         <v>175</v>
       </c>
       <c r="Z662" t="s" s="2">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="AA662" t="s" s="2">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="AB662" t="s" s="2">
         <v>77</v>
@@ -79206,7 +79209,7 @@
         <v>77</v>
       </c>
       <c r="AG662" t="s" s="2">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="AH662" t="s" s="2">
         <v>78</v>
@@ -79223,13 +79226,13 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B663" t="s" s="2">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="C663" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="D663" s="2"/>
       <c r="E663" t="s" s="2">
@@ -79255,13 +79258,13 @@
         <v>171</v>
       </c>
       <c r="M663" t="s" s="2">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="N663" t="s" s="2">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="O663" t="s" s="2">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="P663" s="2"/>
       <c r="Q663" t="s" s="2">
@@ -79290,10 +79293,10 @@
         <v>183</v>
       </c>
       <c r="Z663" t="s" s="2">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="AA663" t="s" s="2">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="AB663" t="s" s="2">
         <v>77</v>
@@ -79311,7 +79314,7 @@
         <v>77</v>
       </c>
       <c r="AG663" t="s" s="2">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="AH663" t="s" s="2">
         <v>78</v>
@@ -79328,13 +79331,13 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B664" t="s" s="2">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="C664" t="s" s="2">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="D664" s="2"/>
       <c r="E664" t="s" s="2">
@@ -79357,16 +79360,16 @@
         <v>87</v>
       </c>
       <c r="L664" t="s" s="2">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="M664" t="s" s="2">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="N664" t="s" s="2">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="O664" t="s" s="2">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P664" s="2"/>
       <c r="Q664" t="s" s="2">
@@ -79416,7 +79419,7 @@
         <v>77</v>
       </c>
       <c r="AG664" t="s" s="2">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="AH664" t="s" s="2">
         <v>86</v>
@@ -79433,13 +79436,13 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B665" t="s" s="2">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="C665" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="D665" s="2"/>
       <c r="E665" t="s" s="2">
@@ -79462,16 +79465,16 @@
         <v>77</v>
       </c>
       <c r="L665" t="s" s="2">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="M665" t="s" s="2">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="N665" t="s" s="2">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="O665" t="s" s="2">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="P665" s="2"/>
       <c r="Q665" t="s" s="2">
@@ -79521,7 +79524,7 @@
         <v>77</v>
       </c>
       <c r="AG665" t="s" s="2">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="AH665" t="s" s="2">
         <v>78</v>
@@ -79538,13 +79541,13 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B666" t="s" s="2">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="C666" t="s" s="2">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="D666" s="2"/>
       <c r="E666" t="s" s="2">
@@ -79570,10 +79573,10 @@
         <v>218</v>
       </c>
       <c r="M666" t="s" s="2">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="N666" t="s" s="2">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="O666" s="2"/>
       <c r="P666" s="2"/>
@@ -79624,7 +79627,7 @@
         <v>77</v>
       </c>
       <c r="AG666" t="s" s="2">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="AH666" t="s" s="2">
         <v>78</v>
@@ -79641,13 +79644,13 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B667" t="s" s="2">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="C667" t="s" s="2">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D667" s="2"/>
       <c r="E667" t="s" s="2">
@@ -79744,13 +79747,13 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B668" t="s" s="2">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="C668" t="s" s="2">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="D668" s="2"/>
       <c r="E668" t="s" s="2">
@@ -79849,13 +79852,13 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B669" t="s" s="2">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C669" t="s" s="2">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="D669" s="2"/>
       <c r="E669" t="s" s="2">
@@ -79956,13 +79959,13 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B670" t="s" s="2">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="C670" t="s" s="2">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D670" s="2"/>
       <c r="E670" t="s" s="2">
@@ -79988,10 +79991,10 @@
         <v>106</v>
       </c>
       <c r="M670" t="s" s="2">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="N670" t="s" s="2">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="O670" s="2"/>
       <c r="P670" s="2"/>
@@ -80021,10 +80024,10 @@
         <v>162</v>
       </c>
       <c r="Z670" t="s" s="2">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="AA670" t="s" s="2">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="AB670" t="s" s="2">
         <v>77</v>
@@ -80042,7 +80045,7 @@
         <v>77</v>
       </c>
       <c r="AG670" t="s" s="2">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="AH670" t="s" s="2">
         <v>86</v>
@@ -80059,13 +80062,13 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B671" t="s" s="2">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="C671" t="s" s="2">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="D671" s="2"/>
       <c r="E671" t="s" s="2">
@@ -80091,13 +80094,13 @@
         <v>372</v>
       </c>
       <c r="M671" t="s" s="2">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="N671" t="s" s="2">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="O671" t="s" s="2">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="P671" s="2"/>
       <c r="Q671" t="s" s="2">
@@ -80147,7 +80150,7 @@
         <v>77</v>
       </c>
       <c r="AG671" t="s" s="2">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="AH671" t="s" s="2">
         <v>86</v>
@@ -80164,13 +80167,13 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B672" t="s" s="2">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="C672" t="s" s="2">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="D672" s="2"/>
       <c r="E672" t="s" s="2">
@@ -80196,13 +80199,13 @@
         <v>80</v>
       </c>
       <c r="M672" t="s" s="2">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="N672" t="s" s="2">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="O672" t="s" s="2">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="P672" s="2"/>
       <c r="Q672" t="s" s="2">
@@ -80252,7 +80255,7 @@
         <v>77</v>
       </c>
       <c r="AG672" t="s" s="2">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="AH672" t="s" s="2">
         <v>78</v>
@@ -80269,13 +80272,13 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B673" t="s" s="2">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="C673" t="s" s="2">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="D673" s="2"/>
       <c r="E673" t="s" s="2">
@@ -80298,13 +80301,13 @@
         <v>77</v>
       </c>
       <c r="L673" t="s" s="2">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M673" t="s" s="2">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="N673" t="s" s="2">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="O673" s="2"/>
       <c r="P673" s="2"/>
@@ -80355,7 +80358,7 @@
         <v>77</v>
       </c>
       <c r="AG673" t="s" s="2">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="AH673" t="s" s="2">
         <v>78</v>
@@ -80372,17 +80375,17 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B674" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="C674" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="D674" s="2"/>
       <c r="E674" t="s" s="2">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="F674" s="2"/>
       <c r="G674" t="s" s="2">
@@ -80404,10 +80407,10 @@
         <v>80</v>
       </c>
       <c r="M674" t="s" s="2">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="N674" t="s" s="2">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="O674" s="2"/>
       <c r="P674" s="2"/>
@@ -80458,7 +80461,7 @@
         <v>77</v>
       </c>
       <c r="AG674" t="s" s="2">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="AH674" t="s" s="2">
         <v>78</v>
@@ -80470,18 +80473,18 @@
         <v>77</v>
       </c>
       <c r="AK674" t="s" s="2">
-        <v>2190</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="C675" t="s" s="2">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="D675" s="2"/>
       <c r="E675" t="s" s="2">
@@ -80580,13 +80583,13 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B676" t="s" s="2">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="C676" t="s" s="2">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="D676" s="2"/>
       <c r="E676" t="s" s="2">
@@ -80683,13 +80686,13 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="C677" t="s" s="2">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="D677" s="2"/>
       <c r="E677" t="s" s="2">
@@ -80788,13 +80791,13 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="C678" t="s" s="2">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="D678" s="2"/>
       <c r="E678" t="s" s="2">
@@ -80893,13 +80896,13 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B679" t="s" s="2">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="C679" t="s" s="2">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="D679" s="2"/>
       <c r="E679" t="s" s="2">
@@ -80998,13 +81001,13 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B680" t="s" s="2">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="C680" t="s" s="2">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="D680" s="2"/>
       <c r="E680" t="s" s="2">
@@ -81103,13 +81106,13 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B681" t="s" s="2">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="C681" t="s" s="2">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="D681" s="2"/>
       <c r="E681" t="s" s="2">
@@ -81208,13 +81211,13 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B682" t="s" s="2">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="C682" t="s" s="2">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" t="s" s="2">
@@ -81315,13 +81318,13 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B683" t="s" s="2">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="C683" t="s" s="2">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="D683" s="2"/>
       <c r="E683" t="s" s="2">
@@ -81347,13 +81350,13 @@
         <v>150</v>
       </c>
       <c r="M683" t="s" s="2">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="N683" t="s" s="2">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="O683" t="s" s="2">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="P683" s="2"/>
       <c r="Q683" t="s" s="2">
@@ -81403,7 +81406,7 @@
         <v>77</v>
       </c>
       <c r="AG683" t="s" s="2">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="AH683" t="s" s="2">
         <v>78</v>
@@ -81420,13 +81423,13 @@
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="C684" t="s" s="2">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="D684" s="2"/>
       <c r="E684" t="s" s="2">
@@ -81449,16 +81452,16 @@
         <v>87</v>
       </c>
       <c r="L684" t="s" s="2">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="M684" t="s" s="2">
         <v>1299</v>
       </c>
       <c r="N684" t="s" s="2">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="O684" t="s" s="2">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="P684" s="2"/>
       <c r="Q684" t="s" s="2">
@@ -81508,7 +81511,7 @@
         <v>77</v>
       </c>
       <c r="AG684" t="s" s="2">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="AH684" t="s" s="2">
         <v>78</v>
@@ -81525,13 +81528,13 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="C685" t="s" s="2">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="D685" s="2"/>
       <c r="E685" t="s" s="2">
@@ -81560,10 +81563,10 @@
         <v>1302</v>
       </c>
       <c r="N685" t="s" s="2">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="O685" t="s" s="2">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="P685" s="2"/>
       <c r="Q685" t="s" s="2">
@@ -81613,7 +81616,7 @@
         <v>77</v>
       </c>
       <c r="AG685" t="s" s="2">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="AH685" t="s" s="2">
         <v>78</v>
@@ -81630,17 +81633,17 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="C686" t="s" s="2">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" t="s" s="2">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="F686" s="2"/>
       <c r="G686" t="s" s="2">
@@ -81659,13 +81662,13 @@
         <v>87</v>
       </c>
       <c r="L686" t="s" s="2">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="M686" t="s" s="2">
         <v>1306</v>
       </c>
       <c r="N686" t="s" s="2">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="O686" s="2"/>
       <c r="P686" s="2"/>
@@ -81716,7 +81719,7 @@
         <v>77</v>
       </c>
       <c r="AG686" t="s" s="2">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="AH686" t="s" s="2">
         <v>78</v>
@@ -81733,17 +81736,17 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B687" t="s" s="2">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="C687" t="s" s="2">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="D687" s="2"/>
       <c r="E687" t="s" s="2">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="F687" s="2"/>
       <c r="G687" t="s" s="2">
@@ -81765,10 +81768,10 @@
         <v>559</v>
       </c>
       <c r="M687" t="s" s="2">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="N687" t="s" s="2">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="O687" s="2"/>
       <c r="P687" s="2"/>
@@ -81819,7 +81822,7 @@
         <v>77</v>
       </c>
       <c r="AG687" t="s" s="2">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="AH687" t="s" s="2">
         <v>78</v>
@@ -81836,17 +81839,17 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B688" t="s" s="2">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="C688" t="s" s="2">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="D688" s="2"/>
       <c r="E688" t="s" s="2">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="F688" s="2"/>
       <c r="G688" t="s" s="2">
@@ -81868,16 +81871,16 @@
         <v>150</v>
       </c>
       <c r="M688" t="s" s="2">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N688" t="s" s="2">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="O688" t="s" s="2">
         <v>1311</v>
       </c>
       <c r="P688" t="s" s="2">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="Q688" t="s" s="2">
         <v>77</v>
@@ -81926,7 +81929,7 @@
         <v>77</v>
       </c>
       <c r="AG688" t="s" s="2">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="AH688" t="s" s="2">
         <v>78</v>
@@ -81943,13 +81946,13 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B689" t="s" s="2">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="C689" t="s" s="2">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="D689" s="2"/>
       <c r="E689" t="s" s="2">
@@ -81975,13 +81978,13 @@
         <v>106</v>
       </c>
       <c r="M689" t="s" s="2">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="N689" t="s" s="2">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="O689" t="s" s="2">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="P689" s="2"/>
       <c r="Q689" t="s" s="2">
@@ -82010,10 +82013,10 @@
         <v>162</v>
       </c>
       <c r="Z689" t="s" s="2">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="AA689" t="s" s="2">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="AB689" t="s" s="2">
         <v>77</v>
@@ -82031,7 +82034,7 @@
         <v>77</v>
       </c>
       <c r="AG689" t="s" s="2">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="AH689" t="s" s="2">
         <v>86</v>
@@ -82048,13 +82051,13 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="C690" t="s" s="2">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" t="s" s="2">
@@ -82080,13 +82083,13 @@
         <v>106</v>
       </c>
       <c r="M690" t="s" s="2">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="N690" t="s" s="2">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="O690" t="s" s="2">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="P690" s="2"/>
       <c r="Q690" t="s" s="2">
@@ -82115,10 +82118,10 @@
         <v>162</v>
       </c>
       <c r="Z690" t="s" s="2">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="AA690" t="s" s="2">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="AB690" t="s" s="2">
         <v>77</v>
@@ -82136,7 +82139,7 @@
         <v>77</v>
       </c>
       <c r="AG690" t="s" s="2">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="AH690" t="s" s="2">
         <v>86</v>
@@ -82153,13 +82156,13 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="C691" t="s" s="2">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" t="s" s="2">
@@ -82185,16 +82188,16 @@
         <v>171</v>
       </c>
       <c r="M691" t="s" s="2">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="N691" t="s" s="2">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="O691" t="s" s="2">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="P691" t="s" s="2">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="Q691" t="s" s="2">
         <v>77</v>
@@ -82222,10 +82225,10 @@
         <v>183</v>
       </c>
       <c r="Z691" t="s" s="2">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="AA691" t="s" s="2">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="AB691" t="s" s="2">
         <v>77</v>
@@ -82241,7 +82244,7 @@
         <v>133</v>
       </c>
       <c r="AG691" t="s" s="2">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AH691" t="s" s="2">
         <v>78</v>
@@ -82258,13 +82261,13 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="C692" t="s" s="2">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="D692" t="s" s="2">
         <v>1238</v>
@@ -82292,16 +82295,16 @@
         <v>171</v>
       </c>
       <c r="M692" t="s" s="2">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="N692" t="s" s="2">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="O692" t="s" s="2">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="P692" t="s" s="2">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="Q692" t="s" s="2">
         <v>77</v>
@@ -82329,10 +82332,10 @@
         <v>162</v>
       </c>
       <c r="Z692" t="s" s="2">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="AA692" t="s" s="2">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="AB692" t="s" s="2">
         <v>77</v>
@@ -82350,7 +82353,7 @@
         <v>77</v>
       </c>
       <c r="AG692" t="s" s="2">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AH692" t="s" s="2">
         <v>78</v>
@@ -82367,13 +82370,13 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="C693" t="s" s="2">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" t="s" s="2">
@@ -82402,7 +82405,7 @@
         <v>1241</v>
       </c>
       <c r="N693" t="s" s="2">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="O693" s="2"/>
       <c r="P693" s="2"/>
@@ -82410,7 +82413,7 @@
         <v>77</v>
       </c>
       <c r="R693" t="s" s="2">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="S693" t="s" s="2">
         <v>77</v>
@@ -82455,7 +82458,7 @@
         <v>77</v>
       </c>
       <c r="AG693" t="s" s="2">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="AH693" t="s" s="2">
         <v>78</v>
@@ -82472,13 +82475,13 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="C694" t="s" s="2">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" t="s" s="2">
@@ -82504,67 +82507,67 @@
         <v>766</v>
       </c>
       <c r="M694" t="s" s="2">
+        <v>2250</v>
+      </c>
+      <c r="N694" t="s" s="2">
+        <v>2251</v>
+      </c>
+      <c r="O694" t="s" s="2">
+        <v>2252</v>
+      </c>
+      <c r="P694" t="s" s="2">
+        <v>2253</v>
+      </c>
+      <c r="Q694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R694" t="s" s="2">
+        <v>2254</v>
+      </c>
+      <c r="S694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF694" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG694" t="s" s="2">
         <v>2249</v>
-      </c>
-      <c r="N694" t="s" s="2">
-        <v>2250</v>
-      </c>
-      <c r="O694" t="s" s="2">
-        <v>2251</v>
-      </c>
-      <c r="P694" t="s" s="2">
-        <v>2252</v>
-      </c>
-      <c r="Q694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R694" t="s" s="2">
-        <v>2253</v>
-      </c>
-      <c r="S694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF694" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG694" t="s" s="2">
-        <v>2248</v>
       </c>
       <c r="AH694" t="s" s="2">
         <v>78</v>
@@ -82581,17 +82584,17 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="C695" t="s" s="2">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" t="s" s="2">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="F695" s="2"/>
       <c r="G695" t="s" s="2">
@@ -82613,13 +82616,13 @@
         <v>171</v>
       </c>
       <c r="M695" t="s" s="2">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="N695" t="s" s="2">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="O695" t="s" s="2">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="P695" s="2"/>
       <c r="Q695" t="s" s="2">
@@ -82649,7 +82652,7 @@
       </c>
       <c r="Z695" s="2"/>
       <c r="AA695" t="s" s="2">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="AB695" t="s" s="2">
         <v>77</v>
@@ -82667,7 +82670,7 @@
         <v>77</v>
       </c>
       <c r="AG695" t="s" s="2">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="AH695" t="s" s="2">
         <v>78</v>
@@ -82684,17 +82687,17 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="C696" t="s" s="2">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" t="s" s="2">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="F696" s="2"/>
       <c r="G696" t="s" s="2">
@@ -82716,13 +82719,13 @@
         <v>171</v>
       </c>
       <c r="M696" t="s" s="2">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="N696" t="s" s="2">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="O696" t="s" s="2">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="P696" s="2"/>
       <c r="Q696" t="s" s="2">
@@ -82751,10 +82754,10 @@
         <v>183</v>
       </c>
       <c r="Z696" t="s" s="2">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="AA696" t="s" s="2">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="AB696" t="s" s="2">
         <v>77</v>
@@ -82772,7 +82775,7 @@
         <v>77</v>
       </c>
       <c r="AG696" t="s" s="2">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="AH696" t="s" s="2">
         <v>78</v>
@@ -82781,7 +82784,7 @@
         <v>79</v>
       </c>
       <c r="AJ696" t="s" s="2">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="AK696" t="s" s="2">
         <v>98</v>
@@ -82789,13 +82792,13 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B697" t="s" s="2">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="C697" t="s" s="2">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="D697" s="2"/>
       <c r="E697" t="s" s="2">
@@ -82818,17 +82821,17 @@
         <v>87</v>
       </c>
       <c r="L697" t="s" s="2">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="M697" t="s" s="2">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="N697" t="s" s="2">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="O697" s="2"/>
       <c r="P697" t="s" s="2">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="Q697" t="s" s="2">
         <v>77</v>
@@ -82877,7 +82880,7 @@
         <v>77</v>
       </c>
       <c r="AG697" t="s" s="2">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="AH697" t="s" s="2">
         <v>78</v>
@@ -82894,13 +82897,13 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="C698" t="s" s="2">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" t="s" s="2">
@@ -82923,13 +82926,13 @@
         <v>87</v>
       </c>
       <c r="L698" t="s" s="2">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="M698" t="s" s="2">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="N698" t="s" s="2">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="O698" s="2"/>
       <c r="P698" s="2"/>
@@ -82980,7 +82983,7 @@
         <v>77</v>
       </c>
       <c r="AG698" t="s" s="2">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="AH698" t="s" s="2">
         <v>86</v>
@@ -82997,17 +83000,17 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="C699" t="s" s="2">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="F699" s="2"/>
       <c r="G699" t="s" s="2">
@@ -83029,10 +83032,10 @@
         <v>342</v>
       </c>
       <c r="M699" t="s" s="2">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="N699" t="s" s="2">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="O699" s="2"/>
       <c r="P699" s="2"/>
@@ -83083,7 +83086,7 @@
         <v>77</v>
       </c>
       <c r="AG699" t="s" s="2">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="AH699" t="s" s="2">
         <v>78</v>
@@ -83100,17 +83103,17 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B700" t="s" s="2">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="C700" t="s" s="2">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="D700" s="2"/>
       <c r="E700" t="s" s="2">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="F700" s="2"/>
       <c r="G700" t="s" s="2">
@@ -83129,13 +83132,13 @@
         <v>87</v>
       </c>
       <c r="L700" t="s" s="2">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="M700" t="s" s="2">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="N700" t="s" s="2">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="O700" s="2"/>
       <c r="P700" s="2"/>
@@ -83186,7 +83189,7 @@
         <v>77</v>
       </c>
       <c r="AG700" t="s" s="2">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="AH700" t="s" s="2">
         <v>78</v>
@@ -83203,13 +83206,13 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B701" t="s" s="2">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="C701" t="s" s="2">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
@@ -83235,10 +83238,10 @@
         <v>1076</v>
       </c>
       <c r="M701" t="s" s="2">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="N701" t="s" s="2">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="O701" s="2"/>
       <c r="P701" s="2"/>
@@ -83268,7 +83271,7 @@
         <v>183</v>
       </c>
       <c r="Z701" t="s" s="2">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="AA701" t="s" s="2">
         <v>1081</v>
@@ -83289,7 +83292,7 @@
         <v>77</v>
       </c>
       <c r="AG701" t="s" s="2">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="AH701" t="s" s="2">
         <v>78</v>
@@ -83306,17 +83309,17 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="C702" t="s" s="2">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="F702" s="2"/>
       <c r="G702" t="s" s="2">
@@ -83338,10 +83341,10 @@
         <v>323</v>
       </c>
       <c r="M702" t="s" s="2">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="N702" t="s" s="2">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="O702" s="2"/>
       <c r="P702" s="2"/>
@@ -83392,7 +83395,7 @@
         <v>77</v>
       </c>
       <c r="AG702" t="s" s="2">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="AH702" t="s" s="2">
         <v>78</v>
@@ -83409,17 +83412,17 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="C703" t="s" s="2">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="F703" s="2"/>
       <c r="G703" t="s" s="2">
@@ -83438,16 +83441,16 @@
         <v>87</v>
       </c>
       <c r="L703" t="s" s="2">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="M703" t="s" s="2">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="N703" t="s" s="2">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="O703" t="s" s="2">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="P703" s="2"/>
       <c r="Q703" t="s" s="2">
@@ -83497,7 +83500,7 @@
         <v>77</v>
       </c>
       <c r="AG703" t="s" s="2">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="AH703" t="s" s="2">
         <v>78</v>
@@ -83514,17 +83517,17 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="F704" s="2"/>
       <c r="G704" t="s" s="2">
@@ -83546,13 +83549,13 @@
         <v>171</v>
       </c>
       <c r="M704" t="s" s="2">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="N704" t="s" s="2">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="O704" t="s" s="2">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="P704" s="2"/>
       <c r="Q704" t="s" s="2">
@@ -83581,10 +83584,10 @@
         <v>183</v>
       </c>
       <c r="Z704" t="s" s="2">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="AA704" t="s" s="2">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="AB704" t="s" s="2">
         <v>77</v>
@@ -83602,7 +83605,7 @@
         <v>77</v>
       </c>
       <c r="AG704" t="s" s="2">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="AH704" t="s" s="2">
         <v>78</v>
@@ -83619,17 +83622,17 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" t="s" s="2">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="F705" s="2"/>
       <c r="G705" t="s" s="2">
@@ -83648,16 +83651,16 @@
         <v>87</v>
       </c>
       <c r="L705" t="s" s="2">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="M705" t="s" s="2">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="N705" t="s" s="2">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="O705" t="s" s="2">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="P705" s="2"/>
       <c r="Q705" t="s" s="2">
@@ -83707,7 +83710,7 @@
         <v>77</v>
       </c>
       <c r="AG705" t="s" s="2">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="AH705" t="s" s="2">
         <v>78</v>
@@ -83724,13 +83727,13 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
@@ -83756,10 +83759,10 @@
         <v>171</v>
       </c>
       <c r="M706" t="s" s="2">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="N706" t="s" s="2">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="O706" s="2"/>
       <c r="P706" s="2"/>
@@ -83789,10 +83792,10 @@
         <v>183</v>
       </c>
       <c r="Z706" t="s" s="2">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="AA706" t="s" s="2">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="AB706" t="s" s="2">
         <v>77</v>
@@ -83810,7 +83813,7 @@
         <v>77</v>
       </c>
       <c r="AG706" t="s" s="2">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>78</v>
@@ -83827,13 +83830,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -83859,10 +83862,10 @@
         <v>1002</v>
       </c>
       <c r="M707" t="s" s="2">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="N707" t="s" s="2">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="O707" s="2"/>
       <c r="P707" s="2"/>
@@ -83913,7 +83916,7 @@
         <v>77</v>
       </c>
       <c r="AG707" t="s" s="2">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="AH707" t="s" s="2">
         <v>78</v>
@@ -83930,13 +83933,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -83962,13 +83965,13 @@
         <v>171</v>
       </c>
       <c r="M708" t="s" s="2">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="N708" t="s" s="2">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="O708" t="s" s="2">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="P708" s="2"/>
       <c r="Q708" t="s" s="2">
@@ -84016,7 +84019,7 @@
         <v>77</v>
       </c>
       <c r="AG708" t="s" s="2">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="AH708" t="s" s="2">
         <v>78</v>
@@ -84033,13 +84036,13 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
@@ -84062,16 +84065,16 @@
         <v>87</v>
       </c>
       <c r="L709" t="s" s="2">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="M709" t="s" s="2">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="N709" t="s" s="2">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="O709" t="s" s="2">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="P709" s="2"/>
       <c r="Q709" t="s" s="2">
@@ -84121,7 +84124,7 @@
         <v>77</v>
       </c>
       <c r="AG709" t="s" s="2">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="AH709" t="s" s="2">
         <v>78</v>
@@ -84138,13 +84141,13 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" t="s" s="2">
@@ -84173,7 +84176,7 @@
         <v>1320</v>
       </c>
       <c r="N710" t="s" s="2">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="O710" s="2"/>
       <c r="P710" s="2"/>
@@ -84224,7 +84227,7 @@
         <v>77</v>
       </c>
       <c r="AG710" t="s" s="2">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="AH710" t="s" s="2">
         <v>78</v>
@@ -84241,17 +84244,17 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="C711" t="s" s="2">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" t="s" s="2">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="F711" s="2"/>
       <c r="G711" t="s" s="2">
@@ -84273,13 +84276,13 @@
         <v>372</v>
       </c>
       <c r="M711" t="s" s="2">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="N711" t="s" s="2">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="O711" t="s" s="2">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="P711" s="2"/>
       <c r="Q711" t="s" s="2">
@@ -84329,7 +84332,7 @@
         <v>77</v>
       </c>
       <c r="AG711" t="s" s="2">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="AH711" t="s" s="2">
         <v>78</v>
@@ -84346,13 +84349,13 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="C712" t="s" s="2">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="D712" s="2"/>
       <c r="E712" t="s" s="2">
@@ -84378,13 +84381,13 @@
         <v>1547</v>
       </c>
       <c r="M712" t="s" s="2">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="N712" t="s" s="2">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="O712" t="s" s="2">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="P712" s="2"/>
       <c r="Q712" t="s" s="2">
@@ -84434,7 +84437,7 @@
         <v>77</v>
       </c>
       <c r="AG712" t="s" s="2">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="AH712" t="s" s="2">
         <v>78</v>
@@ -84451,17 +84454,17 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B713" t="s" s="2">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="C713" t="s" s="2">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="D713" s="2"/>
       <c r="E713" t="s" s="2">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="F713" s="2"/>
       <c r="G713" t="s" s="2">
@@ -84483,16 +84486,16 @@
         <v>171</v>
       </c>
       <c r="M713" t="s" s="2">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="N713" t="s" s="2">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="O713" t="s" s="2">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="P713" t="s" s="2">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="Q713" t="s" s="2">
         <v>77</v>
@@ -84541,7 +84544,7 @@
         <v>77</v>
       </c>
       <c r="AG713" t="s" s="2">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="AH713" t="s" s="2">
         <v>78</v>
@@ -84558,13 +84561,13 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B714" t="s" s="2">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="C714" t="s" s="2">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" t="s" s="2">
@@ -84593,7 +84596,7 @@
         <v>54</v>
       </c>
       <c r="N714" t="s" s="2">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="O714" s="2"/>
       <c r="P714" s="2"/>
@@ -84644,7 +84647,7 @@
         <v>77</v>
       </c>
       <c r="AG714" t="s" s="2">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="AH714" t="s" s="2">
         <v>78</v>
@@ -84661,13 +84664,13 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B715" t="s" s="2">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="C715" t="s" s="2">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" t="s" s="2">
@@ -84693,7 +84696,7 @@
         <v>223</v>
       </c>
       <c r="M715" t="s" s="2">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="N715" t="s" s="2">
         <v>1066</v>
@@ -84747,7 +84750,7 @@
         <v>77</v>
       </c>
       <c r="AG715" t="s" s="2">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="AH715" t="s" s="2">
         <v>78</v>
@@ -84764,13 +84767,13 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="C716" t="s" s="2">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" t="s" s="2">
@@ -84796,13 +84799,13 @@
         <v>1182</v>
       </c>
       <c r="M716" t="s" s="2">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="N716" t="s" s="2">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="O716" t="s" s="2">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="P716" s="2"/>
       <c r="Q716" t="s" s="2">
@@ -84852,7 +84855,7 @@
         <v>77</v>
       </c>
       <c r="AG716" t="s" s="2">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="AH716" t="s" s="2">
         <v>78</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20670" uniqueCount="2340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22273" uniqueCount="2483">
   <si>
     <t>Property</t>
   </si>
@@ -7294,6 +7294,440 @@
     <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource.  (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update.  Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
+  </si>
+  <si>
+    <t>us-core-specimen</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-specimen</t>
+  </si>
+  <si>
+    <t>USCoreSpecimenProfile</t>
+  </si>
+  <si>
+    <t>US Core Specimen Profile</t>
+  </si>
+  <si>
+    <t>The US Core Specimen Profile inherits from the FHIR [Specimen](https://hl7.org/fhir/R4/specimen.html) resource; refer to it for scope and usage definitions. This profile sets minimum expectations for the Specimen resource to record, search, and fetch information about substances associated with a patient being sampled or tested (such as nasopharyngeal swab, whole blood,  or serum). It specifies which core elements, extensions, vocabularies, and value sets **SHALL** be present and constrains how the elements are used. Providing the floor for standards development for specific use cases promotes interoperability and adoption.</t>
+  </si>
+  <si>
+    <t>Specimen</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Specimen</t>
+  </si>
+  <si>
+    <t>Sample for analysis</t>
+  </si>
+  <si>
+    <t>A sample to be used for analysis.</t>
+  </si>
+  <si>
+    <t>Specimen.id</t>
+  </si>
+  <si>
+    <t>Specimen.meta</t>
+  </si>
+  <si>
+    <t>Specimen.implicitRules</t>
+  </si>
+  <si>
+    <t>Specimen.language</t>
+  </si>
+  <si>
+    <t>Specimen.text</t>
+  </si>
+  <si>
+    <t>Specimen.contained</t>
+  </si>
+  <si>
+    <t>Specimen.extension</t>
+  </si>
+  <si>
+    <t>Specimen.modifierExtension</t>
+  </si>
+  <si>
+    <t>Specimen.identifier</t>
+  </si>
+  <si>
+    <t>Specimen identifier</t>
+  </si>
+  <si>
+    <t>Id for specimen.</t>
+  </si>
+  <si>
+    <t>Specimen.accessionIdentifier</t>
+  </si>
+  <si>
+    <t>Identifier assigned by the lab</t>
+  </si>
+  <si>
+    <t>The identifier assigned by the lab when accessioning specimen(s). This is not necessarily the same as the specimen identifier, depending on local lab procedures.</t>
+  </si>
+  <si>
+    <t>Specimen.status</t>
+  </si>
+  <si>
+    <t>available | unavailable | unsatisfactory | entered-in-error</t>
+  </si>
+  <si>
+    <t>The availability of the specimen.</t>
+  </si>
+  <si>
+    <t>Codes providing the status/availability of a specimen.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/specimen-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Specimen.type</t>
+  </si>
+  <si>
+    <t>Kind of material that forms the specimen</t>
+  </si>
+  <si>
+    <t>The kind of material that forms the specimen.</t>
+  </si>
+  <si>
+    <t>The type can change the way that a specimen is handled and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
+  </si>
+  <si>
+    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1099.54</t>
+  </si>
+  <si>
+    <t>Specimen.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|Group|Device|Substance|http://hl7.org/fhir/us/core/StructureDefinition/us-core-location)
+</t>
+  </si>
+  <si>
+    <t>The patient where the specimen came from.</t>
+  </si>
+  <si>
+    <t>Where the specimen came from. This may be from patient(s), from a location (e.g., the source of an environmental sample), or a sampling of a substance or a device.</t>
+  </si>
+  <si>
+    <t>Must know the subject context.</t>
+  </si>
+  <si>
+    <t>Specimen.receivedTime</t>
+  </si>
+  <si>
+    <t>The time when specimen was received for processing</t>
+  </si>
+  <si>
+    <t>Time when specimen was received for processing or testing.</t>
+  </si>
+  <si>
+    <t>Specimen.parent</t>
+  </si>
+  <si>
+    <t>Specimen from which this specimen originated</t>
+  </si>
+  <si>
+    <t>Reference to the parent (source) specimen which is used when the specimen was either derived from or a component of another specimen.</t>
+  </si>
+  <si>
+    <t>The parent specimen could be the source from which the current specimen is derived by some processing step (e.g. an aliquot or isolate or extracted nucleic acids from clinical samples) or one of many specimens that were combined to create a pooled sample.</t>
+  </si>
+  <si>
+    <t>Specimen.request</t>
+  </si>
+  <si>
+    <t>Why the specimen was collected</t>
+  </si>
+  <si>
+    <t>Details concerning a service request that required a specimen to be collected.</t>
+  </si>
+  <si>
+    <t>The request may be explicit or implied such with a ServiceRequest that requires a blood draw.</t>
+  </si>
+  <si>
+    <t>Specimen.collection</t>
+  </si>
+  <si>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Collection details</t>
+  </si>
+  <si>
+    <t>Details concerning the specimen collection.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.id</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension</t>
+  </si>
+  <si>
+    <t>Specimen.collection.modifierExtension</t>
+  </si>
+  <si>
+    <t>Specimen.collection.collector</t>
+  </si>
+  <si>
+    <t>Who collected the specimen</t>
+  </si>
+  <si>
+    <t>Person who collected the specimen.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.collected[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>Collection time</t>
+  </si>
+  <si>
+    <t>Time when specimen was collected from subject - the physiologically relevant time.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.duration</t>
+  </si>
+  <si>
+    <t>How long it took to collect specimen</t>
+  </si>
+  <si>
+    <t>The span of time over which the collection of a specimen occurred.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.quantity</t>
+  </si>
+  <si>
+    <t>The quantity of specimen collected</t>
+  </si>
+  <si>
+    <t>The quantity of specimen collected; for instance the volume of a blood sample, or the physical measurement of an anatomic pathology sample.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.method</t>
+  </si>
+  <si>
+    <t>Technique used to perform collection</t>
+  </si>
+  <si>
+    <t>A coded value specifying the technique that is used to perform the procedure.</t>
+  </si>
+  <si>
+    <t>The  technique that is used to perform the procedure.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite</t>
+  </si>
+  <si>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Specimen Source Site</t>
+  </si>
+  <si>
+    <t>Anatomical location from which the specimen was collected (if subject is a patient). This is the target site.  This element is not used for environmental specimens.</t>
+  </si>
+  <si>
+    <t>Body location from where a specimen was obtained. Examples include but are not limited to right internal jugular, left arm, and right eye.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.fastingStatus[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Duration</t>
+  </si>
+  <si>
+    <t>Whether or how long patient abstained from food and/or drink</t>
+  </si>
+  <si>
+    <t>Abstinence or reduction from some or all food, drink, or both, for a period of time prior to sample collection.</t>
+  </si>
+  <si>
+    <t>Representing fasting status using this element is preferred to representing it with an observation using a 'pre-coordinated code'  such as  LOINC 2005-7 (Calcium [Moles/​time] in 2 hour Urine --12 hours fasting), or  using  a component observation ` such as `Observation.component code`  = LOINC 49541-6 (Fasting status - Reported).</t>
+  </si>
+  <si>
+    <t>Many diagnostic tests require fasting  to facilitate accurate interpretation.</t>
+  </si>
+  <si>
+    <t>Codes describing the fasting status of the patient.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0916</t>
+  </si>
+  <si>
+    <t>Specimen.processing</t>
+  </si>
+  <si>
+    <t>Processing and processing step details</t>
+  </si>
+  <si>
+    <t>Details concerning processing and processing steps for the specimen.</t>
+  </si>
+  <si>
+    <t>Specimen.processing.id</t>
+  </si>
+  <si>
+    <t>Specimen.processing.extension</t>
+  </si>
+  <si>
+    <t>Specimen.processing.modifierExtension</t>
+  </si>
+  <si>
+    <t>Specimen.processing.description</t>
+  </si>
+  <si>
+    <t>Textual description of procedure</t>
+  </si>
+  <si>
+    <t>Textual description of procedure.</t>
+  </si>
+  <si>
+    <t>Specimen.processing.procedure</t>
+  </si>
+  <si>
+    <t>Indicates the treatment step  applied to the specimen</t>
+  </si>
+  <si>
+    <t>A coded value specifying the procedure used to process the specimen.</t>
+  </si>
+  <si>
+    <t>Type indicating the technique used to process the specimen.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure</t>
+  </si>
+  <si>
+    <t>Specimen.processing.additive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Substance)
+</t>
+  </si>
+  <si>
+    <t>Material used in the processing step</t>
+  </si>
+  <si>
+    <t>Material used in the processing step.</t>
+  </si>
+  <si>
+    <t>Specimen.processing.time[x]</t>
+  </si>
+  <si>
+    <t>Date and time of specimen processing</t>
+  </si>
+  <si>
+    <t>A record of the time or period when the specimen processing occurred.  For example the time of sample fixation or the period of time the sample was in formalin.</t>
+  </si>
+  <si>
+    <t>Specimen.container</t>
+  </si>
+  <si>
+    <t>Direct container of specimen (tube/slide, etc.)</t>
+  </si>
+  <si>
+    <t>The container holding the specimen.  The recursive nature of containers; i.e. blood in tube in tray in rack is not addressed here.</t>
+  </si>
+  <si>
+    <t>Specimen.container.id</t>
+  </si>
+  <si>
+    <t>Specimen.container.extension</t>
+  </si>
+  <si>
+    <t>Specimen.container.modifierExtension</t>
+  </si>
+  <si>
+    <t>Specimen.container.identifier</t>
+  </si>
+  <si>
+    <t>Id for the container</t>
+  </si>
+  <si>
+    <t>Id for container. There may be multiple; a manufacturer's bar code, lab assigned identifier, etc. The container ID may differ from the specimen id in some circumstances.</t>
+  </si>
+  <si>
+    <t>Specimen.container.description</t>
+  </si>
+  <si>
+    <t>Textual description of the container</t>
+  </si>
+  <si>
+    <t>Textual description of the container.</t>
+  </si>
+  <si>
+    <t>Specimen.container.type</t>
+  </si>
+  <si>
+    <t>Kind of container directly associated with specimen</t>
+  </si>
+  <si>
+    <t>The type of container associated with the specimen (e.g. slide, aliquot, etc.).</t>
+  </si>
+  <si>
+    <t>Type of specimen container.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/specimen-container-type</t>
+  </si>
+  <si>
+    <t>Specimen.container.capacity</t>
+  </si>
+  <si>
+    <t>Container volume or size</t>
+  </si>
+  <si>
+    <t>The capacity (volume or other measure) the container may contain.</t>
+  </si>
+  <si>
+    <t>Specimen.container.specimenQuantity</t>
+  </si>
+  <si>
+    <t>Quantity of specimen within container</t>
+  </si>
+  <si>
+    <t>The quantity of specimen in the container; may be volume, dimensions, or other appropriate measurements, depending on the specimen type.</t>
+  </si>
+  <si>
+    <t>Specimen.container.additive[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Substance)</t>
+  </si>
+  <si>
+    <t>Additive associated with container</t>
+  </si>
+  <si>
+    <t>Introduced substance to preserve, maintain or enhance the specimen. Examples: Formalin, Citrate, EDTA.</t>
+  </si>
+  <si>
+    <t>Substance added to specimen container.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0371</t>
+  </si>
+  <si>
+    <t>Specimen.condition</t>
+  </si>
+  <si>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Specimen condition</t>
+  </si>
+  <si>
+    <t>A mode or state of being that describes the nature of the specimen.</t>
+  </si>
+  <si>
+    <t>Specimen condition is an observation made about the specimen.  It's a point-in-time assessment.  It can be used to assess its quality or appropriateness for a specific test.</t>
+  </si>
+  <si>
+    <t>The specimen condition can be used to assess its quality or appropriateness for a specific test.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-specimen-condition</t>
+  </si>
+  <si>
+    <t>Specimen.note</t>
+  </si>
+  <si>
+    <t>To communicate any details or issues about the specimen or during the specimen collection. (for example: broken vial, sent with patient, frozen).</t>
   </si>
 </sst>
 </file>
@@ -7427,7 +7861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B247"/>
+  <dimension ref="A1:B269"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9381,6 +9815,180 @@
         <v>40</v>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B248" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B252" t="s" s="2">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B253" t="s" s="2">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B254" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B255" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B256" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B257" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B258" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B259" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B260" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B261" t="s" s="2">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B262" s="2"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B263" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B264" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B265" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B266" t="s" s="2">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B267" t="s" s="2">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B268" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B269" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9388,7 +9996,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK614"/>
+  <dimension ref="A1:AK662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -73694,6 +74302,4998 @@
         <v>98</v>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B615" t="s" s="2">
+        <v>2345</v>
+      </c>
+      <c r="C615" t="s" s="2">
+        <v>2345</v>
+      </c>
+      <c r="D615" s="2"/>
+      <c r="E615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F615" s="2"/>
+      <c r="G615" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H615" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L615" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M615" t="s" s="2">
+        <v>2347</v>
+      </c>
+      <c r="N615" t="s" s="2">
+        <v>2348</v>
+      </c>
+      <c r="O615" s="2"/>
+      <c r="P615" s="2"/>
+      <c r="Q615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R615" s="2"/>
+      <c r="S615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG615" t="s" s="2">
+        <v>2345</v>
+      </c>
+      <c r="AH615" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI615" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ615" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK615" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B616" t="s" s="2">
+        <v>2349</v>
+      </c>
+      <c r="C616" t="s" s="2">
+        <v>2349</v>
+      </c>
+      <c r="D616" s="2"/>
+      <c r="E616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F616" s="2"/>
+      <c r="G616" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H616" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K616" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L616" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M616" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N616" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O616" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="P616" s="2"/>
+      <c r="Q616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R616" s="2"/>
+      <c r="S616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG616" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH616" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI616" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ616" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK616" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B617" t="s" s="2">
+        <v>2350</v>
+      </c>
+      <c r="C617" t="s" s="2">
+        <v>2350</v>
+      </c>
+      <c r="D617" s="2"/>
+      <c r="E617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F617" s="2"/>
+      <c r="G617" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H617" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K617" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L617" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M617" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N617" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O617" s="2"/>
+      <c r="P617" s="2"/>
+      <c r="Q617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R617" s="2"/>
+      <c r="S617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG617" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AH617" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI617" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ617" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK617" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B618" t="s" s="2">
+        <v>2351</v>
+      </c>
+      <c r="C618" t="s" s="2">
+        <v>2351</v>
+      </c>
+      <c r="D618" s="2"/>
+      <c r="E618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F618" s="2"/>
+      <c r="G618" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H618" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J618" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K618" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L618" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M618" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N618" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O618" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="P618" s="2"/>
+      <c r="Q618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R618" s="2"/>
+      <c r="S618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG618" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AH618" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI618" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ618" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK618" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B619" t="s" s="2">
+        <v>2352</v>
+      </c>
+      <c r="C619" t="s" s="2">
+        <v>2352</v>
+      </c>
+      <c r="D619" s="2"/>
+      <c r="E619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F619" s="2"/>
+      <c r="G619" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H619" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L619" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M619" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N619" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O619" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="P619" s="2"/>
+      <c r="Q619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R619" s="2"/>
+      <c r="S619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y619" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z619" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA619" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG619" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AH619" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI619" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ619" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK619" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B620" t="s" s="2">
+        <v>2353</v>
+      </c>
+      <c r="C620" t="s" s="2">
+        <v>2353</v>
+      </c>
+      <c r="D620" s="2"/>
+      <c r="E620" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="F620" s="2"/>
+      <c r="G620" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H620" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L620" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M620" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N620" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O620" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="P620" s="2"/>
+      <c r="Q620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R620" s="2"/>
+      <c r="S620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG620" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AH620" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI620" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ620" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK620" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B621" t="s" s="2">
+        <v>2354</v>
+      </c>
+      <c r="C621" t="s" s="2">
+        <v>2354</v>
+      </c>
+      <c r="D621" s="2"/>
+      <c r="E621" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="F621" s="2"/>
+      <c r="G621" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H621" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L621" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M621" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N621" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="O621" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="P621" s="2"/>
+      <c r="Q621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R621" s="2"/>
+      <c r="S621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG621" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AH621" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI621" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ621" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK621" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B622" t="s" s="2">
+        <v>2355</v>
+      </c>
+      <c r="C622" t="s" s="2">
+        <v>2355</v>
+      </c>
+      <c r="D622" s="2"/>
+      <c r="E622" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="F622" s="2"/>
+      <c r="G622" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H622" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L622" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M622" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N622" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="O622" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P622" s="2"/>
+      <c r="Q622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R622" s="2"/>
+      <c r="S622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG622" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AH622" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI622" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ622" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK622" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B623" t="s" s="2">
+        <v>2356</v>
+      </c>
+      <c r="C623" t="s" s="2">
+        <v>2356</v>
+      </c>
+      <c r="D623" s="2"/>
+      <c r="E623" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="F623" s="2"/>
+      <c r="G623" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H623" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J623" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L623" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M623" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N623" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O623" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P623" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Q623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R623" s="2"/>
+      <c r="S623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG623" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AH623" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI623" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ623" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK623" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B624" t="s" s="2">
+        <v>2357</v>
+      </c>
+      <c r="C624" t="s" s="2">
+        <v>2357</v>
+      </c>
+      <c r="D624" s="2"/>
+      <c r="E624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F624" s="2"/>
+      <c r="G624" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H624" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I624" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K624" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L624" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M624" t="s" s="2">
+        <v>2358</v>
+      </c>
+      <c r="N624" t="s" s="2">
+        <v>2359</v>
+      </c>
+      <c r="O624" s="2"/>
+      <c r="P624" s="2"/>
+      <c r="Q624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R624" s="2"/>
+      <c r="S624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG624" t="s" s="2">
+        <v>2357</v>
+      </c>
+      <c r="AH624" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI624" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ624" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK624" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B625" t="s" s="2">
+        <v>2360</v>
+      </c>
+      <c r="C625" t="s" s="2">
+        <v>2360</v>
+      </c>
+      <c r="D625" s="2"/>
+      <c r="E625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F625" s="2"/>
+      <c r="G625" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H625" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I625" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K625" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L625" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M625" t="s" s="2">
+        <v>2361</v>
+      </c>
+      <c r="N625" t="s" s="2">
+        <v>2362</v>
+      </c>
+      <c r="O625" s="2"/>
+      <c r="P625" s="2"/>
+      <c r="Q625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R625" s="2"/>
+      <c r="S625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG625" t="s" s="2">
+        <v>2360</v>
+      </c>
+      <c r="AH625" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI625" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ625" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK625" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B626" t="s" s="2">
+        <v>2363</v>
+      </c>
+      <c r="C626" t="s" s="2">
+        <v>2363</v>
+      </c>
+      <c r="D626" s="2"/>
+      <c r="E626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F626" s="2"/>
+      <c r="G626" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H626" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J626" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K626" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L626" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M626" t="s" s="2">
+        <v>2364</v>
+      </c>
+      <c r="N626" t="s" s="2">
+        <v>2365</v>
+      </c>
+      <c r="O626" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="P626" s="2"/>
+      <c r="Q626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R626" s="2"/>
+      <c r="S626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y626" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Z626" t="s" s="2">
+        <v>2366</v>
+      </c>
+      <c r="AA626" t="s" s="2">
+        <v>2367</v>
+      </c>
+      <c r="AB626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG626" t="s" s="2">
+        <v>2363</v>
+      </c>
+      <c r="AH626" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI626" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ626" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK626" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B627" t="s" s="2">
+        <v>2368</v>
+      </c>
+      <c r="C627" t="s" s="2">
+        <v>2368</v>
+      </c>
+      <c r="D627" s="2"/>
+      <c r="E627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F627" s="2"/>
+      <c r="G627" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H627" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I627" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K627" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L627" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M627" t="s" s="2">
+        <v>2369</v>
+      </c>
+      <c r="N627" t="s" s="2">
+        <v>2370</v>
+      </c>
+      <c r="O627" t="s" s="2">
+        <v>2371</v>
+      </c>
+      <c r="P627" s="2"/>
+      <c r="Q627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R627" s="2"/>
+      <c r="S627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y627" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Z627" s="2"/>
+      <c r="AA627" t="s" s="2">
+        <v>2372</v>
+      </c>
+      <c r="AB627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG627" t="s" s="2">
+        <v>2368</v>
+      </c>
+      <c r="AH627" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI627" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ627" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK627" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B628" t="s" s="2">
+        <v>2373</v>
+      </c>
+      <c r="C628" t="s" s="2">
+        <v>2373</v>
+      </c>
+      <c r="D628" s="2"/>
+      <c r="E628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F628" s="2"/>
+      <c r="G628" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H628" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I628" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K628" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L628" t="s" s="2">
+        <v>2374</v>
+      </c>
+      <c r="M628" t="s" s="2">
+        <v>2375</v>
+      </c>
+      <c r="N628" t="s" s="2">
+        <v>2376</v>
+      </c>
+      <c r="O628" s="2"/>
+      <c r="P628" t="s" s="2">
+        <v>2377</v>
+      </c>
+      <c r="Q628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R628" s="2"/>
+      <c r="S628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG628" t="s" s="2">
+        <v>2373</v>
+      </c>
+      <c r="AH628" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI628" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ628" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK628" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B629" t="s" s="2">
+        <v>2378</v>
+      </c>
+      <c r="C629" t="s" s="2">
+        <v>2378</v>
+      </c>
+      <c r="D629" s="2"/>
+      <c r="E629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F629" s="2"/>
+      <c r="G629" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H629" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K629" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L629" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M629" t="s" s="2">
+        <v>2379</v>
+      </c>
+      <c r="N629" t="s" s="2">
+        <v>2380</v>
+      </c>
+      <c r="O629" s="2"/>
+      <c r="P629" s="2"/>
+      <c r="Q629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R629" s="2"/>
+      <c r="S629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG629" t="s" s="2">
+        <v>2378</v>
+      </c>
+      <c r="AH629" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI629" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ629" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK629" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B630" t="s" s="2">
+        <v>2381</v>
+      </c>
+      <c r="C630" t="s" s="2">
+        <v>2381</v>
+      </c>
+      <c r="D630" s="2"/>
+      <c r="E630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F630" s="2"/>
+      <c r="G630" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H630" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L630" t="s" s="2">
+        <v>1568</v>
+      </c>
+      <c r="M630" t="s" s="2">
+        <v>2382</v>
+      </c>
+      <c r="N630" t="s" s="2">
+        <v>2383</v>
+      </c>
+      <c r="O630" t="s" s="2">
+        <v>2384</v>
+      </c>
+      <c r="P630" s="2"/>
+      <c r="Q630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R630" s="2"/>
+      <c r="S630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG630" t="s" s="2">
+        <v>2381</v>
+      </c>
+      <c r="AH630" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI630" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ630" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK630" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B631" t="s" s="2">
+        <v>2385</v>
+      </c>
+      <c r="C631" t="s" s="2">
+        <v>2385</v>
+      </c>
+      <c r="D631" s="2"/>
+      <c r="E631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F631" s="2"/>
+      <c r="G631" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H631" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L631" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M631" t="s" s="2">
+        <v>2386</v>
+      </c>
+      <c r="N631" t="s" s="2">
+        <v>2387</v>
+      </c>
+      <c r="O631" t="s" s="2">
+        <v>2388</v>
+      </c>
+      <c r="P631" s="2"/>
+      <c r="Q631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R631" s="2"/>
+      <c r="S631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG631" t="s" s="2">
+        <v>2385</v>
+      </c>
+      <c r="AH631" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI631" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ631" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK631" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B632" t="s" s="2">
+        <v>2389</v>
+      </c>
+      <c r="C632" t="s" s="2">
+        <v>2389</v>
+      </c>
+      <c r="D632" s="2"/>
+      <c r="E632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F632" s="2"/>
+      <c r="G632" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H632" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L632" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M632" t="s" s="2">
+        <v>2390</v>
+      </c>
+      <c r="N632" t="s" s="2">
+        <v>2391</v>
+      </c>
+      <c r="O632" s="2"/>
+      <c r="P632" s="2"/>
+      <c r="Q632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R632" s="2"/>
+      <c r="S632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG632" t="s" s="2">
+        <v>2389</v>
+      </c>
+      <c r="AH632" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI632" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ632" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK632" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B633" t="s" s="2">
+        <v>2392</v>
+      </c>
+      <c r="C633" t="s" s="2">
+        <v>2392</v>
+      </c>
+      <c r="D633" s="2"/>
+      <c r="E633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F633" s="2"/>
+      <c r="G633" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H633" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L633" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M633" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N633" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O633" s="2"/>
+      <c r="P633" s="2"/>
+      <c r="Q633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R633" s="2"/>
+      <c r="S633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG633" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AH633" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI633" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ633" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK633" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B634" t="s" s="2">
+        <v>2393</v>
+      </c>
+      <c r="C634" t="s" s="2">
+        <v>2393</v>
+      </c>
+      <c r="D634" s="2"/>
+      <c r="E634" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="F634" s="2"/>
+      <c r="G634" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H634" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L634" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M634" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N634" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O634" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P634" s="2"/>
+      <c r="Q634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R634" s="2"/>
+      <c r="S634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG634" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AH634" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI634" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ634" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK634" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B635" t="s" s="2">
+        <v>2394</v>
+      </c>
+      <c r="C635" t="s" s="2">
+        <v>2394</v>
+      </c>
+      <c r="D635" s="2"/>
+      <c r="E635" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="F635" s="2"/>
+      <c r="G635" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H635" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J635" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K635" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L635" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M635" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N635" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O635" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P635" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Q635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R635" s="2"/>
+      <c r="S635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG635" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AH635" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI635" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ635" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK635" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B636" t="s" s="2">
+        <v>2395</v>
+      </c>
+      <c r="C636" t="s" s="2">
+        <v>2395</v>
+      </c>
+      <c r="D636" s="2"/>
+      <c r="E636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F636" s="2"/>
+      <c r="G636" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H636" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K636" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L636" t="s" s="2">
+        <v>1173</v>
+      </c>
+      <c r="M636" t="s" s="2">
+        <v>2396</v>
+      </c>
+      <c r="N636" t="s" s="2">
+        <v>2397</v>
+      </c>
+      <c r="O636" s="2"/>
+      <c r="P636" s="2"/>
+      <c r="Q636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R636" s="2"/>
+      <c r="S636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG636" t="s" s="2">
+        <v>2395</v>
+      </c>
+      <c r="AH636" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI636" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ636" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK636" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B637" t="s" s="2">
+        <v>2398</v>
+      </c>
+      <c r="C637" t="s" s="2">
+        <v>2398</v>
+      </c>
+      <c r="D637" s="2"/>
+      <c r="E637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F637" s="2"/>
+      <c r="G637" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H637" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K637" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L637" t="s" s="2">
+        <v>2399</v>
+      </c>
+      <c r="M637" t="s" s="2">
+        <v>2400</v>
+      </c>
+      <c r="N637" t="s" s="2">
+        <v>2401</v>
+      </c>
+      <c r="O637" s="2"/>
+      <c r="P637" s="2"/>
+      <c r="Q637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R637" s="2"/>
+      <c r="S637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG637" t="s" s="2">
+        <v>2398</v>
+      </c>
+      <c r="AH637" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI637" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ637" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK637" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B638" t="s" s="2">
+        <v>2402</v>
+      </c>
+      <c r="C638" t="s" s="2">
+        <v>2402</v>
+      </c>
+      <c r="D638" s="2"/>
+      <c r="E638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F638" s="2"/>
+      <c r="G638" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H638" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K638" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L638" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M638" t="s" s="2">
+        <v>2403</v>
+      </c>
+      <c r="N638" t="s" s="2">
+        <v>2404</v>
+      </c>
+      <c r="O638" s="2"/>
+      <c r="P638" s="2"/>
+      <c r="Q638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R638" s="2"/>
+      <c r="S638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG638" t="s" s="2">
+        <v>2402</v>
+      </c>
+      <c r="AH638" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI638" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ638" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK638" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B639" t="s" s="2">
+        <v>2405</v>
+      </c>
+      <c r="C639" t="s" s="2">
+        <v>2405</v>
+      </c>
+      <c r="D639" s="2"/>
+      <c r="E639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F639" s="2"/>
+      <c r="G639" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H639" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L639" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="M639" t="s" s="2">
+        <v>2406</v>
+      </c>
+      <c r="N639" t="s" s="2">
+        <v>2407</v>
+      </c>
+      <c r="O639" s="2"/>
+      <c r="P639" s="2"/>
+      <c r="Q639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R639" s="2"/>
+      <c r="S639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG639" t="s" s="2">
+        <v>2405</v>
+      </c>
+      <c r="AH639" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI639" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ639" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK639" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B640" t="s" s="2">
+        <v>2408</v>
+      </c>
+      <c r="C640" t="s" s="2">
+        <v>2408</v>
+      </c>
+      <c r="D640" s="2"/>
+      <c r="E640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F640" s="2"/>
+      <c r="G640" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H640" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L640" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M640" t="s" s="2">
+        <v>2409</v>
+      </c>
+      <c r="N640" t="s" s="2">
+        <v>2410</v>
+      </c>
+      <c r="O640" s="2"/>
+      <c r="P640" s="2"/>
+      <c r="Q640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R640" s="2"/>
+      <c r="S640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y640" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Z640" t="s" s="2">
+        <v>2411</v>
+      </c>
+      <c r="AA640" t="s" s="2">
+        <v>2412</v>
+      </c>
+      <c r="AB640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG640" t="s" s="2">
+        <v>2408</v>
+      </c>
+      <c r="AH640" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI640" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ640" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK640" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B641" t="s" s="2">
+        <v>2413</v>
+      </c>
+      <c r="C641" t="s" s="2">
+        <v>2413</v>
+      </c>
+      <c r="D641" s="2"/>
+      <c r="E641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F641" s="2"/>
+      <c r="G641" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H641" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L641" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M641" t="s" s="2">
+        <v>2414</v>
+      </c>
+      <c r="N641" t="s" s="2">
+        <v>2415</v>
+      </c>
+      <c r="O641" t="s" s="2">
+        <v>2416</v>
+      </c>
+      <c r="P641" s="2"/>
+      <c r="Q641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R641" s="2"/>
+      <c r="S641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y641" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Z641" s="2"/>
+      <c r="AA641" t="s" s="2">
+        <v>1559</v>
+      </c>
+      <c r="AB641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG641" t="s" s="2">
+        <v>2413</v>
+      </c>
+      <c r="AH641" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI641" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ641" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK641" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B642" t="s" s="2">
+        <v>2417</v>
+      </c>
+      <c r="C642" t="s" s="2">
+        <v>2417</v>
+      </c>
+      <c r="D642" s="2"/>
+      <c r="E642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F642" s="2"/>
+      <c r="G642" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H642" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K642" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L642" t="s" s="2">
+        <v>2418</v>
+      </c>
+      <c r="M642" t="s" s="2">
+        <v>2419</v>
+      </c>
+      <c r="N642" t="s" s="2">
+        <v>2420</v>
+      </c>
+      <c r="O642" t="s" s="2">
+        <v>2421</v>
+      </c>
+      <c r="P642" t="s" s="2">
+        <v>2422</v>
+      </c>
+      <c r="Q642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R642" s="2"/>
+      <c r="S642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y642" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Z642" t="s" s="2">
+        <v>2423</v>
+      </c>
+      <c r="AA642" t="s" s="2">
+        <v>2424</v>
+      </c>
+      <c r="AB642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG642" t="s" s="2">
+        <v>2417</v>
+      </c>
+      <c r="AH642" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI642" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ642" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK642" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B643" t="s" s="2">
+        <v>2425</v>
+      </c>
+      <c r="C643" t="s" s="2">
+        <v>2425</v>
+      </c>
+      <c r="D643" s="2"/>
+      <c r="E643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F643" s="2"/>
+      <c r="G643" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H643" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L643" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M643" t="s" s="2">
+        <v>2426</v>
+      </c>
+      <c r="N643" t="s" s="2">
+        <v>2427</v>
+      </c>
+      <c r="O643" s="2"/>
+      <c r="P643" s="2"/>
+      <c r="Q643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R643" s="2"/>
+      <c r="S643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG643" t="s" s="2">
+        <v>2425</v>
+      </c>
+      <c r="AH643" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI643" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ643" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK643" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B644" t="s" s="2">
+        <v>2428</v>
+      </c>
+      <c r="C644" t="s" s="2">
+        <v>2428</v>
+      </c>
+      <c r="D644" s="2"/>
+      <c r="E644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F644" s="2"/>
+      <c r="G644" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H644" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L644" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M644" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N644" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O644" s="2"/>
+      <c r="P644" s="2"/>
+      <c r="Q644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R644" s="2"/>
+      <c r="S644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG644" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AH644" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI644" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ644" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK644" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B645" t="s" s="2">
+        <v>2429</v>
+      </c>
+      <c r="C645" t="s" s="2">
+        <v>2429</v>
+      </c>
+      <c r="D645" s="2"/>
+      <c r="E645" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="F645" s="2"/>
+      <c r="G645" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H645" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L645" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M645" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N645" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O645" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P645" s="2"/>
+      <c r="Q645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R645" s="2"/>
+      <c r="S645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG645" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AH645" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI645" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ645" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK645" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B646" t="s" s="2">
+        <v>2430</v>
+      </c>
+      <c r="C646" t="s" s="2">
+        <v>2430</v>
+      </c>
+      <c r="D646" s="2"/>
+      <c r="E646" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="F646" s="2"/>
+      <c r="G646" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H646" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J646" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K646" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L646" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M646" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N646" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O646" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P646" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Q646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R646" s="2"/>
+      <c r="S646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG646" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AH646" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI646" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ646" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK646" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B647" t="s" s="2">
+        <v>2431</v>
+      </c>
+      <c r="C647" t="s" s="2">
+        <v>2431</v>
+      </c>
+      <c r="D647" s="2"/>
+      <c r="E647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F647" s="2"/>
+      <c r="G647" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H647" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L647" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M647" t="s" s="2">
+        <v>2432</v>
+      </c>
+      <c r="N647" t="s" s="2">
+        <v>2433</v>
+      </c>
+      <c r="O647" s="2"/>
+      <c r="P647" s="2"/>
+      <c r="Q647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R647" s="2"/>
+      <c r="S647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG647" t="s" s="2">
+        <v>2431</v>
+      </c>
+      <c r="AH647" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI647" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ647" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK647" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B648" t="s" s="2">
+        <v>2434</v>
+      </c>
+      <c r="C648" t="s" s="2">
+        <v>2434</v>
+      </c>
+      <c r="D648" s="2"/>
+      <c r="E648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F648" s="2"/>
+      <c r="G648" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H648" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L648" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M648" t="s" s="2">
+        <v>2435</v>
+      </c>
+      <c r="N648" t="s" s="2">
+        <v>2436</v>
+      </c>
+      <c r="O648" s="2"/>
+      <c r="P648" s="2"/>
+      <c r="Q648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R648" s="2"/>
+      <c r="S648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y648" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Z648" t="s" s="2">
+        <v>2437</v>
+      </c>
+      <c r="AA648" t="s" s="2">
+        <v>2438</v>
+      </c>
+      <c r="AB648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG648" t="s" s="2">
+        <v>2434</v>
+      </c>
+      <c r="AH648" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI648" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ648" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK648" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B649" t="s" s="2">
+        <v>2439</v>
+      </c>
+      <c r="C649" t="s" s="2">
+        <v>2439</v>
+      </c>
+      <c r="D649" s="2"/>
+      <c r="E649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F649" s="2"/>
+      <c r="G649" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H649" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L649" t="s" s="2">
+        <v>2440</v>
+      </c>
+      <c r="M649" t="s" s="2">
+        <v>2441</v>
+      </c>
+      <c r="N649" t="s" s="2">
+        <v>2442</v>
+      </c>
+      <c r="O649" s="2"/>
+      <c r="P649" s="2"/>
+      <c r="Q649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R649" s="2"/>
+      <c r="S649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG649" t="s" s="2">
+        <v>2439</v>
+      </c>
+      <c r="AH649" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI649" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ649" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK649" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B650" t="s" s="2">
+        <v>2443</v>
+      </c>
+      <c r="C650" t="s" s="2">
+        <v>2443</v>
+      </c>
+      <c r="D650" s="2"/>
+      <c r="E650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F650" s="2"/>
+      <c r="G650" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H650" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L650" t="s" s="2">
+        <v>2399</v>
+      </c>
+      <c r="M650" t="s" s="2">
+        <v>2444</v>
+      </c>
+      <c r="N650" t="s" s="2">
+        <v>2445</v>
+      </c>
+      <c r="O650" s="2"/>
+      <c r="P650" s="2"/>
+      <c r="Q650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R650" s="2"/>
+      <c r="S650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG650" t="s" s="2">
+        <v>2443</v>
+      </c>
+      <c r="AH650" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI650" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ650" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK650" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B651" t="s" s="2">
+        <v>2446</v>
+      </c>
+      <c r="C651" t="s" s="2">
+        <v>2446</v>
+      </c>
+      <c r="D651" s="2"/>
+      <c r="E651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F651" s="2"/>
+      <c r="G651" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H651" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L651" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M651" t="s" s="2">
+        <v>2447</v>
+      </c>
+      <c r="N651" t="s" s="2">
+        <v>2448</v>
+      </c>
+      <c r="O651" s="2"/>
+      <c r="P651" s="2"/>
+      <c r="Q651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R651" s="2"/>
+      <c r="S651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG651" t="s" s="2">
+        <v>2446</v>
+      </c>
+      <c r="AH651" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI651" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ651" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK651" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B652" t="s" s="2">
+        <v>2449</v>
+      </c>
+      <c r="C652" t="s" s="2">
+        <v>2449</v>
+      </c>
+      <c r="D652" s="2"/>
+      <c r="E652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F652" s="2"/>
+      <c r="G652" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H652" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L652" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M652" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N652" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O652" s="2"/>
+      <c r="P652" s="2"/>
+      <c r="Q652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R652" s="2"/>
+      <c r="S652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG652" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AH652" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI652" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ652" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK652" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B653" t="s" s="2">
+        <v>2450</v>
+      </c>
+      <c r="C653" t="s" s="2">
+        <v>2450</v>
+      </c>
+      <c r="D653" s="2"/>
+      <c r="E653" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="F653" s="2"/>
+      <c r="G653" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H653" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L653" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M653" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N653" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O653" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P653" s="2"/>
+      <c r="Q653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R653" s="2"/>
+      <c r="S653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG653" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AH653" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI653" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ653" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK653" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B654" t="s" s="2">
+        <v>2451</v>
+      </c>
+      <c r="C654" t="s" s="2">
+        <v>2451</v>
+      </c>
+      <c r="D654" s="2"/>
+      <c r="E654" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="F654" s="2"/>
+      <c r="G654" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H654" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J654" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K654" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L654" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M654" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N654" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O654" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P654" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Q654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R654" s="2"/>
+      <c r="S654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG654" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AH654" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI654" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ654" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK654" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B655" t="s" s="2">
+        <v>2452</v>
+      </c>
+      <c r="C655" t="s" s="2">
+        <v>2452</v>
+      </c>
+      <c r="D655" s="2"/>
+      <c r="E655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F655" s="2"/>
+      <c r="G655" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H655" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K655" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L655" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M655" t="s" s="2">
+        <v>2453</v>
+      </c>
+      <c r="N655" t="s" s="2">
+        <v>2454</v>
+      </c>
+      <c r="O655" s="2"/>
+      <c r="P655" s="2"/>
+      <c r="Q655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R655" s="2"/>
+      <c r="S655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG655" t="s" s="2">
+        <v>2452</v>
+      </c>
+      <c r="AH655" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI655" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ655" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK655" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B656" t="s" s="2">
+        <v>2455</v>
+      </c>
+      <c r="C656" t="s" s="2">
+        <v>2455</v>
+      </c>
+      <c r="D656" s="2"/>
+      <c r="E656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F656" s="2"/>
+      <c r="G656" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H656" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L656" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M656" t="s" s="2">
+        <v>2456</v>
+      </c>
+      <c r="N656" t="s" s="2">
+        <v>2457</v>
+      </c>
+      <c r="O656" s="2"/>
+      <c r="P656" s="2"/>
+      <c r="Q656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R656" s="2"/>
+      <c r="S656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG656" t="s" s="2">
+        <v>2455</v>
+      </c>
+      <c r="AH656" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI656" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ656" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK656" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B657" t="s" s="2">
+        <v>2458</v>
+      </c>
+      <c r="C657" t="s" s="2">
+        <v>2458</v>
+      </c>
+      <c r="D657" s="2"/>
+      <c r="E657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F657" s="2"/>
+      <c r="G657" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H657" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L657" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M657" t="s" s="2">
+        <v>2459</v>
+      </c>
+      <c r="N657" t="s" s="2">
+        <v>2460</v>
+      </c>
+      <c r="O657" s="2"/>
+      <c r="P657" s="2"/>
+      <c r="Q657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R657" s="2"/>
+      <c r="S657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y657" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Z657" t="s" s="2">
+        <v>2461</v>
+      </c>
+      <c r="AA657" t="s" s="2">
+        <v>2462</v>
+      </c>
+      <c r="AB657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG657" t="s" s="2">
+        <v>2458</v>
+      </c>
+      <c r="AH657" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI657" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ657" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK657" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B658" t="s" s="2">
+        <v>2463</v>
+      </c>
+      <c r="C658" t="s" s="2">
+        <v>2463</v>
+      </c>
+      <c r="D658" s="2"/>
+      <c r="E658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F658" s="2"/>
+      <c r="G658" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H658" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L658" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="M658" t="s" s="2">
+        <v>2464</v>
+      </c>
+      <c r="N658" t="s" s="2">
+        <v>2465</v>
+      </c>
+      <c r="O658" s="2"/>
+      <c r="P658" s="2"/>
+      <c r="Q658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R658" s="2"/>
+      <c r="S658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG658" t="s" s="2">
+        <v>2463</v>
+      </c>
+      <c r="AH658" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI658" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ658" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK658" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B659" t="s" s="2">
+        <v>2466</v>
+      </c>
+      <c r="C659" t="s" s="2">
+        <v>2466</v>
+      </c>
+      <c r="D659" s="2"/>
+      <c r="E659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F659" s="2"/>
+      <c r="G659" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H659" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L659" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="M659" t="s" s="2">
+        <v>2467</v>
+      </c>
+      <c r="N659" t="s" s="2">
+        <v>2468</v>
+      </c>
+      <c r="O659" s="2"/>
+      <c r="P659" s="2"/>
+      <c r="Q659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R659" s="2"/>
+      <c r="S659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG659" t="s" s="2">
+        <v>2466</v>
+      </c>
+      <c r="AH659" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI659" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ659" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK659" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B660" t="s" s="2">
+        <v>2469</v>
+      </c>
+      <c r="C660" t="s" s="2">
+        <v>2469</v>
+      </c>
+      <c r="D660" s="2"/>
+      <c r="E660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F660" s="2"/>
+      <c r="G660" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H660" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L660" t="s" s="2">
+        <v>2470</v>
+      </c>
+      <c r="M660" t="s" s="2">
+        <v>2471</v>
+      </c>
+      <c r="N660" t="s" s="2">
+        <v>2472</v>
+      </c>
+      <c r="O660" s="2"/>
+      <c r="P660" s="2"/>
+      <c r="Q660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R660" s="2"/>
+      <c r="S660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y660" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Z660" t="s" s="2">
+        <v>2473</v>
+      </c>
+      <c r="AA660" t="s" s="2">
+        <v>2474</v>
+      </c>
+      <c r="AB660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG660" t="s" s="2">
+        <v>2469</v>
+      </c>
+      <c r="AH660" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI660" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ660" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK660" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B661" t="s" s="2">
+        <v>2475</v>
+      </c>
+      <c r="C661" t="s" s="2">
+        <v>2475</v>
+      </c>
+      <c r="D661" s="2"/>
+      <c r="E661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F661" s="2"/>
+      <c r="G661" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H661" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K661" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L661" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M661" t="s" s="2">
+        <v>2476</v>
+      </c>
+      <c r="N661" t="s" s="2">
+        <v>2477</v>
+      </c>
+      <c r="O661" t="s" s="2">
+        <v>2478</v>
+      </c>
+      <c r="P661" t="s" s="2">
+        <v>2479</v>
+      </c>
+      <c r="Q661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R661" s="2"/>
+      <c r="S661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y661" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Z661" s="2"/>
+      <c r="AA661" t="s" s="2">
+        <v>2480</v>
+      </c>
+      <c r="AB661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG661" t="s" s="2">
+        <v>2475</v>
+      </c>
+      <c r="AH661" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI661" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ661" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK661" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B662" t="s" s="2">
+        <v>2481</v>
+      </c>
+      <c r="C662" t="s" s="2">
+        <v>2481</v>
+      </c>
+      <c r="D662" s="2"/>
+      <c r="E662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F662" s="2"/>
+      <c r="G662" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H662" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L662" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="M662" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="N662" t="s" s="2">
+        <v>2482</v>
+      </c>
+      <c r="O662" s="2"/>
+      <c r="P662" s="2"/>
+      <c r="Q662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R662" s="2"/>
+      <c r="S662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG662" t="s" s="2">
+        <v>2481</v>
+      </c>
+      <c r="AH662" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI662" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ662" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK662" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
